--- a/docs/地理代码/全球/国家.xlsx
+++ b/docs/地理代码/全球/国家.xlsx
@@ -6596,145 +6596,145 @@
     <t>RI</t>
   </si>
   <si>
+    <t>88361</t>
+  </si>
+  <si>
+    <t>7344847</t>
+  </si>
+  <si>
+    <t>罗马尼亚（罗马尼亚语：Lomânia）位于东南欧巴尔干半岛东北部。北和东北分别与乌克兰和摩尔多瓦为邻，南接保加利亚，西南和西北分别与塞尔维亚和匈牙利接壤，东南临黑海。面积238391平方公里，人口1994万（2014年12月）。首都布加勒斯特。</t>
+  </si>
+  <si>
+    <t>105.318756</t>
+  </si>
+  <si>
+    <t>61.52401</t>
+  </si>
+  <si>
+    <t>俄罗斯</t>
+  </si>
+  <si>
+    <t>Russian Federation</t>
+  </si>
+  <si>
+    <t>RUS</t>
+  </si>
+  <si>
+    <t>RU</t>
+  </si>
+  <si>
+    <t>643</t>
+  </si>
+  <si>
+    <t>俄罗斯联邦</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>17100000</t>
+  </si>
+  <si>
+    <t>140702000</t>
+  </si>
+  <si>
+    <t>俄罗斯联邦（俄语：Российская Федерация，英语：The Russian Federation），通称俄罗斯（俄国为俄罗斯帝国的简称），是由22个自治共和国、46个州、9个边疆区、4个自治区、1个自治州、3个联邦直辖市组成的联邦共和立宪制国家。 国旗为白、蓝、红三色旗。国徽主体为双头鹰图案。俄罗斯位于欧亚大陆北部，地跨欧亚两大洲，国土面积为1707.54万平方公里，是世界上面积最大的国家。</t>
+  </si>
+  <si>
+    <t>29.873888</t>
+  </si>
+  <si>
+    <t>-1.940278</t>
+  </si>
+  <si>
+    <t>卢旺达</t>
+  </si>
+  <si>
+    <t>the Republic of Rwanda</t>
+  </si>
+  <si>
+    <t>RWA</t>
+  </si>
+  <si>
+    <t>RW</t>
+  </si>
+  <si>
+    <t>646</t>
+  </si>
+  <si>
+    <t>卢旺达共和国</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>26338</t>
+  </si>
+  <si>
+    <t>11055976</t>
+  </si>
+  <si>
+    <t>卢旺达（Republika y'u Rwanda） 是非洲中东部的一个国家，全称卢旺达共和国，位于非洲中东部赤道南侧，内陆国家。东邻坦桑尼亚，南连布隆迪，西和西北与刚果（金）交界，北与乌干达接壤，国土面积26338平方公里。境内多山，有“千丘之国”的称谓。</t>
+  </si>
+  <si>
+    <t>45.079162</t>
+  </si>
+  <si>
+    <t>23.885942</t>
+  </si>
+  <si>
+    <t>沙特阿拉伯</t>
+  </si>
+  <si>
+    <t>Kingdom of Saudi Arabia</t>
+  </si>
+  <si>
+    <t>SAU</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>682</t>
+  </si>
+  <si>
+    <t>沙特阿拉伯王国</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>1960582</t>
+  </si>
+  <si>
+    <t>25731776</t>
+  </si>
+  <si>
+    <t>沙特是名副其实的“石油王国”，石油储量和产量均居世界首位，使其成为世界上最富裕的国家之一。  沙特是世界上最大的淡化海水生产国，其海水淡化量占世界总量的21%左右。沙特实行自由经济政策。麦加是伊斯兰教创建人穆罕默德的诞生地，是伊斯兰教徒朝觐圣地。</t>
+  </si>
+  <si>
+    <t>21.005859</t>
+  </si>
+  <si>
+    <t>44.016521</t>
+  </si>
+  <si>
+    <t>塞尔维亚</t>
+  </si>
+  <si>
+    <t>Serbia and Montenegro</t>
+  </si>
+  <si>
+    <t>SCG</t>
+  </si>
+  <si>
+    <t>891</t>
+  </si>
+  <si>
+    <t>YI</t>
+  </si>
+  <si>
     <t>Serbia</t>
-  </si>
-  <si>
-    <t>88361</t>
-  </si>
-  <si>
-    <t>7344847</t>
-  </si>
-  <si>
-    <t>罗马尼亚（罗马尼亚语：Lomânia）位于东南欧巴尔干半岛东北部。北和东北分别与乌克兰和摩尔多瓦为邻，南接保加利亚，西南和西北分别与塞尔维亚和匈牙利接壤，东南临黑海。面积238391平方公里，人口1994万（2014年12月）。首都布加勒斯特。</t>
-  </si>
-  <si>
-    <t>105.318756</t>
-  </si>
-  <si>
-    <t>61.52401</t>
-  </si>
-  <si>
-    <t>俄罗斯</t>
-  </si>
-  <si>
-    <t>Russian Federation</t>
-  </si>
-  <si>
-    <t>RUS</t>
-  </si>
-  <si>
-    <t>RU</t>
-  </si>
-  <si>
-    <t>643</t>
-  </si>
-  <si>
-    <t>俄罗斯联邦</t>
-  </si>
-  <si>
-    <t>Russia</t>
-  </si>
-  <si>
-    <t>17100000</t>
-  </si>
-  <si>
-    <t>140702000</t>
-  </si>
-  <si>
-    <t>俄罗斯联邦（俄语：Российская Федерация，英语：The Russian Federation），通称俄罗斯（俄国为俄罗斯帝国的简称），是由22个自治共和国、46个州、9个边疆区、4个自治区、1个自治州、3个联邦直辖市组成的联邦共和立宪制国家。 国旗为白、蓝、红三色旗。国徽主体为双头鹰图案。俄罗斯位于欧亚大陆北部，地跨欧亚两大洲，国土面积为1707.54万平方公里，是世界上面积最大的国家。</t>
-  </si>
-  <si>
-    <t>29.873888</t>
-  </si>
-  <si>
-    <t>-1.940278</t>
-  </si>
-  <si>
-    <t>卢旺达</t>
-  </si>
-  <si>
-    <t>the Republic of Rwanda</t>
-  </si>
-  <si>
-    <t>RWA</t>
-  </si>
-  <si>
-    <t>RW</t>
-  </si>
-  <si>
-    <t>646</t>
-  </si>
-  <si>
-    <t>卢旺达共和国</t>
-  </si>
-  <si>
-    <t>Rwanda</t>
-  </si>
-  <si>
-    <t>26338</t>
-  </si>
-  <si>
-    <t>11055976</t>
-  </si>
-  <si>
-    <t>卢旺达（Republika y'u Rwanda） 是非洲中东部的一个国家，全称卢旺达共和国，位于非洲中东部赤道南侧，内陆国家。东邻坦桑尼亚，南连布隆迪，西和西北与刚果（金）交界，北与乌干达接壤，国土面积26338平方公里。境内多山，有“千丘之国”的称谓。</t>
-  </si>
-  <si>
-    <t>45.079162</t>
-  </si>
-  <si>
-    <t>23.885942</t>
-  </si>
-  <si>
-    <t>沙特阿拉伯</t>
-  </si>
-  <si>
-    <t>Kingdom of Saudi Arabia</t>
-  </si>
-  <si>
-    <t>SAU</t>
-  </si>
-  <si>
-    <t>SA</t>
-  </si>
-  <si>
-    <t>682</t>
-  </si>
-  <si>
-    <t>沙特阿拉伯王国</t>
-  </si>
-  <si>
-    <t>Saudi Arabia</t>
-  </si>
-  <si>
-    <t>1960582</t>
-  </si>
-  <si>
-    <t>25731776</t>
-  </si>
-  <si>
-    <t>沙特是名副其实的“石油王国”，石油储量和产量均居世界首位，使其成为世界上最富裕的国家之一。  沙特是世界上最大的淡化海水生产国，其海水淡化量占世界总量的21%左右。沙特实行自由经济政策。麦加是伊斯兰教创建人穆罕默德的诞生地，是伊斯兰教徒朝觐圣地。</t>
-  </si>
-  <si>
-    <t>21.005859</t>
-  </si>
-  <si>
-    <t>44.016521</t>
-  </si>
-  <si>
-    <t>塞尔维亚</t>
-  </si>
-  <si>
-    <t>Serbia and Montenegro</t>
-  </si>
-  <si>
-    <t>SCG</t>
-  </si>
-  <si>
-    <t>891</t>
-  </si>
-  <si>
-    <t>YI</t>
   </si>
   <si>
     <t>塞尔维亚共和国</t>
@@ -23503,19 +23503,19 @@
         <v>2189</v>
       </c>
       <c r="M182" t="s">
+        <v>34</v>
+      </c>
+      <c r="N182" t="s">
+        <v>34</v>
+      </c>
+      <c r="O182" t="s">
+        <v>34</v>
+      </c>
+      <c r="P182" t="s">
         <v>2194</v>
       </c>
-      <c r="N182" t="s">
-        <v>34</v>
-      </c>
-      <c r="O182" t="s">
-        <v>34</v>
-      </c>
-      <c r="P182" t="s">
+      <c r="Q182" t="s">
         <v>2195</v>
-      </c>
-      <c r="Q182" t="s">
-        <v>2196</v>
       </c>
       <c r="R182" t="s">
         <v>98</v>
@@ -23542,7 +23542,7 @@
         <v>34</v>
       </c>
       <c r="Z182" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="183">
@@ -23550,25 +23550,25 @@
         <v>18</v>
       </c>
       <c r="B183" t="s">
+        <v>2197</v>
+      </c>
+      <c r="C183" t="s">
         <v>2198</v>
       </c>
-      <c r="C183" t="s">
+      <c r="D183" t="s">
         <v>2199</v>
       </c>
-      <c r="D183" t="s">
+      <c r="E183" t="s">
         <v>2200</v>
       </c>
-      <c r="E183" t="s">
+      <c r="F183" t="s">
         <v>2201</v>
       </c>
-      <c r="F183" t="s">
+      <c r="G183" t="s">
         <v>2202</v>
       </c>
-      <c r="G183" t="s">
+      <c r="H183" t="s">
         <v>2203</v>
-      </c>
-      <c r="H183" t="s">
-        <v>2204</v>
       </c>
       <c r="I183" t="s">
         <v>2191</v>
@@ -23577,31 +23577,31 @@
         <v>34</v>
       </c>
       <c r="K183" t="s">
+        <v>2204</v>
+      </c>
+      <c r="L183" t="s">
         <v>2205</v>
       </c>
-      <c r="L183" t="s">
+      <c r="M183" t="s">
+        <v>34</v>
+      </c>
+      <c r="N183" t="s">
+        <v>34</v>
+      </c>
+      <c r="O183" t="s">
+        <v>34</v>
+      </c>
+      <c r="P183" t="s">
         <v>2206</v>
       </c>
-      <c r="M183" t="s">
-        <v>34</v>
-      </c>
-      <c r="N183" t="s">
-        <v>34</v>
-      </c>
-      <c r="O183" t="s">
-        <v>34</v>
-      </c>
-      <c r="P183" t="s">
+      <c r="Q183" t="s">
         <v>2207</v>
-      </c>
-      <c r="Q183" t="s">
-        <v>2208</v>
       </c>
       <c r="R183" t="s">
         <v>98</v>
       </c>
       <c r="S183" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="T183" t="s">
         <v>34</v>
@@ -23622,7 +23622,7 @@
         <v>34</v>
       </c>
       <c r="Z183" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="184">
@@ -23630,58 +23630,58 @@
         <v>18</v>
       </c>
       <c r="B184" t="s">
+        <v>2209</v>
+      </c>
+      <c r="C184" t="s">
         <v>2210</v>
       </c>
-      <c r="C184" t="s">
+      <c r="D184" t="s">
         <v>2211</v>
       </c>
-      <c r="D184" t="s">
+      <c r="E184" t="s">
         <v>2212</v>
       </c>
-      <c r="E184" t="s">
+      <c r="F184" t="s">
         <v>2213</v>
       </c>
-      <c r="F184" t="s">
+      <c r="G184" t="s">
         <v>2214</v>
       </c>
-      <c r="G184" t="s">
+      <c r="H184" t="s">
         <v>2215</v>
       </c>
-      <c r="H184" t="s">
+      <c r="I184" t="s">
+        <v>2214</v>
+      </c>
+      <c r="J184" t="s">
+        <v>34</v>
+      </c>
+      <c r="K184" t="s">
         <v>2216</v>
       </c>
-      <c r="I184" t="s">
-        <v>2215</v>
-      </c>
-      <c r="J184" t="s">
-        <v>34</v>
-      </c>
-      <c r="K184" t="s">
+      <c r="L184" t="s">
         <v>2217</v>
       </c>
-      <c r="L184" t="s">
+      <c r="M184" t="s">
+        <v>34</v>
+      </c>
+      <c r="N184" t="s">
+        <v>34</v>
+      </c>
+      <c r="O184" t="s">
+        <v>34</v>
+      </c>
+      <c r="P184" t="s">
         <v>2218</v>
       </c>
-      <c r="M184" t="s">
-        <v>34</v>
-      </c>
-      <c r="N184" t="s">
-        <v>34</v>
-      </c>
-      <c r="O184" t="s">
-        <v>34</v>
-      </c>
-      <c r="P184" t="s">
+      <c r="Q184" t="s">
         <v>2219</v>
-      </c>
-      <c r="Q184" t="s">
-        <v>2220</v>
       </c>
       <c r="R184" t="s">
         <v>77</v>
       </c>
       <c r="S184" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="T184" t="s">
         <v>34</v>
@@ -23702,7 +23702,7 @@
         <v>34</v>
       </c>
       <c r="Z184" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="185">
@@ -23710,58 +23710,58 @@
         <v>18</v>
       </c>
       <c r="B185" t="s">
+        <v>2221</v>
+      </c>
+      <c r="C185" t="s">
         <v>2222</v>
       </c>
-      <c r="C185" t="s">
+      <c r="D185" t="s">
         <v>2223</v>
       </c>
-      <c r="D185" t="s">
+      <c r="E185" t="s">
         <v>2224</v>
       </c>
-      <c r="E185" t="s">
+      <c r="F185" t="s">
         <v>2225</v>
       </c>
-      <c r="F185" t="s">
+      <c r="G185" t="s">
         <v>2226</v>
       </c>
-      <c r="G185" t="s">
+      <c r="H185" t="s">
         <v>2227</v>
       </c>
-      <c r="H185" t="s">
+      <c r="I185" t="s">
+        <v>2226</v>
+      </c>
+      <c r="J185" t="s">
+        <v>34</v>
+      </c>
+      <c r="K185" t="s">
         <v>2228</v>
       </c>
-      <c r="I185" t="s">
-        <v>2227</v>
-      </c>
-      <c r="J185" t="s">
-        <v>34</v>
-      </c>
-      <c r="K185" t="s">
+      <c r="L185" t="s">
         <v>2229</v>
       </c>
-      <c r="L185" t="s">
+      <c r="M185" t="s">
+        <v>34</v>
+      </c>
+      <c r="N185" t="s">
+        <v>34</v>
+      </c>
+      <c r="O185" t="s">
+        <v>34</v>
+      </c>
+      <c r="P185" t="s">
         <v>2230</v>
       </c>
-      <c r="M185" t="s">
-        <v>34</v>
-      </c>
-      <c r="N185" t="s">
-        <v>34</v>
-      </c>
-      <c r="O185" t="s">
-        <v>34</v>
-      </c>
-      <c r="P185" t="s">
+      <c r="Q185" t="s">
         <v>2231</v>
-      </c>
-      <c r="Q185" t="s">
-        <v>2232</v>
       </c>
       <c r="R185" t="s">
         <v>39</v>
       </c>
       <c r="S185" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="T185" t="s">
         <v>34</v>
@@ -23782,7 +23782,7 @@
         <v>34</v>
       </c>
       <c r="Z185" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="186">
@@ -23790,34 +23790,34 @@
         <v>18</v>
       </c>
       <c r="B186" t="s">
+        <v>2233</v>
+      </c>
+      <c r="C186" t="s">
         <v>2234</v>
       </c>
-      <c r="C186" t="s">
+      <c r="D186" t="s">
         <v>2235</v>
       </c>
-      <c r="D186" t="s">
+      <c r="E186" t="s">
         <v>2236</v>
       </c>
-      <c r="E186" t="s">
+      <c r="F186" t="s">
         <v>2237</v>
-      </c>
-      <c r="F186" t="s">
-        <v>2238</v>
       </c>
       <c r="G186" t="s">
         <v>648</v>
       </c>
       <c r="H186" t="s">
+        <v>2238</v>
+      </c>
+      <c r="I186" t="s">
         <v>2239</v>
       </c>
-      <c r="I186" t="s">
+      <c r="J186" t="s">
+        <v>34</v>
+      </c>
+      <c r="K186" t="s">
         <v>2240</v>
-      </c>
-      <c r="J186" t="s">
-        <v>34</v>
-      </c>
-      <c r="K186" t="s">
-        <v>2194</v>
       </c>
       <c r="L186" t="s">
         <v>2241</v>
@@ -23841,7 +23841,7 @@
         <v>98</v>
       </c>
       <c r="S186" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="T186" t="s">
         <v>34</v>

--- a/docs/地理代码/全球/国家.xlsx
+++ b/docs/地理代码/全球/国家.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6500" uniqueCount="2964">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6500" uniqueCount="2963">
   <si>
     <t>级别</t>
   </si>
@@ -5214,9 +5214,6 @@
   </si>
   <si>
     <t>蒙古国</t>
-  </si>
-  <si>
-    <t>Macao</t>
   </si>
   <si>
     <t>449198</t>
@@ -20383,7 +20380,7 @@
         <v>1730</v>
       </c>
       <c r="M143" t="s">
-        <v>1734</v>
+        <v>34</v>
       </c>
       <c r="N143" t="s">
         <v>34</v>
@@ -20395,7 +20392,7 @@
         <v>1102</v>
       </c>
       <c r="Q143" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="R143" t="s">
         <v>39</v>
@@ -20422,7 +20419,7 @@
         <v>34</v>
       </c>
       <c r="Z143" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="144">
@@ -20430,58 +20427,58 @@
         <v>18</v>
       </c>
       <c r="B144" t="s">
+        <v>1736</v>
+      </c>
+      <c r="C144" t="s">
         <v>1737</v>
       </c>
-      <c r="C144" t="s">
+      <c r="D144" t="s">
         <v>1738</v>
       </c>
-      <c r="D144" t="s">
+      <c r="E144" t="s">
         <v>1739</v>
       </c>
-      <c r="E144" t="s">
+      <c r="F144" t="s">
         <v>1740</v>
       </c>
-      <c r="F144" t="s">
+      <c r="G144" t="s">
         <v>1741</v>
       </c>
-      <c r="G144" t="s">
+      <c r="H144" t="s">
         <v>1742</v>
       </c>
-      <c r="H144" t="s">
+      <c r="I144" t="s">
         <v>1743</v>
       </c>
-      <c r="I144" t="s">
+      <c r="J144" t="s">
+        <v>34</v>
+      </c>
+      <c r="K144" t="s">
+        <v>1738</v>
+      </c>
+      <c r="L144" t="s">
+        <v>34</v>
+      </c>
+      <c r="M144" t="s">
+        <v>34</v>
+      </c>
+      <c r="N144" t="s">
+        <v>34</v>
+      </c>
+      <c r="O144" t="s">
+        <v>34</v>
+      </c>
+      <c r="P144" t="s">
         <v>1744</v>
       </c>
-      <c r="J144" t="s">
-        <v>34</v>
-      </c>
-      <c r="K144" t="s">
-        <v>1739</v>
-      </c>
-      <c r="L144" t="s">
-        <v>34</v>
-      </c>
-      <c r="M144" t="s">
-        <v>34</v>
-      </c>
-      <c r="N144" t="s">
-        <v>34</v>
-      </c>
-      <c r="O144" t="s">
-        <v>34</v>
-      </c>
-      <c r="P144" t="s">
+      <c r="Q144" t="s">
         <v>1745</v>
-      </c>
-      <c r="Q144" t="s">
-        <v>1746</v>
       </c>
       <c r="R144" t="s">
         <v>195</v>
       </c>
       <c r="S144" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="T144" t="s">
         <v>34</v>
@@ -20510,58 +20507,58 @@
         <v>18</v>
       </c>
       <c r="B145" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C145" t="s">
         <v>1747</v>
       </c>
-      <c r="C145" t="s">
+      <c r="D145" t="s">
         <v>1748</v>
       </c>
-      <c r="D145" t="s">
+      <c r="E145" t="s">
         <v>1749</v>
       </c>
-      <c r="E145" t="s">
+      <c r="F145" t="s">
         <v>1750</v>
       </c>
-      <c r="F145" t="s">
+      <c r="G145" t="s">
         <v>1751</v>
       </c>
-      <c r="G145" t="s">
+      <c r="H145" t="s">
         <v>1752</v>
       </c>
-      <c r="H145" t="s">
+      <c r="I145" t="s">
+        <v>1751</v>
+      </c>
+      <c r="J145" t="s">
+        <v>34</v>
+      </c>
+      <c r="K145" t="s">
         <v>1753</v>
       </c>
-      <c r="I145" t="s">
-        <v>1752</v>
-      </c>
-      <c r="J145" t="s">
-        <v>34</v>
-      </c>
-      <c r="K145" t="s">
+      <c r="L145" t="s">
         <v>1754</v>
       </c>
-      <c r="L145" t="s">
+      <c r="M145" t="s">
+        <v>34</v>
+      </c>
+      <c r="N145" t="s">
+        <v>34</v>
+      </c>
+      <c r="O145" t="s">
+        <v>34</v>
+      </c>
+      <c r="P145" t="s">
         <v>1755</v>
       </c>
-      <c r="M145" t="s">
-        <v>34</v>
-      </c>
-      <c r="N145" t="s">
-        <v>34</v>
-      </c>
-      <c r="O145" t="s">
-        <v>34</v>
-      </c>
-      <c r="P145" t="s">
+      <c r="Q145" t="s">
         <v>1756</v>
-      </c>
-      <c r="Q145" t="s">
-        <v>1757</v>
       </c>
       <c r="R145" t="s">
         <v>77</v>
       </c>
       <c r="S145" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="T145" t="s">
         <v>34</v>
@@ -20582,7 +20579,7 @@
         <v>34</v>
       </c>
       <c r="Z145" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="146">
@@ -20590,58 +20587,58 @@
         <v>18</v>
       </c>
       <c r="B146" t="s">
+        <v>1758</v>
+      </c>
+      <c r="C146" t="s">
         <v>1759</v>
       </c>
-      <c r="C146" t="s">
+      <c r="D146" t="s">
         <v>1760</v>
       </c>
-      <c r="D146" t="s">
+      <c r="E146" t="s">
         <v>1761</v>
       </c>
-      <c r="E146" t="s">
+      <c r="F146" t="s">
         <v>1762</v>
       </c>
-      <c r="F146" t="s">
+      <c r="G146" t="s">
         <v>1763</v>
       </c>
-      <c r="G146" t="s">
+      <c r="H146" t="s">
         <v>1764</v>
       </c>
-      <c r="H146" t="s">
+      <c r="I146" t="s">
+        <v>1763</v>
+      </c>
+      <c r="J146" t="s">
+        <v>34</v>
+      </c>
+      <c r="K146" t="s">
         <v>1765</v>
       </c>
-      <c r="I146" t="s">
-        <v>1764</v>
-      </c>
-      <c r="J146" t="s">
-        <v>34</v>
-      </c>
-      <c r="K146" t="s">
+      <c r="L146" t="s">
         <v>1766</v>
       </c>
-      <c r="L146" t="s">
+      <c r="M146" t="s">
+        <v>34</v>
+      </c>
+      <c r="N146" t="s">
+        <v>34</v>
+      </c>
+      <c r="O146" t="s">
+        <v>34</v>
+      </c>
+      <c r="P146" t="s">
         <v>1767</v>
       </c>
-      <c r="M146" t="s">
-        <v>34</v>
-      </c>
-      <c r="N146" t="s">
-        <v>34</v>
-      </c>
-      <c r="O146" t="s">
-        <v>34</v>
-      </c>
-      <c r="P146" t="s">
+      <c r="Q146" t="s">
         <v>1768</v>
-      </c>
-      <c r="Q146" t="s">
-        <v>1769</v>
       </c>
       <c r="R146" t="s">
         <v>77</v>
       </c>
       <c r="S146" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="T146" t="s">
         <v>34</v>
@@ -20662,7 +20659,7 @@
         <v>34</v>
       </c>
       <c r="Z146" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="147">
@@ -20670,25 +20667,25 @@
         <v>18</v>
       </c>
       <c r="B147" t="s">
+        <v>1770</v>
+      </c>
+      <c r="C147" t="s">
         <v>1771</v>
       </c>
-      <c r="C147" t="s">
+      <c r="D147" t="s">
         <v>1772</v>
       </c>
-      <c r="D147" t="s">
+      <c r="E147" t="s">
         <v>1773</v>
       </c>
-      <c r="E147" t="s">
+      <c r="F147" t="s">
         <v>1774</v>
       </c>
-      <c r="F147" t="s">
+      <c r="G147" t="s">
         <v>1775</v>
       </c>
-      <c r="G147" t="s">
+      <c r="H147" t="s">
         <v>1776</v>
-      </c>
-      <c r="H147" t="s">
-        <v>1777</v>
       </c>
       <c r="I147" t="s">
         <v>1667</v>
@@ -20697,10 +20694,10 @@
         <v>34</v>
       </c>
       <c r="K147" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="L147" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="M147" t="s">
         <v>34</v>
@@ -20715,13 +20712,13 @@
         <v>87</v>
       </c>
       <c r="Q147" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="R147" t="s">
         <v>52</v>
       </c>
       <c r="S147" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="T147" t="s">
         <v>34</v>
@@ -20742,7 +20739,7 @@
         <v>34</v>
       </c>
       <c r="Z147" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="148">
@@ -20750,58 +20747,58 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
+        <v>1780</v>
+      </c>
+      <c r="C148" t="s">
         <v>1781</v>
       </c>
-      <c r="C148" t="s">
+      <c r="D148" t="s">
         <v>1782</v>
       </c>
-      <c r="D148" t="s">
+      <c r="E148" t="s">
         <v>1783</v>
       </c>
-      <c r="E148" t="s">
+      <c r="F148" t="s">
         <v>1784</v>
       </c>
-      <c r="F148" t="s">
+      <c r="G148" t="s">
         <v>1785</v>
       </c>
-      <c r="G148" t="s">
+      <c r="H148" t="s">
         <v>1786</v>
       </c>
-      <c r="H148" t="s">
+      <c r="I148" t="s">
         <v>1787</v>
       </c>
-      <c r="I148" t="s">
+      <c r="J148" t="s">
+        <v>34</v>
+      </c>
+      <c r="K148" t="s">
         <v>1788</v>
       </c>
-      <c r="J148" t="s">
-        <v>34</v>
-      </c>
-      <c r="K148" t="s">
+      <c r="L148" t="s">
+        <v>1783</v>
+      </c>
+      <c r="M148" t="s">
+        <v>34</v>
+      </c>
+      <c r="N148" t="s">
+        <v>34</v>
+      </c>
+      <c r="O148" t="s">
+        <v>34</v>
+      </c>
+      <c r="P148" t="s">
         <v>1789</v>
       </c>
-      <c r="L148" t="s">
-        <v>1784</v>
-      </c>
-      <c r="M148" t="s">
-        <v>34</v>
-      </c>
-      <c r="N148" t="s">
-        <v>34</v>
-      </c>
-      <c r="O148" t="s">
-        <v>34</v>
-      </c>
-      <c r="P148" t="s">
+      <c r="Q148" t="s">
         <v>1790</v>
-      </c>
-      <c r="Q148" t="s">
-        <v>1791</v>
       </c>
       <c r="R148" t="s">
         <v>52</v>
       </c>
       <c r="S148" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="T148" t="s">
         <v>34</v>
@@ -20822,7 +20819,7 @@
         <v>34</v>
       </c>
       <c r="Z148" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="149">
@@ -20830,58 +20827,58 @@
         <v>18</v>
       </c>
       <c r="B149" t="s">
+        <v>1792</v>
+      </c>
+      <c r="C149" t="s">
         <v>1793</v>
       </c>
-      <c r="C149" t="s">
+      <c r="D149" t="s">
         <v>1794</v>
       </c>
-      <c r="D149" t="s">
+      <c r="E149" t="s">
         <v>1795</v>
       </c>
-      <c r="E149" t="s">
+      <c r="F149" t="s">
         <v>1796</v>
       </c>
-      <c r="F149" t="s">
+      <c r="G149" t="s">
         <v>1797</v>
       </c>
-      <c r="G149" t="s">
+      <c r="H149" t="s">
         <v>1798</v>
       </c>
-      <c r="H149" t="s">
+      <c r="I149" t="s">
+        <v>1741</v>
+      </c>
+      <c r="J149" t="s">
+        <v>34</v>
+      </c>
+      <c r="K149" t="s">
         <v>1799</v>
       </c>
-      <c r="I149" t="s">
-        <v>1742</v>
-      </c>
-      <c r="J149" t="s">
-        <v>34</v>
-      </c>
-      <c r="K149" t="s">
+      <c r="L149" t="s">
         <v>1800</v>
       </c>
-      <c r="L149" t="s">
+      <c r="M149" t="s">
+        <v>34</v>
+      </c>
+      <c r="N149" t="s">
+        <v>34</v>
+      </c>
+      <c r="O149" t="s">
+        <v>34</v>
+      </c>
+      <c r="P149" t="s">
         <v>1801</v>
       </c>
-      <c r="M149" t="s">
-        <v>34</v>
-      </c>
-      <c r="N149" t="s">
-        <v>34</v>
-      </c>
-      <c r="O149" t="s">
-        <v>34</v>
-      </c>
-      <c r="P149" t="s">
+      <c r="Q149" t="s">
         <v>1802</v>
-      </c>
-      <c r="Q149" t="s">
-        <v>1803</v>
       </c>
       <c r="R149" t="s">
         <v>77</v>
       </c>
       <c r="S149" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="T149" t="s">
         <v>34</v>
@@ -20902,7 +20899,7 @@
         <v>34</v>
       </c>
       <c r="Z149" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="150">
@@ -20910,58 +20907,58 @@
         <v>18</v>
       </c>
       <c r="B150" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C150" t="s">
         <v>1805</v>
       </c>
-      <c r="C150" t="s">
+      <c r="D150" t="s">
         <v>1806</v>
       </c>
-      <c r="D150" t="s">
+      <c r="E150" t="s">
         <v>1807</v>
       </c>
-      <c r="E150" t="s">
+      <c r="F150" t="s">
         <v>1808</v>
       </c>
-      <c r="F150" t="s">
+      <c r="G150" t="s">
         <v>1809</v>
       </c>
-      <c r="G150" t="s">
+      <c r="H150" t="s">
         <v>1810</v>
       </c>
-      <c r="H150" t="s">
+      <c r="I150" t="s">
         <v>1811</v>
       </c>
-      <c r="I150" t="s">
+      <c r="J150" t="s">
+        <v>34</v>
+      </c>
+      <c r="K150" t="s">
         <v>1812</v>
       </c>
-      <c r="J150" t="s">
-        <v>34</v>
-      </c>
-      <c r="K150" t="s">
+      <c r="L150" t="s">
         <v>1813</v>
       </c>
-      <c r="L150" t="s">
+      <c r="M150" t="s">
+        <v>34</v>
+      </c>
+      <c r="N150" t="s">
+        <v>34</v>
+      </c>
+      <c r="O150" t="s">
+        <v>34</v>
+      </c>
+      <c r="P150" t="s">
         <v>1814</v>
       </c>
-      <c r="M150" t="s">
-        <v>34</v>
-      </c>
-      <c r="N150" t="s">
-        <v>34</v>
-      </c>
-      <c r="O150" t="s">
-        <v>34</v>
-      </c>
-      <c r="P150" t="s">
+      <c r="Q150" t="s">
         <v>1815</v>
-      </c>
-      <c r="Q150" t="s">
-        <v>1816</v>
       </c>
       <c r="R150" t="s">
         <v>77</v>
       </c>
       <c r="S150" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="T150" t="s">
         <v>34</v>
@@ -20982,7 +20979,7 @@
         <v>34</v>
       </c>
       <c r="Z150" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="151">
@@ -20990,58 +20987,58 @@
         <v>18</v>
       </c>
       <c r="B151" t="s">
+        <v>1817</v>
+      </c>
+      <c r="C151" t="s">
         <v>1818</v>
       </c>
-      <c r="C151" t="s">
+      <c r="D151" t="s">
         <v>1819</v>
       </c>
-      <c r="D151" t="s">
+      <c r="E151" t="s">
         <v>1820</v>
       </c>
-      <c r="E151" t="s">
+      <c r="F151" t="s">
         <v>1821</v>
       </c>
-      <c r="F151" t="s">
+      <c r="G151" t="s">
         <v>1822</v>
       </c>
-      <c r="G151" t="s">
+      <c r="H151" t="s">
         <v>1823</v>
       </c>
-      <c r="H151" t="s">
+      <c r="I151" t="s">
+        <v>1822</v>
+      </c>
+      <c r="J151" t="s">
+        <v>34</v>
+      </c>
+      <c r="K151" t="s">
         <v>1824</v>
       </c>
-      <c r="I151" t="s">
-        <v>1823</v>
-      </c>
-      <c r="J151" t="s">
-        <v>34</v>
-      </c>
-      <c r="K151" t="s">
+      <c r="L151" t="s">
+        <v>1820</v>
+      </c>
+      <c r="M151" t="s">
+        <v>34</v>
+      </c>
+      <c r="N151" t="s">
+        <v>34</v>
+      </c>
+      <c r="O151" t="s">
+        <v>34</v>
+      </c>
+      <c r="P151" t="s">
         <v>1825</v>
       </c>
-      <c r="L151" t="s">
-        <v>1821</v>
-      </c>
-      <c r="M151" t="s">
-        <v>34</v>
-      </c>
-      <c r="N151" t="s">
-        <v>34</v>
-      </c>
-      <c r="O151" t="s">
-        <v>34</v>
-      </c>
-      <c r="P151" t="s">
+      <c r="Q151" t="s">
         <v>1826</v>
-      </c>
-      <c r="Q151" t="s">
-        <v>1827</v>
       </c>
       <c r="R151" t="s">
         <v>39</v>
       </c>
       <c r="S151" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="T151" t="s">
         <v>34</v>
@@ -21062,7 +21059,7 @@
         <v>34</v>
       </c>
       <c r="Z151" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="152">
@@ -21070,58 +21067,58 @@
         <v>18</v>
       </c>
       <c r="B152" t="s">
+        <v>1828</v>
+      </c>
+      <c r="C152" t="s">
         <v>1829</v>
       </c>
-      <c r="C152" t="s">
+      <c r="D152" t="s">
         <v>1830</v>
       </c>
-      <c r="D152" t="s">
+      <c r="E152" t="s">
         <v>1831</v>
       </c>
-      <c r="E152" t="s">
+      <c r="F152" t="s">
         <v>1832</v>
       </c>
-      <c r="F152" t="s">
+      <c r="G152" t="s">
         <v>1833</v>
       </c>
-      <c r="G152" t="s">
+      <c r="H152" t="s">
         <v>1834</v>
       </c>
-      <c r="H152" t="s">
+      <c r="I152" t="s">
         <v>1835</v>
       </c>
-      <c r="I152" t="s">
+      <c r="J152" t="s">
+        <v>34</v>
+      </c>
+      <c r="K152" t="s">
         <v>1836</v>
       </c>
-      <c r="J152" t="s">
-        <v>34</v>
-      </c>
-      <c r="K152" t="s">
+      <c r="L152" t="s">
         <v>1837</v>
       </c>
-      <c r="L152" t="s">
+      <c r="M152" t="s">
+        <v>34</v>
+      </c>
+      <c r="N152" t="s">
+        <v>34</v>
+      </c>
+      <c r="O152" t="s">
+        <v>34</v>
+      </c>
+      <c r="P152" t="s">
         <v>1838</v>
       </c>
-      <c r="M152" t="s">
-        <v>34</v>
-      </c>
-      <c r="N152" t="s">
-        <v>34</v>
-      </c>
-      <c r="O152" t="s">
-        <v>34</v>
-      </c>
-      <c r="P152" t="s">
+      <c r="Q152" t="s">
         <v>1839</v>
-      </c>
-      <c r="Q152" t="s">
-        <v>1840</v>
       </c>
       <c r="R152" t="s">
         <v>77</v>
       </c>
       <c r="S152" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="T152" t="s">
         <v>34</v>
@@ -21142,7 +21139,7 @@
         <v>34</v>
       </c>
       <c r="Z152" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="153">
@@ -21150,58 +21147,58 @@
         <v>18</v>
       </c>
       <c r="B153" t="s">
+        <v>1841</v>
+      </c>
+      <c r="C153" t="s">
         <v>1842</v>
       </c>
-      <c r="C153" t="s">
+      <c r="D153" t="s">
         <v>1843</v>
       </c>
-      <c r="D153" t="s">
+      <c r="E153" t="s">
         <v>1844</v>
       </c>
-      <c r="E153" t="s">
+      <c r="F153" t="s">
         <v>1845</v>
       </c>
-      <c r="F153" t="s">
+      <c r="G153" t="s">
         <v>1846</v>
       </c>
-      <c r="G153" t="s">
+      <c r="H153" t="s">
         <v>1847</v>
       </c>
-      <c r="H153" t="s">
+      <c r="I153" t="s">
         <v>1848</v>
       </c>
-      <c r="I153" t="s">
+      <c r="J153" t="s">
+        <v>34</v>
+      </c>
+      <c r="K153" t="s">
         <v>1849</v>
       </c>
-      <c r="J153" t="s">
-        <v>34</v>
-      </c>
-      <c r="K153" t="s">
+      <c r="L153" t="s">
         <v>1850</v>
       </c>
-      <c r="L153" t="s">
+      <c r="M153" t="s">
+        <v>34</v>
+      </c>
+      <c r="N153" t="s">
+        <v>34</v>
+      </c>
+      <c r="O153" t="s">
+        <v>34</v>
+      </c>
+      <c r="P153" t="s">
         <v>1851</v>
       </c>
-      <c r="M153" t="s">
-        <v>34</v>
-      </c>
-      <c r="N153" t="s">
-        <v>34</v>
-      </c>
-      <c r="O153" t="s">
-        <v>34</v>
-      </c>
-      <c r="P153" t="s">
+      <c r="Q153" t="s">
         <v>1852</v>
-      </c>
-      <c r="Q153" t="s">
-        <v>1853</v>
       </c>
       <c r="R153" t="s">
         <v>77</v>
       </c>
       <c r="S153" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="T153" t="s">
         <v>34</v>
@@ -21222,7 +21219,7 @@
         <v>34</v>
       </c>
       <c r="Z153" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="154">
@@ -21230,58 +21227,58 @@
         <v>18</v>
       </c>
       <c r="B154" t="s">
+        <v>1854</v>
+      </c>
+      <c r="C154" t="s">
         <v>1855</v>
       </c>
-      <c r="C154" t="s">
+      <c r="D154" t="s">
         <v>1856</v>
       </c>
-      <c r="D154" t="s">
+      <c r="E154" t="s">
         <v>1857</v>
       </c>
-      <c r="E154" t="s">
+      <c r="F154" t="s">
         <v>1858</v>
       </c>
-      <c r="F154" t="s">
+      <c r="G154" t="s">
         <v>1859</v>
       </c>
-      <c r="G154" t="s">
+      <c r="H154" t="s">
         <v>1860</v>
       </c>
-      <c r="H154" t="s">
+      <c r="I154" t="s">
+        <v>1859</v>
+      </c>
+      <c r="J154" t="s">
+        <v>34</v>
+      </c>
+      <c r="K154" t="s">
+        <v>1856</v>
+      </c>
+      <c r="L154" t="s">
+        <v>1857</v>
+      </c>
+      <c r="M154" t="s">
+        <v>34</v>
+      </c>
+      <c r="N154" t="s">
+        <v>34</v>
+      </c>
+      <c r="O154" t="s">
+        <v>34</v>
+      </c>
+      <c r="P154" t="s">
         <v>1861</v>
       </c>
-      <c r="I154" t="s">
-        <v>1860</v>
-      </c>
-      <c r="J154" t="s">
-        <v>34</v>
-      </c>
-      <c r="K154" t="s">
-        <v>1857</v>
-      </c>
-      <c r="L154" t="s">
-        <v>1858</v>
-      </c>
-      <c r="M154" t="s">
-        <v>34</v>
-      </c>
-      <c r="N154" t="s">
-        <v>34</v>
-      </c>
-      <c r="O154" t="s">
-        <v>34</v>
-      </c>
-      <c r="P154" t="s">
+      <c r="Q154" t="s">
         <v>1862</v>
-      </c>
-      <c r="Q154" t="s">
-        <v>1863</v>
       </c>
       <c r="R154" t="s">
         <v>195</v>
       </c>
       <c r="S154" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="T154" t="s">
         <v>34</v>
@@ -21302,7 +21299,7 @@
         <v>34</v>
       </c>
       <c r="Z154" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="155">
@@ -21310,58 +21307,58 @@
         <v>18</v>
       </c>
       <c r="B155" t="s">
+        <v>1864</v>
+      </c>
+      <c r="C155" t="s">
         <v>1865</v>
       </c>
-      <c r="C155" t="s">
+      <c r="D155" t="s">
         <v>1866</v>
       </c>
-      <c r="D155" t="s">
+      <c r="E155" t="s">
         <v>1867</v>
       </c>
-      <c r="E155" t="s">
+      <c r="F155" t="s">
         <v>1868</v>
       </c>
-      <c r="F155" t="s">
+      <c r="G155" t="s">
         <v>1869</v>
       </c>
-      <c r="G155" t="s">
+      <c r="H155" t="s">
         <v>1870</v>
       </c>
-      <c r="H155" t="s">
+      <c r="I155" t="s">
         <v>1871</v>
       </c>
-      <c r="I155" t="s">
+      <c r="J155" t="s">
+        <v>34</v>
+      </c>
+      <c r="K155" t="s">
         <v>1872</v>
       </c>
-      <c r="J155" t="s">
-        <v>34</v>
-      </c>
-      <c r="K155" t="s">
+      <c r="L155" t="s">
         <v>1873</v>
       </c>
-      <c r="L155" t="s">
+      <c r="M155" t="s">
+        <v>34</v>
+      </c>
+      <c r="N155" t="s">
+        <v>34</v>
+      </c>
+      <c r="O155" t="s">
+        <v>34</v>
+      </c>
+      <c r="P155" t="s">
         <v>1874</v>
       </c>
-      <c r="M155" t="s">
-        <v>34</v>
-      </c>
-      <c r="N155" t="s">
-        <v>34</v>
-      </c>
-      <c r="O155" t="s">
-        <v>34</v>
-      </c>
-      <c r="P155" t="s">
+      <c r="Q155" t="s">
         <v>1875</v>
-      </c>
-      <c r="Q155" t="s">
-        <v>1876</v>
       </c>
       <c r="R155" t="s">
         <v>77</v>
       </c>
       <c r="S155" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="T155" t="s">
         <v>34</v>
@@ -21382,7 +21379,7 @@
         <v>34</v>
       </c>
       <c r="Z155" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="156">
@@ -21390,58 +21387,58 @@
         <v>18</v>
       </c>
       <c r="B156" t="s">
+        <v>1877</v>
+      </c>
+      <c r="C156" t="s">
         <v>1878</v>
       </c>
-      <c r="C156" t="s">
+      <c r="D156" t="s">
         <v>1879</v>
       </c>
-      <c r="D156" t="s">
+      <c r="E156" t="s">
         <v>1880</v>
       </c>
-      <c r="E156" t="s">
+      <c r="F156" t="s">
         <v>1881</v>
       </c>
-      <c r="F156" t="s">
+      <c r="G156" t="s">
         <v>1882</v>
       </c>
-      <c r="G156" t="s">
+      <c r="H156" t="s">
         <v>1883</v>
       </c>
-      <c r="H156" t="s">
+      <c r="I156" t="s">
+        <v>1882</v>
+      </c>
+      <c r="J156" t="s">
+        <v>34</v>
+      </c>
+      <c r="K156" t="s">
         <v>1884</v>
       </c>
-      <c r="I156" t="s">
-        <v>1883</v>
-      </c>
-      <c r="J156" t="s">
-        <v>34</v>
-      </c>
-      <c r="K156" t="s">
+      <c r="L156" t="s">
+        <v>34</v>
+      </c>
+      <c r="M156" t="s">
+        <v>34</v>
+      </c>
+      <c r="N156" t="s">
+        <v>34</v>
+      </c>
+      <c r="O156" t="s">
+        <v>34</v>
+      </c>
+      <c r="P156" t="s">
         <v>1885</v>
       </c>
-      <c r="L156" t="s">
-        <v>34</v>
-      </c>
-      <c r="M156" t="s">
-        <v>34</v>
-      </c>
-      <c r="N156" t="s">
-        <v>34</v>
-      </c>
-      <c r="O156" t="s">
-        <v>34</v>
-      </c>
-      <c r="P156" t="s">
+      <c r="Q156" t="s">
         <v>1886</v>
-      </c>
-      <c r="Q156" t="s">
-        <v>1887</v>
       </c>
       <c r="R156" t="s">
         <v>195</v>
       </c>
       <c r="S156" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="T156" t="s">
         <v>34</v>
@@ -21470,58 +21467,58 @@
         <v>18</v>
       </c>
       <c r="B157" t="s">
+        <v>1887</v>
+      </c>
+      <c r="C157" t="s">
         <v>1888</v>
       </c>
-      <c r="C157" t="s">
+      <c r="D157" t="s">
         <v>1889</v>
       </c>
-      <c r="D157" t="s">
+      <c r="E157" t="s">
         <v>1890</v>
       </c>
-      <c r="E157" t="s">
+      <c r="F157" t="s">
         <v>1891</v>
       </c>
-      <c r="F157" t="s">
+      <c r="G157" t="s">
+        <v>1871</v>
+      </c>
+      <c r="H157" t="s">
         <v>1892</v>
       </c>
-      <c r="G157" t="s">
-        <v>1872</v>
-      </c>
-      <c r="H157" t="s">
+      <c r="I157" t="s">
         <v>1893</v>
       </c>
-      <c r="I157" t="s">
+      <c r="J157" t="s">
+        <v>34</v>
+      </c>
+      <c r="K157" t="s">
         <v>1894</v>
       </c>
-      <c r="J157" t="s">
-        <v>34</v>
-      </c>
-      <c r="K157" t="s">
+      <c r="L157" t="s">
         <v>1895</v>
       </c>
-      <c r="L157" t="s">
+      <c r="M157" t="s">
+        <v>34</v>
+      </c>
+      <c r="N157" t="s">
+        <v>34</v>
+      </c>
+      <c r="O157" t="s">
+        <v>34</v>
+      </c>
+      <c r="P157" t="s">
         <v>1896</v>
       </c>
-      <c r="M157" t="s">
-        <v>34</v>
-      </c>
-      <c r="N157" t="s">
-        <v>34</v>
-      </c>
-      <c r="O157" t="s">
-        <v>34</v>
-      </c>
-      <c r="P157" t="s">
+      <c r="Q157" t="s">
         <v>1897</v>
-      </c>
-      <c r="Q157" t="s">
-        <v>1898</v>
       </c>
       <c r="R157" t="s">
         <v>77</v>
       </c>
       <c r="S157" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="T157" t="s">
         <v>34</v>
@@ -21542,7 +21539,7 @@
         <v>34</v>
       </c>
       <c r="Z157" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="158">
@@ -21550,58 +21547,58 @@
         <v>18</v>
       </c>
       <c r="B158" t="s">
+        <v>1899</v>
+      </c>
+      <c r="C158" t="s">
         <v>1900</v>
       </c>
-      <c r="C158" t="s">
+      <c r="D158" t="s">
         <v>1901</v>
       </c>
-      <c r="D158" t="s">
+      <c r="E158" t="s">
         <v>1902</v>
       </c>
-      <c r="E158" t="s">
+      <c r="F158" t="s">
         <v>1903</v>
       </c>
-      <c r="F158" t="s">
+      <c r="G158" t="s">
+        <v>1893</v>
+      </c>
+      <c r="H158" t="s">
         <v>1904</v>
       </c>
-      <c r="G158" t="s">
-        <v>1894</v>
-      </c>
-      <c r="H158" t="s">
+      <c r="I158" t="s">
         <v>1905</v>
       </c>
-      <c r="I158" t="s">
+      <c r="J158" t="s">
+        <v>34</v>
+      </c>
+      <c r="K158" t="s">
         <v>1906</v>
       </c>
-      <c r="J158" t="s">
-        <v>34</v>
-      </c>
-      <c r="K158" t="s">
+      <c r="L158" t="s">
         <v>1907</v>
       </c>
-      <c r="L158" t="s">
+      <c r="M158" t="s">
+        <v>34</v>
+      </c>
+      <c r="N158" t="s">
+        <v>34</v>
+      </c>
+      <c r="O158" t="s">
+        <v>34</v>
+      </c>
+      <c r="P158" t="s">
         <v>1908</v>
       </c>
-      <c r="M158" t="s">
-        <v>34</v>
-      </c>
-      <c r="N158" t="s">
-        <v>34</v>
-      </c>
-      <c r="O158" t="s">
-        <v>34</v>
-      </c>
-      <c r="P158" t="s">
+      <c r="Q158" t="s">
         <v>1909</v>
-      </c>
-      <c r="Q158" t="s">
-        <v>1910</v>
       </c>
       <c r="R158" t="s">
         <v>52</v>
       </c>
       <c r="S158" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="T158" t="s">
         <v>34</v>
@@ -21622,7 +21619,7 @@
         <v>34</v>
       </c>
       <c r="Z158" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="159">
@@ -21630,34 +21627,34 @@
         <v>18</v>
       </c>
       <c r="B159" t="s">
+        <v>1911</v>
+      </c>
+      <c r="C159" t="s">
         <v>1912</v>
       </c>
-      <c r="C159" t="s">
+      <c r="D159" t="s">
         <v>1913</v>
       </c>
-      <c r="D159" t="s">
+      <c r="E159" t="s">
         <v>1914</v>
       </c>
-      <c r="E159" t="s">
+      <c r="F159" t="s">
         <v>1915</v>
       </c>
-      <c r="F159" t="s">
+      <c r="G159" t="s">
+        <v>1905</v>
+      </c>
+      <c r="H159" t="s">
         <v>1916</v>
       </c>
-      <c r="G159" t="s">
-        <v>1906</v>
-      </c>
-      <c r="H159" t="s">
-        <v>1917</v>
-      </c>
       <c r="I159" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="J159" t="s">
         <v>34</v>
       </c>
       <c r="K159" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="L159" t="s">
         <v>34</v>
@@ -21675,13 +21672,13 @@
         <v>210</v>
       </c>
       <c r="Q159" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="R159" t="s">
         <v>195</v>
       </c>
       <c r="S159" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="T159" t="s">
         <v>34</v>
@@ -21710,58 +21707,58 @@
         <v>18</v>
       </c>
       <c r="B160" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C160" t="s">
         <v>1919</v>
       </c>
-      <c r="C160" t="s">
+      <c r="D160" t="s">
         <v>1920</v>
       </c>
-      <c r="D160" t="s">
+      <c r="E160" t="s">
         <v>1921</v>
       </c>
-      <c r="E160" t="s">
+      <c r="F160" t="s">
         <v>1922</v>
       </c>
-      <c r="F160" t="s">
+      <c r="G160" t="s">
         <v>1923</v>
       </c>
-      <c r="G160" t="s">
+      <c r="H160" t="s">
         <v>1924</v>
       </c>
-      <c r="H160" t="s">
+      <c r="I160" t="s">
+        <v>1923</v>
+      </c>
+      <c r="J160" t="s">
+        <v>34</v>
+      </c>
+      <c r="K160" t="s">
         <v>1925</v>
       </c>
-      <c r="I160" t="s">
-        <v>1924</v>
-      </c>
-      <c r="J160" t="s">
-        <v>34</v>
-      </c>
-      <c r="K160" t="s">
+      <c r="L160" t="s">
         <v>1926</v>
       </c>
-      <c r="L160" t="s">
+      <c r="M160" t="s">
+        <v>34</v>
+      </c>
+      <c r="N160" t="s">
+        <v>34</v>
+      </c>
+      <c r="O160" t="s">
+        <v>34</v>
+      </c>
+      <c r="P160" t="s">
         <v>1927</v>
       </c>
-      <c r="M160" t="s">
-        <v>34</v>
-      </c>
-      <c r="N160" t="s">
-        <v>34</v>
-      </c>
-      <c r="O160" t="s">
-        <v>34</v>
-      </c>
-      <c r="P160" t="s">
+      <c r="Q160" t="s">
         <v>1928</v>
-      </c>
-      <c r="Q160" t="s">
-        <v>1929</v>
       </c>
       <c r="R160" t="s">
         <v>98</v>
       </c>
       <c r="S160" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="T160" t="s">
         <v>34</v>
@@ -21790,58 +21787,58 @@
         <v>18</v>
       </c>
       <c r="B161" t="s">
+        <v>1929</v>
+      </c>
+      <c r="C161" t="s">
         <v>1930</v>
       </c>
-      <c r="C161" t="s">
+      <c r="D161" t="s">
         <v>1931</v>
       </c>
-      <c r="D161" t="s">
+      <c r="E161" t="s">
         <v>1932</v>
       </c>
-      <c r="E161" t="s">
+      <c r="F161" t="s">
         <v>1933</v>
       </c>
-      <c r="F161" t="s">
+      <c r="G161" t="s">
         <v>1934</v>
       </c>
-      <c r="G161" t="s">
+      <c r="H161" t="s">
         <v>1935</v>
       </c>
-      <c r="H161" t="s">
+      <c r="I161" t="s">
+        <v>1934</v>
+      </c>
+      <c r="J161" t="s">
+        <v>34</v>
+      </c>
+      <c r="K161" t="s">
         <v>1936</v>
       </c>
-      <c r="I161" t="s">
-        <v>1935</v>
-      </c>
-      <c r="J161" t="s">
-        <v>34</v>
-      </c>
-      <c r="K161" t="s">
+      <c r="L161" t="s">
         <v>1937</v>
       </c>
-      <c r="L161" t="s">
+      <c r="M161" t="s">
+        <v>34</v>
+      </c>
+      <c r="N161" t="s">
+        <v>34</v>
+      </c>
+      <c r="O161" t="s">
+        <v>34</v>
+      </c>
+      <c r="P161" t="s">
         <v>1938</v>
       </c>
-      <c r="M161" t="s">
-        <v>34</v>
-      </c>
-      <c r="N161" t="s">
-        <v>34</v>
-      </c>
-      <c r="O161" t="s">
-        <v>34</v>
-      </c>
-      <c r="P161" t="s">
+      <c r="Q161" t="s">
         <v>1939</v>
-      </c>
-      <c r="Q161" t="s">
-        <v>1940</v>
       </c>
       <c r="R161" t="s">
         <v>98</v>
       </c>
       <c r="S161" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="T161" t="s">
         <v>34</v>
@@ -21862,7 +21859,7 @@
         <v>34</v>
       </c>
       <c r="Z161" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="162">
@@ -21870,58 +21867,58 @@
         <v>18</v>
       </c>
       <c r="B162" t="s">
+        <v>1941</v>
+      </c>
+      <c r="C162" t="s">
         <v>1942</v>
       </c>
-      <c r="C162" t="s">
+      <c r="D162" t="s">
         <v>1943</v>
       </c>
-      <c r="D162" t="s">
+      <c r="E162" t="s">
         <v>1944</v>
       </c>
-      <c r="E162" t="s">
+      <c r="F162" t="s">
         <v>1945</v>
       </c>
-      <c r="F162" t="s">
+      <c r="G162" t="s">
         <v>1946</v>
       </c>
-      <c r="G162" t="s">
+      <c r="H162" t="s">
         <v>1947</v>
       </c>
-      <c r="H162" t="s">
+      <c r="I162" t="s">
+        <v>1946</v>
+      </c>
+      <c r="J162" t="s">
+        <v>34</v>
+      </c>
+      <c r="K162" t="s">
         <v>1948</v>
       </c>
-      <c r="I162" t="s">
-        <v>1947</v>
-      </c>
-      <c r="J162" t="s">
-        <v>34</v>
-      </c>
-      <c r="K162" t="s">
+      <c r="L162" t="s">
         <v>1949</v>
       </c>
-      <c r="L162" t="s">
+      <c r="M162" t="s">
+        <v>34</v>
+      </c>
+      <c r="N162" t="s">
+        <v>34</v>
+      </c>
+      <c r="O162" t="s">
+        <v>34</v>
+      </c>
+      <c r="P162" t="s">
         <v>1950</v>
       </c>
-      <c r="M162" t="s">
-        <v>34</v>
-      </c>
-      <c r="N162" t="s">
-        <v>34</v>
-      </c>
-      <c r="O162" t="s">
-        <v>34</v>
-      </c>
-      <c r="P162" t="s">
+      <c r="Q162" t="s">
         <v>1951</v>
-      </c>
-      <c r="Q162" t="s">
-        <v>1952</v>
       </c>
       <c r="R162" t="s">
         <v>39</v>
       </c>
       <c r="S162" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="T162" t="s">
         <v>34</v>
@@ -21942,7 +21939,7 @@
         <v>34</v>
       </c>
       <c r="Z162" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="163">
@@ -21950,58 +21947,58 @@
         <v>18</v>
       </c>
       <c r="B163" t="s">
+        <v>1953</v>
+      </c>
+      <c r="C163" t="s">
         <v>1954</v>
       </c>
-      <c r="C163" t="s">
+      <c r="D163" t="s">
         <v>1955</v>
       </c>
-      <c r="D163" t="s">
+      <c r="E163" t="s">
         <v>1956</v>
       </c>
-      <c r="E163" t="s">
+      <c r="F163" t="s">
         <v>1957</v>
       </c>
-      <c r="F163" t="s">
+      <c r="G163" t="s">
         <v>1958</v>
       </c>
-      <c r="G163" t="s">
+      <c r="H163" t="s">
         <v>1959</v>
       </c>
-      <c r="H163" t="s">
+      <c r="I163" t="s">
+        <v>1958</v>
+      </c>
+      <c r="J163" t="s">
+        <v>34</v>
+      </c>
+      <c r="K163" t="s">
         <v>1960</v>
       </c>
-      <c r="I163" t="s">
-        <v>1959</v>
-      </c>
-      <c r="J163" t="s">
-        <v>34</v>
-      </c>
-      <c r="K163" t="s">
+      <c r="L163" t="s">
         <v>1961</v>
       </c>
-      <c r="L163" t="s">
+      <c r="M163" t="s">
+        <v>34</v>
+      </c>
+      <c r="N163" t="s">
+        <v>34</v>
+      </c>
+      <c r="O163" t="s">
+        <v>34</v>
+      </c>
+      <c r="P163" t="s">
         <v>1962</v>
       </c>
-      <c r="M163" t="s">
-        <v>34</v>
-      </c>
-      <c r="N163" t="s">
-        <v>34</v>
-      </c>
-      <c r="O163" t="s">
-        <v>34</v>
-      </c>
-      <c r="P163" t="s">
+      <c r="Q163" t="s">
         <v>1963</v>
-      </c>
-      <c r="Q163" t="s">
-        <v>1964</v>
       </c>
       <c r="R163" t="s">
         <v>195</v>
       </c>
       <c r="S163" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="T163" t="s">
         <v>34</v>
@@ -22022,7 +22019,7 @@
         <v>34</v>
       </c>
       <c r="Z163" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="164">
@@ -22030,58 +22027,58 @@
         <v>18</v>
       </c>
       <c r="B164" t="s">
+        <v>1965</v>
+      </c>
+      <c r="C164" t="s">
         <v>1966</v>
       </c>
-      <c r="C164" t="s">
+      <c r="D164" t="s">
         <v>1967</v>
       </c>
-      <c r="D164" t="s">
+      <c r="E164" t="s">
         <v>1968</v>
       </c>
-      <c r="E164" t="s">
+      <c r="F164" t="s">
         <v>1969</v>
       </c>
-      <c r="F164" t="s">
+      <c r="G164" t="s">
         <v>1970</v>
       </c>
-      <c r="G164" t="s">
+      <c r="H164" t="s">
         <v>1971</v>
       </c>
-      <c r="H164" t="s">
+      <c r="I164" t="s">
+        <v>1970</v>
+      </c>
+      <c r="J164" t="s">
+        <v>34</v>
+      </c>
+      <c r="K164" t="s">
+        <v>1967</v>
+      </c>
+      <c r="L164" t="s">
+        <v>1968</v>
+      </c>
+      <c r="M164" t="s">
+        <v>34</v>
+      </c>
+      <c r="N164" t="s">
+        <v>34</v>
+      </c>
+      <c r="O164" t="s">
+        <v>34</v>
+      </c>
+      <c r="P164" t="s">
         <v>1972</v>
       </c>
-      <c r="I164" t="s">
-        <v>1971</v>
-      </c>
-      <c r="J164" t="s">
-        <v>34</v>
-      </c>
-      <c r="K164" t="s">
-        <v>1968</v>
-      </c>
-      <c r="L164" t="s">
-        <v>1969</v>
-      </c>
-      <c r="M164" t="s">
-        <v>34</v>
-      </c>
-      <c r="N164" t="s">
-        <v>34</v>
-      </c>
-      <c r="O164" t="s">
-        <v>34</v>
-      </c>
-      <c r="P164" t="s">
+      <c r="Q164" t="s">
         <v>1973</v>
-      </c>
-      <c r="Q164" t="s">
-        <v>1974</v>
       </c>
       <c r="R164" t="s">
         <v>195</v>
       </c>
       <c r="S164" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="T164" t="s">
         <v>34</v>
@@ -22102,7 +22099,7 @@
         <v>34</v>
       </c>
       <c r="Z164" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="165">
@@ -22110,58 +22107,58 @@
         <v>18</v>
       </c>
       <c r="B165" t="s">
+        <v>1975</v>
+      </c>
+      <c r="C165" t="s">
         <v>1976</v>
       </c>
-      <c r="C165" t="s">
+      <c r="D165" t="s">
         <v>1977</v>
       </c>
-      <c r="D165" t="s">
+      <c r="E165" t="s">
         <v>1978</v>
       </c>
-      <c r="E165" t="s">
+      <c r="F165" t="s">
         <v>1979</v>
       </c>
-      <c r="F165" t="s">
+      <c r="G165" t="s">
         <v>1980</v>
       </c>
-      <c r="G165" t="s">
+      <c r="H165" t="s">
         <v>1981</v>
       </c>
-      <c r="H165" t="s">
+      <c r="I165" t="s">
+        <v>1797</v>
+      </c>
+      <c r="J165" t="s">
+        <v>34</v>
+      </c>
+      <c r="K165" t="s">
         <v>1982</v>
       </c>
-      <c r="I165" t="s">
-        <v>1798</v>
-      </c>
-      <c r="J165" t="s">
-        <v>34</v>
-      </c>
-      <c r="K165" t="s">
+      <c r="L165" t="s">
         <v>1983</v>
       </c>
-      <c r="L165" t="s">
+      <c r="M165" t="s">
+        <v>34</v>
+      </c>
+      <c r="N165" t="s">
+        <v>34</v>
+      </c>
+      <c r="O165" t="s">
+        <v>34</v>
+      </c>
+      <c r="P165" t="s">
         <v>1984</v>
       </c>
-      <c r="M165" t="s">
-        <v>34</v>
-      </c>
-      <c r="N165" t="s">
-        <v>34</v>
-      </c>
-      <c r="O165" t="s">
-        <v>34</v>
-      </c>
-      <c r="P165" t="s">
+      <c r="Q165" t="s">
         <v>1985</v>
-      </c>
-      <c r="Q165" t="s">
-        <v>1986</v>
       </c>
       <c r="R165" t="s">
         <v>39</v>
       </c>
       <c r="S165" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="T165" t="s">
         <v>34</v>
@@ -22182,7 +22179,7 @@
         <v>34</v>
       </c>
       <c r="Z165" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="166">
@@ -22190,58 +22187,58 @@
         <v>18</v>
       </c>
       <c r="B166" t="s">
+        <v>1987</v>
+      </c>
+      <c r="C166" t="s">
         <v>1988</v>
       </c>
-      <c r="C166" t="s">
+      <c r="D166" t="s">
         <v>1989</v>
       </c>
-      <c r="D166" t="s">
+      <c r="E166" t="s">
         <v>1990</v>
       </c>
-      <c r="E166" t="s">
+      <c r="F166" t="s">
         <v>1991</v>
       </c>
-      <c r="F166" t="s">
+      <c r="G166" t="s">
         <v>1992</v>
       </c>
-      <c r="G166" t="s">
+      <c r="H166" t="s">
         <v>1993</v>
       </c>
-      <c r="H166" t="s">
+      <c r="I166" t="s">
+        <v>1992</v>
+      </c>
+      <c r="J166" t="s">
+        <v>34</v>
+      </c>
+      <c r="K166" t="s">
         <v>1994</v>
       </c>
-      <c r="I166" t="s">
-        <v>1993</v>
-      </c>
-      <c r="J166" t="s">
-        <v>34</v>
-      </c>
-      <c r="K166" t="s">
+      <c r="L166" t="s">
         <v>1995</v>
       </c>
-      <c r="L166" t="s">
+      <c r="M166" t="s">
+        <v>34</v>
+      </c>
+      <c r="N166" t="s">
+        <v>34</v>
+      </c>
+      <c r="O166" t="s">
+        <v>34</v>
+      </c>
+      <c r="P166" t="s">
         <v>1996</v>
       </c>
-      <c r="M166" t="s">
-        <v>34</v>
-      </c>
-      <c r="N166" t="s">
-        <v>34</v>
-      </c>
-      <c r="O166" t="s">
-        <v>34</v>
-      </c>
-      <c r="P166" t="s">
+      <c r="Q166" t="s">
         <v>1997</v>
-      </c>
-      <c r="Q166" t="s">
-        <v>1998</v>
       </c>
       <c r="R166" t="s">
         <v>39</v>
       </c>
       <c r="S166" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="T166" t="s">
         <v>34</v>
@@ -22262,7 +22259,7 @@
         <v>34</v>
       </c>
       <c r="Z166" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="167">
@@ -22270,58 +22267,58 @@
         <v>18</v>
       </c>
       <c r="B167" t="s">
+        <v>1999</v>
+      </c>
+      <c r="C167" t="s">
         <v>2000</v>
       </c>
-      <c r="C167" t="s">
+      <c r="D167" t="s">
         <v>2001</v>
       </c>
-      <c r="D167" t="s">
+      <c r="E167" t="s">
         <v>2002</v>
       </c>
-      <c r="E167" t="s">
+      <c r="F167" t="s">
         <v>2003</v>
       </c>
-      <c r="F167" t="s">
+      <c r="G167" t="s">
         <v>2004</v>
       </c>
-      <c r="G167" t="s">
+      <c r="H167" t="s">
         <v>2005</v>
       </c>
-      <c r="H167" t="s">
+      <c r="I167" t="s">
         <v>2006</v>
       </c>
-      <c r="I167" t="s">
+      <c r="J167" t="s">
+        <v>34</v>
+      </c>
+      <c r="K167" t="s">
         <v>2007</v>
       </c>
-      <c r="J167" t="s">
-        <v>34</v>
-      </c>
-      <c r="K167" t="s">
+      <c r="L167" t="s">
         <v>2008</v>
       </c>
-      <c r="L167" t="s">
+      <c r="M167" t="s">
+        <v>34</v>
+      </c>
+      <c r="N167" t="s">
+        <v>34</v>
+      </c>
+      <c r="O167" t="s">
+        <v>34</v>
+      </c>
+      <c r="P167" t="s">
         <v>2009</v>
       </c>
-      <c r="M167" t="s">
-        <v>34</v>
-      </c>
-      <c r="N167" t="s">
-        <v>34</v>
-      </c>
-      <c r="O167" t="s">
-        <v>34</v>
-      </c>
-      <c r="P167" t="s">
+      <c r="Q167" t="s">
         <v>2010</v>
-      </c>
-      <c r="Q167" t="s">
-        <v>2011</v>
       </c>
       <c r="R167" t="s">
         <v>52</v>
       </c>
       <c r="S167" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="T167" t="s">
         <v>34</v>
@@ -22342,7 +22339,7 @@
         <v>34</v>
       </c>
       <c r="Z167" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="168">
@@ -22350,58 +22347,58 @@
         <v>18</v>
       </c>
       <c r="B168" t="s">
+        <v>2012</v>
+      </c>
+      <c r="C168" t="s">
         <v>2013</v>
       </c>
-      <c r="C168" t="s">
+      <c r="D168" t="s">
         <v>2014</v>
       </c>
-      <c r="D168" t="s">
+      <c r="E168" t="s">
         <v>2015</v>
       </c>
-      <c r="E168" t="s">
+      <c r="F168" t="s">
         <v>2016</v>
       </c>
-      <c r="F168" t="s">
+      <c r="G168" t="s">
         <v>2017</v>
       </c>
-      <c r="G168" t="s">
+      <c r="H168" t="s">
         <v>2018</v>
       </c>
-      <c r="H168" t="s">
+      <c r="I168" t="s">
         <v>2019</v>
       </c>
-      <c r="I168" t="s">
+      <c r="J168" t="s">
+        <v>34</v>
+      </c>
+      <c r="K168" t="s">
         <v>2020</v>
       </c>
-      <c r="J168" t="s">
-        <v>34</v>
-      </c>
-      <c r="K168" t="s">
+      <c r="L168" t="s">
+        <v>34</v>
+      </c>
+      <c r="M168" t="s">
+        <v>34</v>
+      </c>
+      <c r="N168" t="s">
+        <v>34</v>
+      </c>
+      <c r="O168" t="s">
+        <v>34</v>
+      </c>
+      <c r="P168" t="s">
         <v>2021</v>
       </c>
-      <c r="L168" t="s">
-        <v>34</v>
-      </c>
-      <c r="M168" t="s">
-        <v>34</v>
-      </c>
-      <c r="N168" t="s">
-        <v>34</v>
-      </c>
-      <c r="O168" t="s">
-        <v>34</v>
-      </c>
-      <c r="P168" t="s">
+      <c r="Q168" t="s">
         <v>2022</v>
-      </c>
-      <c r="Q168" t="s">
-        <v>2023</v>
       </c>
       <c r="R168" t="s">
         <v>195</v>
       </c>
       <c r="S168" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="T168" t="s">
         <v>34</v>
@@ -22430,58 +22427,58 @@
         <v>18</v>
       </c>
       <c r="B169" t="s">
+        <v>2023</v>
+      </c>
+      <c r="C169" t="s">
         <v>2024</v>
       </c>
-      <c r="C169" t="s">
+      <c r="D169" t="s">
         <v>2025</v>
       </c>
-      <c r="D169" t="s">
+      <c r="E169" t="s">
         <v>2026</v>
       </c>
-      <c r="E169" t="s">
+      <c r="F169" t="s">
         <v>2027</v>
       </c>
-      <c r="F169" t="s">
+      <c r="G169" t="s">
         <v>2028</v>
       </c>
-      <c r="G169" t="s">
+      <c r="H169" t="s">
         <v>2029</v>
       </c>
-      <c r="H169" t="s">
+      <c r="I169" t="s">
+        <v>2028</v>
+      </c>
+      <c r="J169" t="s">
+        <v>34</v>
+      </c>
+      <c r="K169" t="s">
         <v>2030</v>
       </c>
-      <c r="I169" t="s">
-        <v>2029</v>
-      </c>
-      <c r="J169" t="s">
-        <v>34</v>
-      </c>
-      <c r="K169" t="s">
+      <c r="L169" t="s">
         <v>2031</v>
       </c>
-      <c r="L169" t="s">
+      <c r="M169" t="s">
+        <v>34</v>
+      </c>
+      <c r="N169" t="s">
+        <v>34</v>
+      </c>
+      <c r="O169" t="s">
+        <v>34</v>
+      </c>
+      <c r="P169" t="s">
         <v>2032</v>
       </c>
-      <c r="M169" t="s">
-        <v>34</v>
-      </c>
-      <c r="N169" t="s">
-        <v>34</v>
-      </c>
-      <c r="O169" t="s">
-        <v>34</v>
-      </c>
-      <c r="P169" t="s">
+      <c r="Q169" t="s">
         <v>2033</v>
-      </c>
-      <c r="Q169" t="s">
-        <v>2034</v>
       </c>
       <c r="R169" t="s">
         <v>157</v>
       </c>
       <c r="S169" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="T169" t="s">
         <v>34</v>
@@ -22502,7 +22499,7 @@
         <v>34</v>
       </c>
       <c r="Z169" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="170">
@@ -22510,37 +22507,37 @@
         <v>18</v>
       </c>
       <c r="B170" t="s">
+        <v>2035</v>
+      </c>
+      <c r="C170" t="s">
         <v>2036</v>
       </c>
-      <c r="C170" t="s">
+      <c r="D170" t="s">
         <v>2037</v>
       </c>
-      <c r="D170" t="s">
+      <c r="E170" t="s">
         <v>2038</v>
       </c>
-      <c r="E170" t="s">
+      <c r="F170" t="s">
         <v>2039</v>
       </c>
-      <c r="F170" t="s">
+      <c r="G170" t="s">
         <v>2040</v>
       </c>
-      <c r="G170" t="s">
+      <c r="H170" t="s">
         <v>2041</v>
       </c>
-      <c r="H170" t="s">
+      <c r="I170" t="s">
         <v>2042</v>
       </c>
-      <c r="I170" t="s">
+      <c r="J170" t="s">
+        <v>34</v>
+      </c>
+      <c r="K170" t="s">
         <v>2043</v>
       </c>
-      <c r="J170" t="s">
-        <v>34</v>
-      </c>
-      <c r="K170" t="s">
+      <c r="L170" t="s">
         <v>2044</v>
-      </c>
-      <c r="L170" t="s">
-        <v>2045</v>
       </c>
       <c r="M170" t="s">
         <v>34</v>
@@ -22555,13 +22552,13 @@
         <v>132</v>
       </c>
       <c r="Q170" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="R170" t="s">
         <v>39</v>
       </c>
       <c r="S170" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="T170" t="s">
         <v>34</v>
@@ -22582,7 +22579,7 @@
         <v>34</v>
       </c>
       <c r="Z170" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="171">
@@ -22590,58 +22587,58 @@
         <v>18</v>
       </c>
       <c r="B171" t="s">
+        <v>2047</v>
+      </c>
+      <c r="C171" t="s">
         <v>2048</v>
       </c>
-      <c r="C171" t="s">
+      <c r="D171" t="s">
         <v>2049</v>
       </c>
-      <c r="D171" t="s">
+      <c r="E171" t="s">
         <v>2050</v>
       </c>
-      <c r="E171" t="s">
+      <c r="F171" t="s">
         <v>2051</v>
       </c>
-      <c r="F171" t="s">
+      <c r="G171" t="s">
         <v>2052</v>
       </c>
-      <c r="G171" t="s">
+      <c r="H171" t="s">
         <v>2053</v>
       </c>
-      <c r="H171" t="s">
+      <c r="I171" t="s">
         <v>2054</v>
       </c>
-      <c r="I171" t="s">
+      <c r="J171" t="s">
+        <v>34</v>
+      </c>
+      <c r="K171" t="s">
         <v>2055</v>
       </c>
-      <c r="J171" t="s">
-        <v>34</v>
-      </c>
-      <c r="K171" t="s">
+      <c r="L171" t="s">
         <v>2056</v>
       </c>
-      <c r="L171" t="s">
+      <c r="M171" t="s">
+        <v>34</v>
+      </c>
+      <c r="N171" t="s">
+        <v>34</v>
+      </c>
+      <c r="O171" t="s">
+        <v>34</v>
+      </c>
+      <c r="P171" t="s">
+        <v>1823</v>
+      </c>
+      <c r="Q171" t="s">
         <v>2057</v>
-      </c>
-      <c r="M171" t="s">
-        <v>34</v>
-      </c>
-      <c r="N171" t="s">
-        <v>34</v>
-      </c>
-      <c r="O171" t="s">
-        <v>34</v>
-      </c>
-      <c r="P171" t="s">
-        <v>1824</v>
-      </c>
-      <c r="Q171" t="s">
-        <v>2058</v>
       </c>
       <c r="R171" t="s">
         <v>195</v>
       </c>
       <c r="S171" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="T171" t="s">
         <v>34</v>
@@ -22662,7 +22659,7 @@
         <v>34</v>
       </c>
       <c r="Z171" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="172">
@@ -22670,58 +22667,58 @@
         <v>18</v>
       </c>
       <c r="B172" t="s">
+        <v>2059</v>
+      </c>
+      <c r="C172" t="s">
         <v>2060</v>
       </c>
-      <c r="C172" t="s">
+      <c r="D172" t="s">
         <v>2061</v>
       </c>
-      <c r="D172" t="s">
+      <c r="E172" t="s">
         <v>2062</v>
       </c>
-      <c r="E172" t="s">
+      <c r="F172" t="s">
         <v>2063</v>
       </c>
-      <c r="F172" t="s">
+      <c r="G172" t="s">
         <v>2064</v>
       </c>
-      <c r="G172" t="s">
+      <c r="H172" t="s">
         <v>2065</v>
       </c>
-      <c r="H172" t="s">
+      <c r="I172" t="s">
         <v>2066</v>
       </c>
-      <c r="I172" t="s">
+      <c r="J172" t="s">
+        <v>34</v>
+      </c>
+      <c r="K172" t="s">
         <v>2067</v>
       </c>
-      <c r="J172" t="s">
-        <v>34</v>
-      </c>
-      <c r="K172" t="s">
+      <c r="L172" t="s">
         <v>2068</v>
       </c>
-      <c r="L172" t="s">
+      <c r="M172" t="s">
+        <v>34</v>
+      </c>
+      <c r="N172" t="s">
+        <v>34</v>
+      </c>
+      <c r="O172" t="s">
+        <v>34</v>
+      </c>
+      <c r="P172" t="s">
         <v>2069</v>
       </c>
-      <c r="M172" t="s">
-        <v>34</v>
-      </c>
-      <c r="N172" t="s">
-        <v>34</v>
-      </c>
-      <c r="O172" t="s">
-        <v>34</v>
-      </c>
-      <c r="P172" t="s">
+      <c r="Q172" t="s">
         <v>2070</v>
-      </c>
-      <c r="Q172" t="s">
-        <v>2071</v>
       </c>
       <c r="R172" t="s">
         <v>195</v>
       </c>
       <c r="S172" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="T172" t="s">
         <v>34</v>
@@ -22742,7 +22739,7 @@
         <v>34</v>
       </c>
       <c r="Z172" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="173">
@@ -22750,58 +22747,58 @@
         <v>18</v>
       </c>
       <c r="B173" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C173" t="s">
         <v>2073</v>
       </c>
-      <c r="C173" t="s">
+      <c r="D173" t="s">
         <v>2074</v>
       </c>
-      <c r="D173" t="s">
+      <c r="E173" t="s">
         <v>2075</v>
       </c>
-      <c r="E173" t="s">
+      <c r="F173" t="s">
         <v>2076</v>
       </c>
-      <c r="F173" t="s">
+      <c r="G173" t="s">
         <v>2077</v>
-      </c>
-      <c r="G173" t="s">
-        <v>2078</v>
       </c>
       <c r="H173" t="s">
         <v>1513</v>
       </c>
       <c r="I173" t="s">
+        <v>2077</v>
+      </c>
+      <c r="J173" t="s">
+        <v>34</v>
+      </c>
+      <c r="K173" t="s">
         <v>2078</v>
       </c>
-      <c r="J173" t="s">
-        <v>34</v>
-      </c>
-      <c r="K173" t="s">
+      <c r="L173" t="s">
         <v>2079</v>
       </c>
-      <c r="L173" t="s">
+      <c r="M173" t="s">
+        <v>34</v>
+      </c>
+      <c r="N173" t="s">
+        <v>34</v>
+      </c>
+      <c r="O173" t="s">
+        <v>34</v>
+      </c>
+      <c r="P173" t="s">
         <v>2080</v>
       </c>
-      <c r="M173" t="s">
-        <v>34</v>
-      </c>
-      <c r="N173" t="s">
-        <v>34</v>
-      </c>
-      <c r="O173" t="s">
-        <v>34</v>
-      </c>
-      <c r="P173" t="s">
+      <c r="Q173" t="s">
         <v>2081</v>
-      </c>
-      <c r="Q173" t="s">
-        <v>2082</v>
       </c>
       <c r="R173" t="s">
         <v>98</v>
       </c>
       <c r="S173" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="T173" t="s">
         <v>34</v>
@@ -22822,7 +22819,7 @@
         <v>34</v>
       </c>
       <c r="Z173" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="174">
@@ -22830,58 +22827,58 @@
         <v>18</v>
       </c>
       <c r="B174" t="s">
+        <v>2083</v>
+      </c>
+      <c r="C174" t="s">
         <v>2084</v>
       </c>
-      <c r="C174" t="s">
+      <c r="D174" t="s">
         <v>2085</v>
       </c>
-      <c r="D174" t="s">
+      <c r="E174" t="s">
         <v>2086</v>
       </c>
-      <c r="E174" t="s">
+      <c r="F174" t="s">
         <v>2087</v>
       </c>
-      <c r="F174" t="s">
+      <c r="G174" t="s">
         <v>2088</v>
       </c>
-      <c r="G174" t="s">
+      <c r="H174" t="s">
         <v>2089</v>
       </c>
-      <c r="H174" t="s">
+      <c r="I174" t="s">
         <v>2090</v>
       </c>
-      <c r="I174" t="s">
+      <c r="J174" t="s">
+        <v>34</v>
+      </c>
+      <c r="K174" t="s">
         <v>2091</v>
       </c>
-      <c r="J174" t="s">
-        <v>34</v>
-      </c>
-      <c r="K174" t="s">
+      <c r="L174" t="s">
         <v>2092</v>
       </c>
-      <c r="L174" t="s">
+      <c r="M174" t="s">
+        <v>34</v>
+      </c>
+      <c r="N174" t="s">
+        <v>34</v>
+      </c>
+      <c r="O174" t="s">
+        <v>34</v>
+      </c>
+      <c r="P174" t="s">
         <v>2093</v>
       </c>
-      <c r="M174" t="s">
-        <v>34</v>
-      </c>
-      <c r="N174" t="s">
-        <v>34</v>
-      </c>
-      <c r="O174" t="s">
-        <v>34</v>
-      </c>
-      <c r="P174" t="s">
+      <c r="Q174" t="s">
         <v>2094</v>
-      </c>
-      <c r="Q174" t="s">
-        <v>2095</v>
       </c>
       <c r="R174" t="s">
         <v>52</v>
       </c>
       <c r="S174" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="T174" t="s">
         <v>34</v>
@@ -22902,7 +22899,7 @@
         <v>34</v>
       </c>
       <c r="Z174" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="175">
@@ -22910,25 +22907,25 @@
         <v>18</v>
       </c>
       <c r="B175" t="s">
+        <v>2096</v>
+      </c>
+      <c r="C175" t="s">
         <v>2097</v>
       </c>
-      <c r="C175" t="s">
+      <c r="D175" t="s">
         <v>2098</v>
       </c>
-      <c r="D175" t="s">
+      <c r="E175" t="s">
         <v>2099</v>
       </c>
-      <c r="E175" t="s">
+      <c r="F175" t="s">
         <v>2100</v>
       </c>
-      <c r="F175" t="s">
+      <c r="G175" t="s">
         <v>2101</v>
       </c>
-      <c r="G175" t="s">
+      <c r="H175" t="s">
         <v>2102</v>
-      </c>
-      <c r="H175" t="s">
-        <v>2103</v>
       </c>
       <c r="I175" t="s">
         <v>1415</v>
@@ -22937,31 +22934,31 @@
         <v>34</v>
       </c>
       <c r="K175" t="s">
+        <v>2103</v>
+      </c>
+      <c r="L175" t="s">
         <v>2104</v>
       </c>
-      <c r="L175" t="s">
+      <c r="M175" t="s">
         <v>2105</v>
       </c>
-      <c r="M175" t="s">
+      <c r="N175" t="s">
         <v>2106</v>
       </c>
-      <c r="N175" t="s">
+      <c r="O175" t="s">
+        <v>34</v>
+      </c>
+      <c r="P175" t="s">
         <v>2107</v>
       </c>
-      <c r="O175" t="s">
-        <v>34</v>
-      </c>
-      <c r="P175" t="s">
+      <c r="Q175" t="s">
         <v>2108</v>
-      </c>
-      <c r="Q175" t="s">
-        <v>2109</v>
       </c>
       <c r="R175" t="s">
         <v>39</v>
       </c>
       <c r="S175" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="T175" t="s">
         <v>34</v>
@@ -22982,7 +22979,7 @@
         <v>34</v>
       </c>
       <c r="Z175" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="176">
@@ -22990,58 +22987,58 @@
         <v>18</v>
       </c>
       <c r="B176" t="s">
+        <v>2110</v>
+      </c>
+      <c r="C176" t="s">
         <v>2111</v>
       </c>
-      <c r="C176" t="s">
+      <c r="D176" t="s">
         <v>2112</v>
       </c>
-      <c r="D176" t="s">
+      <c r="E176" t="s">
         <v>2113</v>
       </c>
-      <c r="E176" t="s">
+      <c r="F176" t="s">
         <v>2114</v>
       </c>
-      <c r="F176" t="s">
+      <c r="G176" t="s">
         <v>2115</v>
       </c>
-      <c r="G176" t="s">
+      <c r="H176" t="s">
         <v>2116</v>
       </c>
-      <c r="H176" t="s">
+      <c r="I176" t="s">
         <v>2117</v>
       </c>
-      <c r="I176" t="s">
+      <c r="J176" t="s">
+        <v>34</v>
+      </c>
+      <c r="K176" t="s">
         <v>2118</v>
       </c>
-      <c r="J176" t="s">
-        <v>34</v>
-      </c>
-      <c r="K176" t="s">
+      <c r="L176" t="s">
         <v>2119</v>
       </c>
-      <c r="L176" t="s">
+      <c r="M176" t="s">
+        <v>34</v>
+      </c>
+      <c r="N176" t="s">
+        <v>34</v>
+      </c>
+      <c r="O176" t="s">
+        <v>34</v>
+      </c>
+      <c r="P176" t="s">
         <v>2120</v>
       </c>
-      <c r="M176" t="s">
-        <v>34</v>
-      </c>
-      <c r="N176" t="s">
-        <v>34</v>
-      </c>
-      <c r="O176" t="s">
-        <v>34</v>
-      </c>
-      <c r="P176" t="s">
+      <c r="Q176" t="s">
         <v>2121</v>
-      </c>
-      <c r="Q176" t="s">
-        <v>2122</v>
       </c>
       <c r="R176" t="s">
         <v>98</v>
       </c>
       <c r="S176" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="T176" t="s">
         <v>34</v>
@@ -23062,7 +23059,7 @@
         <v>34</v>
       </c>
       <c r="Z176" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="177">
@@ -23070,58 +23067,58 @@
         <v>18</v>
       </c>
       <c r="B177" t="s">
+        <v>2123</v>
+      </c>
+      <c r="C177" t="s">
         <v>2124</v>
       </c>
-      <c r="C177" t="s">
+      <c r="D177" t="s">
         <v>2125</v>
       </c>
-      <c r="D177" t="s">
+      <c r="E177" t="s">
         <v>2126</v>
       </c>
-      <c r="E177" t="s">
+      <c r="F177" t="s">
         <v>2127</v>
       </c>
-      <c r="F177" t="s">
+      <c r="G177" t="s">
         <v>2128</v>
       </c>
-      <c r="G177" t="s">
+      <c r="H177" t="s">
         <v>2129</v>
       </c>
-      <c r="H177" t="s">
+      <c r="I177" t="s">
+        <v>2004</v>
+      </c>
+      <c r="J177" t="s">
+        <v>34</v>
+      </c>
+      <c r="K177" t="s">
         <v>2130</v>
       </c>
-      <c r="I177" t="s">
-        <v>2005</v>
-      </c>
-      <c r="J177" t="s">
-        <v>34</v>
-      </c>
-      <c r="K177" t="s">
+      <c r="L177" t="s">
         <v>2131</v>
       </c>
-      <c r="L177" t="s">
+      <c r="M177" t="s">
+        <v>34</v>
+      </c>
+      <c r="N177" t="s">
+        <v>34</v>
+      </c>
+      <c r="O177" t="s">
+        <v>34</v>
+      </c>
+      <c r="P177" t="s">
         <v>2132</v>
       </c>
-      <c r="M177" t="s">
-        <v>34</v>
-      </c>
-      <c r="N177" t="s">
-        <v>34</v>
-      </c>
-      <c r="O177" t="s">
-        <v>34</v>
-      </c>
-      <c r="P177" t="s">
+      <c r="Q177" t="s">
         <v>2133</v>
-      </c>
-      <c r="Q177" t="s">
-        <v>2134</v>
       </c>
       <c r="R177" t="s">
         <v>157</v>
       </c>
       <c r="S177" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="T177" t="s">
         <v>34</v>
@@ -23142,7 +23139,7 @@
         <v>34</v>
       </c>
       <c r="Z177" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="178">
@@ -23150,58 +23147,58 @@
         <v>18</v>
       </c>
       <c r="B178" t="s">
+        <v>2135</v>
+      </c>
+      <c r="C178" t="s">
         <v>2136</v>
       </c>
-      <c r="C178" t="s">
+      <c r="D178" t="s">
         <v>2137</v>
       </c>
-      <c r="D178" t="s">
+      <c r="E178" t="s">
         <v>2138</v>
       </c>
-      <c r="E178" t="s">
+      <c r="F178" t="s">
         <v>2139</v>
       </c>
-      <c r="F178" t="s">
+      <c r="G178" t="s">
+        <v>2054</v>
+      </c>
+      <c r="H178" t="s">
         <v>2140</v>
       </c>
-      <c r="G178" t="s">
-        <v>2055</v>
-      </c>
-      <c r="H178" t="s">
+      <c r="I178" t="s">
         <v>2141</v>
       </c>
-      <c r="I178" t="s">
+      <c r="J178" t="s">
+        <v>34</v>
+      </c>
+      <c r="K178" t="s">
         <v>2142</v>
       </c>
-      <c r="J178" t="s">
-        <v>34</v>
-      </c>
-      <c r="K178" t="s">
+      <c r="L178" t="s">
         <v>2143</v>
       </c>
-      <c r="L178" t="s">
+      <c r="M178" t="s">
         <v>2144</v>
       </c>
-      <c r="M178" t="s">
+      <c r="N178" t="s">
+        <v>34</v>
+      </c>
+      <c r="O178" t="s">
+        <v>34</v>
+      </c>
+      <c r="P178" t="s">
         <v>2145</v>
       </c>
-      <c r="N178" t="s">
-        <v>34</v>
-      </c>
-      <c r="O178" t="s">
-        <v>34</v>
-      </c>
-      <c r="P178" t="s">
+      <c r="Q178" t="s">
         <v>2146</v>
-      </c>
-      <c r="Q178" t="s">
-        <v>2147</v>
       </c>
       <c r="R178" t="s">
         <v>39</v>
       </c>
       <c r="S178" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="T178" t="s">
         <v>34</v>
@@ -23222,7 +23219,7 @@
         <v>34</v>
       </c>
       <c r="Z178" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="179">
@@ -23230,58 +23227,58 @@
         <v>18</v>
       </c>
       <c r="B179" t="s">
+        <v>2148</v>
+      </c>
+      <c r="C179" t="s">
         <v>2149</v>
       </c>
-      <c r="C179" t="s">
+      <c r="D179" t="s">
         <v>2150</v>
       </c>
-      <c r="D179" t="s">
+      <c r="E179" t="s">
         <v>2151</v>
       </c>
-      <c r="E179" t="s">
+      <c r="F179" t="s">
         <v>2152</v>
       </c>
-      <c r="F179" t="s">
+      <c r="G179" t="s">
         <v>2153</v>
       </c>
-      <c r="G179" t="s">
+      <c r="H179" t="s">
         <v>2154</v>
       </c>
-      <c r="H179" t="s">
+      <c r="I179" t="s">
         <v>2155</v>
       </c>
-      <c r="I179" t="s">
+      <c r="J179" t="s">
+        <v>34</v>
+      </c>
+      <c r="K179" t="s">
         <v>2156</v>
       </c>
-      <c r="J179" t="s">
-        <v>34</v>
-      </c>
-      <c r="K179" t="s">
+      <c r="L179" t="s">
+        <v>2151</v>
+      </c>
+      <c r="M179" t="s">
+        <v>34</v>
+      </c>
+      <c r="N179" t="s">
+        <v>34</v>
+      </c>
+      <c r="O179" t="s">
+        <v>34</v>
+      </c>
+      <c r="P179" t="s">
         <v>2157</v>
       </c>
-      <c r="L179" t="s">
-        <v>2152</v>
-      </c>
-      <c r="M179" t="s">
-        <v>34</v>
-      </c>
-      <c r="N179" t="s">
-        <v>34</v>
-      </c>
-      <c r="O179" t="s">
-        <v>34</v>
-      </c>
-      <c r="P179" t="s">
+      <c r="Q179" t="s">
         <v>2158</v>
-      </c>
-      <c r="Q179" t="s">
-        <v>2159</v>
       </c>
       <c r="R179" t="s">
         <v>195</v>
       </c>
       <c r="S179" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="T179" t="s">
         <v>34</v>
@@ -23302,7 +23299,7 @@
         <v>34</v>
       </c>
       <c r="Z179" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="180">
@@ -23310,58 +23307,58 @@
         <v>18</v>
       </c>
       <c r="B180" t="s">
+        <v>2160</v>
+      </c>
+      <c r="C180" t="s">
         <v>2161</v>
       </c>
-      <c r="C180" t="s">
+      <c r="D180" t="s">
         <v>2162</v>
       </c>
-      <c r="D180" t="s">
+      <c r="E180" t="s">
         <v>2163</v>
       </c>
-      <c r="E180" t="s">
+      <c r="F180" t="s">
         <v>2164</v>
       </c>
-      <c r="F180" t="s">
+      <c r="G180" t="s">
         <v>2165</v>
       </c>
-      <c r="G180" t="s">
+      <c r="H180" t="s">
         <v>2166</v>
       </c>
-      <c r="H180" t="s">
+      <c r="I180" t="s">
+        <v>2165</v>
+      </c>
+      <c r="J180" t="s">
+        <v>34</v>
+      </c>
+      <c r="K180" t="s">
         <v>2167</v>
       </c>
-      <c r="I180" t="s">
-        <v>2166</v>
-      </c>
-      <c r="J180" t="s">
-        <v>34</v>
-      </c>
-      <c r="K180" t="s">
+      <c r="L180" t="s">
         <v>2168</v>
       </c>
-      <c r="L180" t="s">
+      <c r="M180" t="s">
+        <v>34</v>
+      </c>
+      <c r="N180" t="s">
+        <v>34</v>
+      </c>
+      <c r="O180" t="s">
+        <v>34</v>
+      </c>
+      <c r="P180" t="s">
         <v>2169</v>
       </c>
-      <c r="M180" t="s">
-        <v>34</v>
-      </c>
-      <c r="N180" t="s">
-        <v>34</v>
-      </c>
-      <c r="O180" t="s">
-        <v>34</v>
-      </c>
-      <c r="P180" t="s">
+      <c r="Q180" t="s">
         <v>2170</v>
-      </c>
-      <c r="Q180" t="s">
-        <v>2171</v>
       </c>
       <c r="R180" t="s">
         <v>39</v>
       </c>
       <c r="S180" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="T180" t="s">
         <v>34</v>
@@ -23382,7 +23379,7 @@
         <v>34</v>
       </c>
       <c r="Z180" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="181">
@@ -23390,58 +23387,58 @@
         <v>18</v>
       </c>
       <c r="B181" t="s">
+        <v>2172</v>
+      </c>
+      <c r="C181" t="s">
         <v>2173</v>
       </c>
-      <c r="C181" t="s">
+      <c r="D181" t="s">
         <v>2174</v>
       </c>
-      <c r="D181" t="s">
+      <c r="E181" t="s">
         <v>2175</v>
       </c>
-      <c r="E181" t="s">
+      <c r="F181" t="s">
         <v>2176</v>
       </c>
-      <c r="F181" t="s">
+      <c r="G181" t="s">
         <v>2177</v>
       </c>
-      <c r="G181" t="s">
+      <c r="H181" t="s">
         <v>2178</v>
       </c>
-      <c r="H181" t="s">
+      <c r="I181" t="s">
+        <v>2177</v>
+      </c>
+      <c r="J181" t="s">
+        <v>34</v>
+      </c>
+      <c r="K181" t="s">
         <v>2179</v>
       </c>
-      <c r="I181" t="s">
-        <v>2178</v>
-      </c>
-      <c r="J181" t="s">
-        <v>34</v>
-      </c>
-      <c r="K181" t="s">
+      <c r="L181" t="s">
         <v>2180</v>
       </c>
-      <c r="L181" t="s">
+      <c r="M181" t="s">
         <v>2181</v>
       </c>
-      <c r="M181" t="s">
+      <c r="N181" t="s">
+        <v>34</v>
+      </c>
+      <c r="O181" t="s">
+        <v>34</v>
+      </c>
+      <c r="P181" t="s">
         <v>2182</v>
       </c>
-      <c r="N181" t="s">
-        <v>34</v>
-      </c>
-      <c r="O181" t="s">
-        <v>34</v>
-      </c>
-      <c r="P181" t="s">
+      <c r="Q181" t="s">
         <v>2183</v>
-      </c>
-      <c r="Q181" t="s">
-        <v>2184</v>
       </c>
       <c r="R181" t="s">
         <v>77</v>
       </c>
       <c r="S181" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="T181" t="s">
         <v>34</v>
@@ -23462,7 +23459,7 @@
         <v>34</v>
       </c>
       <c r="Z181" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="182">
@@ -23470,58 +23467,58 @@
         <v>18</v>
       </c>
       <c r="B182" t="s">
+        <v>2185</v>
+      </c>
+      <c r="C182" t="s">
         <v>2186</v>
       </c>
-      <c r="C182" t="s">
+      <c r="D182" t="s">
         <v>2187</v>
       </c>
-      <c r="D182" t="s">
+      <c r="E182" t="s">
         <v>2188</v>
       </c>
-      <c r="E182" t="s">
+      <c r="F182" t="s">
         <v>2189</v>
       </c>
-      <c r="F182" t="s">
+      <c r="G182" t="s">
         <v>2190</v>
       </c>
-      <c r="G182" t="s">
+      <c r="H182" t="s">
         <v>2191</v>
       </c>
-      <c r="H182" t="s">
+      <c r="I182" t="s">
         <v>2192</v>
       </c>
-      <c r="I182" t="s">
+      <c r="J182" t="s">
+        <v>34</v>
+      </c>
+      <c r="K182" t="s">
+        <v>2187</v>
+      </c>
+      <c r="L182" t="s">
+        <v>2188</v>
+      </c>
+      <c r="M182" t="s">
+        <v>34</v>
+      </c>
+      <c r="N182" t="s">
+        <v>34</v>
+      </c>
+      <c r="O182" t="s">
+        <v>34</v>
+      </c>
+      <c r="P182" t="s">
         <v>2193</v>
       </c>
-      <c r="J182" t="s">
-        <v>34</v>
-      </c>
-      <c r="K182" t="s">
-        <v>2188</v>
-      </c>
-      <c r="L182" t="s">
-        <v>2189</v>
-      </c>
-      <c r="M182" t="s">
-        <v>34</v>
-      </c>
-      <c r="N182" t="s">
-        <v>34</v>
-      </c>
-      <c r="O182" t="s">
-        <v>34</v>
-      </c>
-      <c r="P182" t="s">
+      <c r="Q182" t="s">
         <v>2194</v>
-      </c>
-      <c r="Q182" t="s">
-        <v>2195</v>
       </c>
       <c r="R182" t="s">
         <v>98</v>
       </c>
       <c r="S182" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="T182" t="s">
         <v>34</v>
@@ -23542,7 +23539,7 @@
         <v>34</v>
       </c>
       <c r="Z182" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="183">
@@ -23550,58 +23547,58 @@
         <v>18</v>
       </c>
       <c r="B183" t="s">
+        <v>2196</v>
+      </c>
+      <c r="C183" t="s">
         <v>2197</v>
       </c>
-      <c r="C183" t="s">
+      <c r="D183" t="s">
         <v>2198</v>
       </c>
-      <c r="D183" t="s">
+      <c r="E183" t="s">
         <v>2199</v>
       </c>
-      <c r="E183" t="s">
+      <c r="F183" t="s">
         <v>2200</v>
       </c>
-      <c r="F183" t="s">
+      <c r="G183" t="s">
         <v>2201</v>
       </c>
-      <c r="G183" t="s">
+      <c r="H183" t="s">
         <v>2202</v>
       </c>
-      <c r="H183" t="s">
+      <c r="I183" t="s">
+        <v>2190</v>
+      </c>
+      <c r="J183" t="s">
+        <v>34</v>
+      </c>
+      <c r="K183" t="s">
         <v>2203</v>
       </c>
-      <c r="I183" t="s">
-        <v>2191</v>
-      </c>
-      <c r="J183" t="s">
-        <v>34</v>
-      </c>
-      <c r="K183" t="s">
+      <c r="L183" t="s">
         <v>2204</v>
       </c>
-      <c r="L183" t="s">
+      <c r="M183" t="s">
+        <v>34</v>
+      </c>
+      <c r="N183" t="s">
+        <v>34</v>
+      </c>
+      <c r="O183" t="s">
+        <v>34</v>
+      </c>
+      <c r="P183" t="s">
         <v>2205</v>
       </c>
-      <c r="M183" t="s">
-        <v>34</v>
-      </c>
-      <c r="N183" t="s">
-        <v>34</v>
-      </c>
-      <c r="O183" t="s">
-        <v>34</v>
-      </c>
-      <c r="P183" t="s">
+      <c r="Q183" t="s">
         <v>2206</v>
-      </c>
-      <c r="Q183" t="s">
-        <v>2207</v>
       </c>
       <c r="R183" t="s">
         <v>98</v>
       </c>
       <c r="S183" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="T183" t="s">
         <v>34</v>
@@ -23622,7 +23619,7 @@
         <v>34</v>
       </c>
       <c r="Z183" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="184">
@@ -23630,58 +23627,58 @@
         <v>18</v>
       </c>
       <c r="B184" t="s">
+        <v>2208</v>
+      </c>
+      <c r="C184" t="s">
         <v>2209</v>
       </c>
-      <c r="C184" t="s">
+      <c r="D184" t="s">
         <v>2210</v>
       </c>
-      <c r="D184" t="s">
+      <c r="E184" t="s">
         <v>2211</v>
       </c>
-      <c r="E184" t="s">
+      <c r="F184" t="s">
         <v>2212</v>
       </c>
-      <c r="F184" t="s">
+      <c r="G184" t="s">
         <v>2213</v>
       </c>
-      <c r="G184" t="s">
+      <c r="H184" t="s">
         <v>2214</v>
       </c>
-      <c r="H184" t="s">
+      <c r="I184" t="s">
+        <v>2213</v>
+      </c>
+      <c r="J184" t="s">
+        <v>34</v>
+      </c>
+      <c r="K184" t="s">
         <v>2215</v>
       </c>
-      <c r="I184" t="s">
-        <v>2214</v>
-      </c>
-      <c r="J184" t="s">
-        <v>34</v>
-      </c>
-      <c r="K184" t="s">
+      <c r="L184" t="s">
         <v>2216</v>
       </c>
-      <c r="L184" t="s">
+      <c r="M184" t="s">
+        <v>34</v>
+      </c>
+      <c r="N184" t="s">
+        <v>34</v>
+      </c>
+      <c r="O184" t="s">
+        <v>34</v>
+      </c>
+      <c r="P184" t="s">
         <v>2217</v>
       </c>
-      <c r="M184" t="s">
-        <v>34</v>
-      </c>
-      <c r="N184" t="s">
-        <v>34</v>
-      </c>
-      <c r="O184" t="s">
-        <v>34</v>
-      </c>
-      <c r="P184" t="s">
+      <c r="Q184" t="s">
         <v>2218</v>
-      </c>
-      <c r="Q184" t="s">
-        <v>2219</v>
       </c>
       <c r="R184" t="s">
         <v>77</v>
       </c>
       <c r="S184" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="T184" t="s">
         <v>34</v>
@@ -23702,7 +23699,7 @@
         <v>34</v>
       </c>
       <c r="Z184" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="185">
@@ -23710,58 +23707,58 @@
         <v>18</v>
       </c>
       <c r="B185" t="s">
+        <v>2220</v>
+      </c>
+      <c r="C185" t="s">
         <v>2221</v>
       </c>
-      <c r="C185" t="s">
+      <c r="D185" t="s">
         <v>2222</v>
       </c>
-      <c r="D185" t="s">
+      <c r="E185" t="s">
         <v>2223</v>
       </c>
-      <c r="E185" t="s">
+      <c r="F185" t="s">
         <v>2224</v>
       </c>
-      <c r="F185" t="s">
+      <c r="G185" t="s">
         <v>2225</v>
       </c>
-      <c r="G185" t="s">
+      <c r="H185" t="s">
         <v>2226</v>
       </c>
-      <c r="H185" t="s">
+      <c r="I185" t="s">
+        <v>2225</v>
+      </c>
+      <c r="J185" t="s">
+        <v>34</v>
+      </c>
+      <c r="K185" t="s">
         <v>2227</v>
       </c>
-      <c r="I185" t="s">
-        <v>2226</v>
-      </c>
-      <c r="J185" t="s">
-        <v>34</v>
-      </c>
-      <c r="K185" t="s">
+      <c r="L185" t="s">
         <v>2228</v>
       </c>
-      <c r="L185" t="s">
+      <c r="M185" t="s">
+        <v>34</v>
+      </c>
+      <c r="N185" t="s">
+        <v>34</v>
+      </c>
+      <c r="O185" t="s">
+        <v>34</v>
+      </c>
+      <c r="P185" t="s">
         <v>2229</v>
       </c>
-      <c r="M185" t="s">
-        <v>34</v>
-      </c>
-      <c r="N185" t="s">
-        <v>34</v>
-      </c>
-      <c r="O185" t="s">
-        <v>34</v>
-      </c>
-      <c r="P185" t="s">
+      <c r="Q185" t="s">
         <v>2230</v>
-      </c>
-      <c r="Q185" t="s">
-        <v>2231</v>
       </c>
       <c r="R185" t="s">
         <v>39</v>
       </c>
       <c r="S185" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="T185" t="s">
         <v>34</v>
@@ -23782,7 +23779,7 @@
         <v>34</v>
       </c>
       <c r="Z185" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="186">
@@ -23790,58 +23787,58 @@
         <v>18</v>
       </c>
       <c r="B186" t="s">
+        <v>2232</v>
+      </c>
+      <c r="C186" t="s">
         <v>2233</v>
       </c>
-      <c r="C186" t="s">
+      <c r="D186" t="s">
         <v>2234</v>
       </c>
-      <c r="D186" t="s">
+      <c r="E186" t="s">
         <v>2235</v>
       </c>
-      <c r="E186" t="s">
+      <c r="F186" t="s">
         <v>2236</v>
-      </c>
-      <c r="F186" t="s">
-        <v>2237</v>
       </c>
       <c r="G186" t="s">
         <v>648</v>
       </c>
       <c r="H186" t="s">
+        <v>2237</v>
+      </c>
+      <c r="I186" t="s">
         <v>2238</v>
       </c>
-      <c r="I186" t="s">
+      <c r="J186" t="s">
+        <v>34</v>
+      </c>
+      <c r="K186" t="s">
         <v>2239</v>
       </c>
-      <c r="J186" t="s">
-        <v>34</v>
-      </c>
-      <c r="K186" t="s">
+      <c r="L186" t="s">
         <v>2240</v>
       </c>
-      <c r="L186" t="s">
+      <c r="M186" t="s">
+        <v>34</v>
+      </c>
+      <c r="N186" t="s">
+        <v>34</v>
+      </c>
+      <c r="O186" t="s">
+        <v>34</v>
+      </c>
+      <c r="P186" t="s">
         <v>2241</v>
       </c>
-      <c r="M186" t="s">
-        <v>34</v>
-      </c>
-      <c r="N186" t="s">
-        <v>34</v>
-      </c>
-      <c r="O186" t="s">
-        <v>34</v>
-      </c>
-      <c r="P186" t="s">
+      <c r="Q186" t="s">
         <v>2242</v>
-      </c>
-      <c r="Q186" t="s">
-        <v>2243</v>
       </c>
       <c r="R186" t="s">
         <v>98</v>
       </c>
       <c r="S186" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="T186" t="s">
         <v>34</v>
@@ -23870,58 +23867,58 @@
         <v>18</v>
       </c>
       <c r="B187" t="s">
+        <v>2243</v>
+      </c>
+      <c r="C187" t="s">
         <v>2244</v>
       </c>
-      <c r="C187" t="s">
+      <c r="D187" t="s">
         <v>2245</v>
       </c>
-      <c r="D187" t="s">
+      <c r="E187" t="s">
         <v>2246</v>
       </c>
-      <c r="E187" t="s">
+      <c r="F187" t="s">
         <v>2247</v>
       </c>
-      <c r="F187" t="s">
+      <c r="G187" t="s">
         <v>2248</v>
       </c>
-      <c r="G187" t="s">
+      <c r="H187" t="s">
         <v>2249</v>
       </c>
-      <c r="H187" t="s">
+      <c r="I187" t="s">
         <v>2250</v>
       </c>
-      <c r="I187" t="s">
+      <c r="J187" t="s">
+        <v>34</v>
+      </c>
+      <c r="K187" t="s">
         <v>2251</v>
       </c>
-      <c r="J187" t="s">
-        <v>34</v>
-      </c>
-      <c r="K187" t="s">
+      <c r="L187" t="s">
         <v>2252</v>
       </c>
-      <c r="L187" t="s">
+      <c r="M187" t="s">
+        <v>34</v>
+      </c>
+      <c r="N187" t="s">
+        <v>34</v>
+      </c>
+      <c r="O187" t="s">
+        <v>34</v>
+      </c>
+      <c r="P187" t="s">
         <v>2253</v>
       </c>
-      <c r="M187" t="s">
-        <v>34</v>
-      </c>
-      <c r="N187" t="s">
-        <v>34</v>
-      </c>
-      <c r="O187" t="s">
-        <v>34</v>
-      </c>
-      <c r="P187" t="s">
+      <c r="Q187" t="s">
         <v>2254</v>
-      </c>
-      <c r="Q187" t="s">
-        <v>2255</v>
       </c>
       <c r="R187" t="s">
         <v>77</v>
       </c>
       <c r="S187" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="T187" t="s">
         <v>34</v>
@@ -23942,7 +23939,7 @@
         <v>34</v>
       </c>
       <c r="Z187" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="188">
@@ -23950,58 +23947,58 @@
         <v>18</v>
       </c>
       <c r="B188" t="s">
+        <v>2256</v>
+      </c>
+      <c r="C188" t="s">
         <v>2257</v>
       </c>
-      <c r="C188" t="s">
+      <c r="D188" t="s">
         <v>2258</v>
       </c>
-      <c r="D188" t="s">
+      <c r="E188" t="s">
         <v>2259</v>
       </c>
-      <c r="E188" t="s">
+      <c r="F188" t="s">
         <v>2260</v>
       </c>
-      <c r="F188" t="s">
+      <c r="G188" t="s">
         <v>2261</v>
       </c>
-      <c r="G188" t="s">
+      <c r="H188" t="s">
         <v>2262</v>
       </c>
-      <c r="H188" t="s">
+      <c r="I188" t="s">
         <v>2263</v>
       </c>
-      <c r="I188" t="s">
+      <c r="J188" t="s">
+        <v>34</v>
+      </c>
+      <c r="K188" t="s">
         <v>2264</v>
       </c>
-      <c r="J188" t="s">
-        <v>34</v>
-      </c>
-      <c r="K188" t="s">
+      <c r="L188" t="s">
         <v>2265</v>
       </c>
-      <c r="L188" t="s">
+      <c r="M188" t="s">
+        <v>34</v>
+      </c>
+      <c r="N188" t="s">
+        <v>34</v>
+      </c>
+      <c r="O188" t="s">
+        <v>34</v>
+      </c>
+      <c r="P188" t="s">
         <v>2266</v>
       </c>
-      <c r="M188" t="s">
-        <v>34</v>
-      </c>
-      <c r="N188" t="s">
-        <v>34</v>
-      </c>
-      <c r="O188" t="s">
-        <v>34</v>
-      </c>
-      <c r="P188" t="s">
+      <c r="Q188" t="s">
         <v>2267</v>
-      </c>
-      <c r="Q188" t="s">
-        <v>2268</v>
       </c>
       <c r="R188" t="s">
         <v>77</v>
       </c>
       <c r="S188" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="T188" t="s">
         <v>34</v>
@@ -24022,7 +24019,7 @@
         <v>34</v>
       </c>
       <c r="Z188" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="189">
@@ -24030,58 +24027,58 @@
         <v>18</v>
       </c>
       <c r="B189" t="s">
+        <v>2269</v>
+      </c>
+      <c r="C189" t="s">
         <v>2270</v>
       </c>
-      <c r="C189" t="s">
+      <c r="D189" t="s">
         <v>2271</v>
       </c>
-      <c r="D189" t="s">
+      <c r="E189" t="s">
         <v>2272</v>
       </c>
-      <c r="E189" t="s">
+      <c r="F189" t="s">
         <v>2273</v>
       </c>
-      <c r="F189" t="s">
-        <v>2274</v>
-      </c>
       <c r="G189" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="H189" t="s">
         <v>931</v>
       </c>
       <c r="I189" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="J189" t="s">
         <v>34</v>
       </c>
       <c r="K189" t="s">
+        <v>2274</v>
+      </c>
+      <c r="L189" t="s">
         <v>2275</v>
       </c>
-      <c r="L189" t="s">
+      <c r="M189" t="s">
+        <v>34</v>
+      </c>
+      <c r="N189" t="s">
+        <v>34</v>
+      </c>
+      <c r="O189" t="s">
+        <v>34</v>
+      </c>
+      <c r="P189" t="s">
         <v>2276</v>
       </c>
-      <c r="M189" t="s">
-        <v>34</v>
-      </c>
-      <c r="N189" t="s">
-        <v>34</v>
-      </c>
-      <c r="O189" t="s">
-        <v>34</v>
-      </c>
-      <c r="P189" t="s">
+      <c r="Q189" t="s">
         <v>2277</v>
-      </c>
-      <c r="Q189" t="s">
-        <v>2278</v>
       </c>
       <c r="R189" t="s">
         <v>39</v>
       </c>
       <c r="S189" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="T189" t="s">
         <v>34</v>
@@ -24102,7 +24099,7 @@
         <v>34</v>
       </c>
       <c r="Z189" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="190">
@@ -24110,58 +24107,58 @@
         <v>18</v>
       </c>
       <c r="B190" t="s">
+        <v>2279</v>
+      </c>
+      <c r="C190" t="s">
         <v>2280</v>
       </c>
-      <c r="C190" t="s">
+      <c r="D190" t="s">
         <v>2281</v>
       </c>
-      <c r="D190" t="s">
+      <c r="E190" t="s">
         <v>2282</v>
       </c>
-      <c r="E190" t="s">
+      <c r="F190" t="s">
         <v>2283</v>
       </c>
-      <c r="F190" t="s">
+      <c r="G190" t="s">
         <v>2284</v>
       </c>
-      <c r="G190" t="s">
+      <c r="H190" t="s">
         <v>2285</v>
       </c>
-      <c r="H190" t="s">
+      <c r="I190" t="s">
         <v>2286</v>
       </c>
-      <c r="I190" t="s">
+      <c r="J190" t="s">
+        <v>34</v>
+      </c>
+      <c r="K190" t="s">
+        <v>2281</v>
+      </c>
+      <c r="L190" t="s">
+        <v>34</v>
+      </c>
+      <c r="M190" t="s">
+        <v>34</v>
+      </c>
+      <c r="N190" t="s">
+        <v>34</v>
+      </c>
+      <c r="O190" t="s">
+        <v>34</v>
+      </c>
+      <c r="P190" t="s">
         <v>2287</v>
       </c>
-      <c r="J190" t="s">
-        <v>34</v>
-      </c>
-      <c r="K190" t="s">
-        <v>2282</v>
-      </c>
-      <c r="L190" t="s">
-        <v>34</v>
-      </c>
-      <c r="M190" t="s">
-        <v>34</v>
-      </c>
-      <c r="N190" t="s">
-        <v>34</v>
-      </c>
-      <c r="O190" t="s">
-        <v>34</v>
-      </c>
-      <c r="P190" t="s">
+      <c r="Q190" t="s">
         <v>2288</v>
-      </c>
-      <c r="Q190" t="s">
-        <v>2289</v>
       </c>
       <c r="R190" t="s">
         <v>157</v>
       </c>
       <c r="S190" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="T190" t="s">
         <v>34</v>
@@ -24190,34 +24187,34 @@
         <v>18</v>
       </c>
       <c r="B191" t="s">
+        <v>2289</v>
+      </c>
+      <c r="C191" t="s">
         <v>2290</v>
       </c>
-      <c r="C191" t="s">
+      <c r="D191" t="s">
         <v>2291</v>
       </c>
-      <c r="D191" t="s">
+      <c r="E191" t="s">
         <v>2292</v>
       </c>
-      <c r="E191" t="s">
+      <c r="F191" t="s">
         <v>2293</v>
       </c>
-      <c r="F191" t="s">
+      <c r="G191" t="s">
         <v>2294</v>
       </c>
-      <c r="G191" t="s">
+      <c r="H191" t="s">
         <v>2295</v>
       </c>
-      <c r="H191" t="s">
-        <v>2296</v>
-      </c>
       <c r="I191" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="J191" t="s">
         <v>34</v>
       </c>
       <c r="K191" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="L191" t="s">
         <v>34</v>
@@ -24235,13 +24232,13 @@
         <v>1431</v>
       </c>
       <c r="Q191" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
       <c r="R191" t="s">
         <v>77</v>
       </c>
       <c r="S191" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="T191" t="s">
         <v>34</v>
@@ -24270,58 +24267,58 @@
         <v>18</v>
       </c>
       <c r="B192" t="s">
+        <v>2297</v>
+      </c>
+      <c r="C192" t="s">
         <v>2298</v>
       </c>
-      <c r="C192" t="s">
+      <c r="D192" t="s">
         <v>2299</v>
       </c>
-      <c r="D192" t="s">
+      <c r="E192" t="s">
         <v>2300</v>
       </c>
-      <c r="E192" t="s">
+      <c r="F192" t="s">
         <v>2301</v>
       </c>
-      <c r="F192" t="s">
+      <c r="G192" t="s">
         <v>2302</v>
       </c>
-      <c r="G192" t="s">
+      <c r="H192" t="s">
         <v>2303</v>
       </c>
-      <c r="H192" t="s">
+      <c r="I192" t="s">
         <v>2304</v>
       </c>
-      <c r="I192" t="s">
+      <c r="J192" t="s">
+        <v>34</v>
+      </c>
+      <c r="K192" t="s">
+        <v>2299</v>
+      </c>
+      <c r="L192" t="s">
+        <v>34</v>
+      </c>
+      <c r="M192" t="s">
+        <v>34</v>
+      </c>
+      <c r="N192" t="s">
+        <v>34</v>
+      </c>
+      <c r="O192" t="s">
+        <v>34</v>
+      </c>
+      <c r="P192" t="s">
         <v>2305</v>
       </c>
-      <c r="J192" t="s">
-        <v>34</v>
-      </c>
-      <c r="K192" t="s">
-        <v>2300</v>
-      </c>
-      <c r="L192" t="s">
-        <v>34</v>
-      </c>
-      <c r="M192" t="s">
-        <v>34</v>
-      </c>
-      <c r="N192" t="s">
-        <v>34</v>
-      </c>
-      <c r="O192" t="s">
-        <v>34</v>
-      </c>
-      <c r="P192" t="s">
+      <c r="Q192" t="s">
         <v>2306</v>
-      </c>
-      <c r="Q192" t="s">
-        <v>2307</v>
       </c>
       <c r="R192" t="s">
         <v>98</v>
       </c>
       <c r="S192" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="T192" t="s">
         <v>34</v>
@@ -24350,58 +24347,58 @@
         <v>18</v>
       </c>
       <c r="B193" t="s">
+        <v>2307</v>
+      </c>
+      <c r="C193" t="s">
         <v>2308</v>
       </c>
-      <c r="C193" t="s">
+      <c r="D193" t="s">
         <v>2309</v>
       </c>
-      <c r="D193" t="s">
+      <c r="E193" t="s">
         <v>2310</v>
       </c>
-      <c r="E193" t="s">
+      <c r="F193" t="s">
         <v>2311</v>
       </c>
-      <c r="F193" t="s">
+      <c r="G193" t="s">
         <v>2312</v>
       </c>
-      <c r="G193" t="s">
+      <c r="H193" t="s">
         <v>2313</v>
       </c>
-      <c r="H193" t="s">
+      <c r="I193" t="s">
         <v>2314</v>
       </c>
-      <c r="I193" t="s">
+      <c r="J193" t="s">
+        <v>34</v>
+      </c>
+      <c r="K193" t="s">
+        <v>2309</v>
+      </c>
+      <c r="L193" t="s">
         <v>2315</v>
       </c>
-      <c r="J193" t="s">
-        <v>34</v>
-      </c>
-      <c r="K193" t="s">
-        <v>2310</v>
-      </c>
-      <c r="L193" t="s">
+      <c r="M193" t="s">
+        <v>34</v>
+      </c>
+      <c r="N193" t="s">
+        <v>34</v>
+      </c>
+      <c r="O193" t="s">
+        <v>34</v>
+      </c>
+      <c r="P193" t="s">
         <v>2316</v>
       </c>
-      <c r="M193" t="s">
-        <v>34</v>
-      </c>
-      <c r="N193" t="s">
-        <v>34</v>
-      </c>
-      <c r="O193" t="s">
-        <v>34</v>
-      </c>
-      <c r="P193" t="s">
+      <c r="Q193" t="s">
         <v>2317</v>
-      </c>
-      <c r="Q193" t="s">
-        <v>2318</v>
       </c>
       <c r="R193" t="s">
         <v>195</v>
       </c>
       <c r="S193" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="T193" t="s">
         <v>34</v>
@@ -24422,7 +24419,7 @@
         <v>34</v>
       </c>
       <c r="Z193" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="194">
@@ -24430,58 +24427,58 @@
         <v>18</v>
       </c>
       <c r="B194" t="s">
+        <v>2319</v>
+      </c>
+      <c r="C194" t="s">
         <v>2320</v>
       </c>
-      <c r="C194" t="s">
+      <c r="D194" t="s">
         <v>2321</v>
       </c>
-      <c r="D194" t="s">
+      <c r="E194" t="s">
         <v>2322</v>
       </c>
-      <c r="E194" t="s">
+      <c r="F194" t="s">
         <v>2323</v>
       </c>
-      <c r="F194" t="s">
+      <c r="G194" t="s">
         <v>2324</v>
       </c>
-      <c r="G194" t="s">
+      <c r="H194" t="s">
         <v>2325</v>
       </c>
-      <c r="H194" t="s">
+      <c r="I194" t="s">
+        <v>2324</v>
+      </c>
+      <c r="J194" t="s">
+        <v>34</v>
+      </c>
+      <c r="K194" t="s">
         <v>2326</v>
       </c>
-      <c r="I194" t="s">
-        <v>2325</v>
-      </c>
-      <c r="J194" t="s">
-        <v>34</v>
-      </c>
-      <c r="K194" t="s">
+      <c r="L194" t="s">
         <v>2327</v>
       </c>
-      <c r="L194" t="s">
+      <c r="M194" t="s">
+        <v>34</v>
+      </c>
+      <c r="N194" t="s">
+        <v>34</v>
+      </c>
+      <c r="O194" t="s">
+        <v>34</v>
+      </c>
+      <c r="P194" t="s">
         <v>2328</v>
       </c>
-      <c r="M194" t="s">
-        <v>34</v>
-      </c>
-      <c r="N194" t="s">
-        <v>34</v>
-      </c>
-      <c r="O194" t="s">
-        <v>34</v>
-      </c>
-      <c r="P194" t="s">
+      <c r="Q194" t="s">
         <v>2329</v>
-      </c>
-      <c r="Q194" t="s">
-        <v>2330</v>
       </c>
       <c r="R194" t="s">
         <v>77</v>
       </c>
       <c r="S194" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="T194" t="s">
         <v>34</v>
@@ -24502,7 +24499,7 @@
         <v>34</v>
       </c>
       <c r="Z194" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="195">
@@ -24510,25 +24507,25 @@
         <v>18</v>
       </c>
       <c r="B195" t="s">
+        <v>2331</v>
+      </c>
+      <c r="C195" t="s">
         <v>2332</v>
       </c>
-      <c r="C195" t="s">
+      <c r="D195" t="s">
         <v>2333</v>
       </c>
-      <c r="D195" t="s">
+      <c r="E195" t="s">
         <v>2334</v>
       </c>
-      <c r="E195" t="s">
+      <c r="F195" t="s">
         <v>2335</v>
       </c>
-      <c r="F195" t="s">
+      <c r="G195" t="s">
+        <v>2304</v>
+      </c>
+      <c r="H195" t="s">
         <v>2336</v>
-      </c>
-      <c r="G195" t="s">
-        <v>2305</v>
-      </c>
-      <c r="H195" t="s">
-        <v>2337</v>
       </c>
       <c r="I195" t="s">
         <v>831</v>
@@ -24537,31 +24534,31 @@
         <v>34</v>
       </c>
       <c r="K195" t="s">
+        <v>2337</v>
+      </c>
+      <c r="L195" t="s">
         <v>2338</v>
       </c>
-      <c r="L195" t="s">
+      <c r="M195" t="s">
         <v>2339</v>
       </c>
-      <c r="M195" t="s">
+      <c r="N195" t="s">
+        <v>34</v>
+      </c>
+      <c r="O195" t="s">
+        <v>34</v>
+      </c>
+      <c r="P195" t="s">
         <v>2340</v>
       </c>
-      <c r="N195" t="s">
-        <v>34</v>
-      </c>
-      <c r="O195" t="s">
-        <v>34</v>
-      </c>
-      <c r="P195" t="s">
+      <c r="Q195" t="s">
         <v>2341</v>
-      </c>
-      <c r="Q195" t="s">
-        <v>2342</v>
       </c>
       <c r="R195" t="s">
         <v>52</v>
       </c>
       <c r="S195" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="T195" t="s">
         <v>34</v>
@@ -24582,7 +24579,7 @@
         <v>34</v>
       </c>
       <c r="Z195" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="196">
@@ -24590,58 +24587,58 @@
         <v>18</v>
       </c>
       <c r="B196" t="s">
+        <v>2343</v>
+      </c>
+      <c r="C196" t="s">
         <v>2344</v>
       </c>
-      <c r="C196" t="s">
+      <c r="D196" t="s">
         <v>2345</v>
       </c>
-      <c r="D196" t="s">
+      <c r="E196" t="s">
         <v>2346</v>
       </c>
-      <c r="E196" t="s">
+      <c r="F196" t="s">
         <v>2347</v>
       </c>
-      <c r="F196" t="s">
+      <c r="G196" t="s">
         <v>2348</v>
       </c>
-      <c r="G196" t="s">
+      <c r="H196" t="s">
         <v>2349</v>
       </c>
-      <c r="H196" t="s">
+      <c r="I196" t="s">
+        <v>2348</v>
+      </c>
+      <c r="J196" t="s">
+        <v>34</v>
+      </c>
+      <c r="K196" t="s">
         <v>2350</v>
       </c>
-      <c r="I196" t="s">
-        <v>2349</v>
-      </c>
-      <c r="J196" t="s">
-        <v>34</v>
-      </c>
-      <c r="K196" t="s">
+      <c r="L196" t="s">
         <v>2351</v>
       </c>
-      <c r="L196" t="s">
+      <c r="M196" t="s">
+        <v>34</v>
+      </c>
+      <c r="N196" t="s">
+        <v>34</v>
+      </c>
+      <c r="O196" t="s">
+        <v>34</v>
+      </c>
+      <c r="P196" t="s">
         <v>2352</v>
       </c>
-      <c r="M196" t="s">
-        <v>34</v>
-      </c>
-      <c r="N196" t="s">
-        <v>34</v>
-      </c>
-      <c r="O196" t="s">
-        <v>34</v>
-      </c>
-      <c r="P196" t="s">
+      <c r="Q196" t="s">
         <v>2353</v>
-      </c>
-      <c r="Q196" t="s">
-        <v>2354</v>
       </c>
       <c r="R196" t="s">
         <v>98</v>
       </c>
       <c r="S196" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="T196" t="s">
         <v>34</v>
@@ -24662,7 +24659,7 @@
         <v>34</v>
       </c>
       <c r="Z196" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="197">
@@ -24670,58 +24667,58 @@
         <v>18</v>
       </c>
       <c r="B197" t="s">
+        <v>2355</v>
+      </c>
+      <c r="C197" t="s">
         <v>2356</v>
       </c>
-      <c r="C197" t="s">
+      <c r="D197" t="s">
         <v>2357</v>
       </c>
-      <c r="D197" t="s">
+      <c r="E197" t="s">
         <v>2358</v>
       </c>
-      <c r="E197" t="s">
+      <c r="F197" t="s">
         <v>2359</v>
       </c>
-      <c r="F197" t="s">
+      <c r="G197" t="s">
         <v>2360</v>
       </c>
-      <c r="G197" t="s">
+      <c r="H197" t="s">
         <v>2361</v>
       </c>
-      <c r="H197" t="s">
+      <c r="I197" t="s">
+        <v>2360</v>
+      </c>
+      <c r="J197" t="s">
+        <v>34</v>
+      </c>
+      <c r="K197" t="s">
         <v>2362</v>
       </c>
-      <c r="I197" t="s">
-        <v>2361</v>
-      </c>
-      <c r="J197" t="s">
-        <v>34</v>
-      </c>
-      <c r="K197" t="s">
+      <c r="L197" t="s">
         <v>2363</v>
       </c>
-      <c r="L197" t="s">
+      <c r="M197" t="s">
+        <v>34</v>
+      </c>
+      <c r="N197" t="s">
+        <v>34</v>
+      </c>
+      <c r="O197" t="s">
+        <v>34</v>
+      </c>
+      <c r="P197" t="s">
         <v>2364</v>
       </c>
-      <c r="M197" t="s">
-        <v>34</v>
-      </c>
-      <c r="N197" t="s">
-        <v>34</v>
-      </c>
-      <c r="O197" t="s">
-        <v>34</v>
-      </c>
-      <c r="P197" t="s">
+      <c r="Q197" t="s">
         <v>2365</v>
-      </c>
-      <c r="Q197" t="s">
-        <v>2366</v>
       </c>
       <c r="R197" t="s">
         <v>77</v>
       </c>
       <c r="S197" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="T197" t="s">
         <v>34</v>
@@ -24742,7 +24739,7 @@
         <v>34</v>
       </c>
       <c r="Z197" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="198">
@@ -24750,58 +24747,58 @@
         <v>18</v>
       </c>
       <c r="B198" t="s">
+        <v>2367</v>
+      </c>
+      <c r="C198" t="s">
         <v>2368</v>
       </c>
-      <c r="C198" t="s">
+      <c r="D198" t="s">
         <v>2369</v>
       </c>
-      <c r="D198" t="s">
+      <c r="E198" t="s">
         <v>2370</v>
       </c>
-      <c r="E198" t="s">
+      <c r="F198" t="s">
         <v>2371</v>
       </c>
-      <c r="F198" t="s">
+      <c r="G198" t="s">
+        <v>2006</v>
+      </c>
+      <c r="H198" t="s">
         <v>2372</v>
       </c>
-      <c r="G198" t="s">
-        <v>2007</v>
-      </c>
-      <c r="H198" t="s">
+      <c r="I198" t="s">
+        <v>2312</v>
+      </c>
+      <c r="J198" t="s">
+        <v>34</v>
+      </c>
+      <c r="K198" t="s">
         <v>2373</v>
       </c>
-      <c r="I198" t="s">
-        <v>2313</v>
-      </c>
-      <c r="J198" t="s">
-        <v>34</v>
-      </c>
-      <c r="K198" t="s">
+      <c r="L198" t="s">
         <v>2374</v>
       </c>
-      <c r="L198" t="s">
+      <c r="M198" t="s">
         <v>2375</v>
       </c>
-      <c r="M198" t="s">
+      <c r="N198" t="s">
         <v>2376</v>
       </c>
-      <c r="N198" t="s">
+      <c r="O198" t="s">
         <v>2377</v>
-      </c>
-      <c r="O198" t="s">
-        <v>2378</v>
       </c>
       <c r="P198" t="s">
         <v>882</v>
       </c>
       <c r="Q198" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="R198" t="s">
         <v>52</v>
       </c>
       <c r="S198" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="T198" t="s">
         <v>34</v>
@@ -24822,7 +24819,7 @@
         <v>34</v>
       </c>
       <c r="Z198" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="199">
@@ -24830,58 +24827,58 @@
         <v>18</v>
       </c>
       <c r="B199" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C199" t="s">
         <v>2381</v>
       </c>
-      <c r="C199" t="s">
+      <c r="D199" t="s">
         <v>2382</v>
       </c>
-      <c r="D199" t="s">
+      <c r="E199" t="s">
         <v>2383</v>
       </c>
-      <c r="E199" t="s">
+      <c r="F199" t="s">
         <v>2384</v>
-      </c>
-      <c r="F199" t="s">
-        <v>2385</v>
       </c>
       <c r="G199" t="s">
         <v>1512</v>
       </c>
       <c r="H199" t="s">
+        <v>2385</v>
+      </c>
+      <c r="I199" t="s">
         <v>2386</v>
       </c>
-      <c r="I199" t="s">
+      <c r="J199" t="s">
+        <v>34</v>
+      </c>
+      <c r="K199" t="s">
         <v>2387</v>
       </c>
-      <c r="J199" t="s">
-        <v>34</v>
-      </c>
-      <c r="K199" t="s">
+      <c r="L199" t="s">
         <v>2388</v>
       </c>
-      <c r="L199" t="s">
+      <c r="M199" t="s">
         <v>2389</v>
       </c>
-      <c r="M199" t="s">
+      <c r="N199" t="s">
+        <v>34</v>
+      </c>
+      <c r="O199" t="s">
+        <v>34</v>
+      </c>
+      <c r="P199" t="s">
         <v>2390</v>
       </c>
-      <c r="N199" t="s">
-        <v>34</v>
-      </c>
-      <c r="O199" t="s">
-        <v>34</v>
-      </c>
-      <c r="P199" t="s">
+      <c r="Q199" t="s">
         <v>2391</v>
-      </c>
-      <c r="Q199" t="s">
-        <v>2392</v>
       </c>
       <c r="R199" t="s">
         <v>77</v>
       </c>
       <c r="S199" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="T199" t="s">
         <v>34</v>
@@ -24902,7 +24899,7 @@
         <v>34</v>
       </c>
       <c r="Z199" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="200">
@@ -24910,58 +24907,58 @@
         <v>18</v>
       </c>
       <c r="B200" t="s">
+        <v>2393</v>
+      </c>
+      <c r="C200" t="s">
         <v>2394</v>
       </c>
-      <c r="C200" t="s">
+      <c r="D200" t="s">
         <v>2395</v>
       </c>
-      <c r="D200" t="s">
+      <c r="E200" t="s">
         <v>2396</v>
       </c>
-      <c r="E200" t="s">
+      <c r="F200" t="s">
         <v>2397</v>
       </c>
-      <c r="F200" t="s">
+      <c r="G200" t="s">
         <v>2398</v>
       </c>
-      <c r="G200" t="s">
+      <c r="H200" t="s">
         <v>2399</v>
       </c>
-      <c r="H200" t="s">
+      <c r="I200" t="s">
         <v>2400</v>
       </c>
-      <c r="I200" t="s">
+      <c r="J200" t="s">
+        <v>34</v>
+      </c>
+      <c r="K200" t="s">
         <v>2401</v>
       </c>
-      <c r="J200" t="s">
-        <v>34</v>
-      </c>
-      <c r="K200" t="s">
+      <c r="L200" t="s">
         <v>2402</v>
       </c>
-      <c r="L200" t="s">
+      <c r="M200" t="s">
+        <v>34</v>
+      </c>
+      <c r="N200" t="s">
+        <v>34</v>
+      </c>
+      <c r="O200" t="s">
+        <v>34</v>
+      </c>
+      <c r="P200" t="s">
         <v>2403</v>
       </c>
-      <c r="M200" t="s">
-        <v>34</v>
-      </c>
-      <c r="N200" t="s">
-        <v>34</v>
-      </c>
-      <c r="O200" t="s">
-        <v>34</v>
-      </c>
-      <c r="P200" t="s">
+      <c r="Q200" t="s">
         <v>2404</v>
-      </c>
-      <c r="Q200" t="s">
-        <v>2405</v>
       </c>
       <c r="R200" t="s">
         <v>157</v>
       </c>
       <c r="S200" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="T200" t="s">
         <v>34</v>
@@ -24982,7 +24979,7 @@
         <v>34</v>
       </c>
       <c r="Z200" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="201">
@@ -24990,58 +24987,58 @@
         <v>18</v>
       </c>
       <c r="B201" t="s">
+        <v>2406</v>
+      </c>
+      <c r="C201" t="s">
         <v>2407</v>
       </c>
-      <c r="C201" t="s">
+      <c r="D201" t="s">
         <v>2408</v>
       </c>
-      <c r="D201" t="s">
+      <c r="E201" t="s">
         <v>2409</v>
       </c>
-      <c r="E201" t="s">
+      <c r="F201" t="s">
         <v>2410</v>
       </c>
-      <c r="F201" t="s">
+      <c r="G201" t="s">
         <v>2411</v>
       </c>
-      <c r="G201" t="s">
+      <c r="H201" t="s">
         <v>2412</v>
       </c>
-      <c r="H201" t="s">
+      <c r="I201" t="s">
         <v>2413</v>
       </c>
-      <c r="I201" t="s">
+      <c r="J201" t="s">
+        <v>34</v>
+      </c>
+      <c r="K201" t="s">
         <v>2414</v>
       </c>
-      <c r="J201" t="s">
-        <v>34</v>
-      </c>
-      <c r="K201" t="s">
+      <c r="L201" t="s">
         <v>2415</v>
       </c>
-      <c r="L201" t="s">
+      <c r="M201" t="s">
         <v>2416</v>
       </c>
-      <c r="M201" t="s">
+      <c r="N201" t="s">
+        <v>34</v>
+      </c>
+      <c r="O201" t="s">
+        <v>34</v>
+      </c>
+      <c r="P201" t="s">
         <v>2417</v>
       </c>
-      <c r="N201" t="s">
-        <v>34</v>
-      </c>
-      <c r="O201" t="s">
-        <v>34</v>
-      </c>
-      <c r="P201" t="s">
+      <c r="Q201" t="s">
         <v>2418</v>
-      </c>
-      <c r="Q201" t="s">
-        <v>2419</v>
       </c>
       <c r="R201" t="s">
         <v>98</v>
       </c>
       <c r="S201" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="T201" t="s">
         <v>34</v>
@@ -25062,7 +25059,7 @@
         <v>34</v>
       </c>
       <c r="Z201" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="202">
@@ -25070,58 +25067,58 @@
         <v>18</v>
       </c>
       <c r="B202" t="s">
+        <v>2420</v>
+      </c>
+      <c r="C202" t="s">
         <v>2421</v>
       </c>
-      <c r="C202" t="s">
+      <c r="D202" t="s">
         <v>2422</v>
       </c>
-      <c r="D202" t="s">
+      <c r="E202" t="s">
         <v>2423</v>
       </c>
-      <c r="E202" t="s">
+      <c r="F202" t="s">
         <v>2424</v>
       </c>
-      <c r="F202" t="s">
+      <c r="G202" t="s">
         <v>2425</v>
       </c>
-      <c r="G202" t="s">
+      <c r="H202" t="s">
         <v>2426</v>
       </c>
-      <c r="H202" t="s">
+      <c r="I202" t="s">
+        <v>2425</v>
+      </c>
+      <c r="J202" t="s">
+        <v>34</v>
+      </c>
+      <c r="K202" t="s">
         <v>2427</v>
       </c>
-      <c r="I202" t="s">
-        <v>2426</v>
-      </c>
-      <c r="J202" t="s">
-        <v>34</v>
-      </c>
-      <c r="K202" t="s">
+      <c r="L202" t="s">
         <v>2428</v>
       </c>
-      <c r="L202" t="s">
+      <c r="M202" t="s">
+        <v>34</v>
+      </c>
+      <c r="N202" t="s">
+        <v>34</v>
+      </c>
+      <c r="O202" t="s">
+        <v>34</v>
+      </c>
+      <c r="P202" t="s">
         <v>2429</v>
       </c>
-      <c r="M202" t="s">
-        <v>34</v>
-      </c>
-      <c r="N202" t="s">
-        <v>34</v>
-      </c>
-      <c r="O202" t="s">
-        <v>34</v>
-      </c>
-      <c r="P202" t="s">
+      <c r="Q202" t="s">
         <v>2430</v>
-      </c>
-      <c r="Q202" t="s">
-        <v>2431</v>
       </c>
       <c r="R202" t="s">
         <v>98</v>
       </c>
       <c r="S202" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="T202" t="s">
         <v>34</v>
@@ -25142,7 +25139,7 @@
         <v>34</v>
       </c>
       <c r="Z202" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="203">
@@ -25150,58 +25147,58 @@
         <v>18</v>
       </c>
       <c r="B203" t="s">
+        <v>2432</v>
+      </c>
+      <c r="C203" t="s">
         <v>2433</v>
       </c>
-      <c r="C203" t="s">
+      <c r="D203" t="s">
         <v>2434</v>
       </c>
-      <c r="D203" t="s">
+      <c r="E203" t="s">
         <v>2435</v>
       </c>
-      <c r="E203" t="s">
+      <c r="F203" t="s">
         <v>2436</v>
       </c>
-      <c r="F203" t="s">
+      <c r="G203" t="s">
         <v>2437</v>
       </c>
-      <c r="G203" t="s">
+      <c r="H203" t="s">
         <v>2438</v>
       </c>
-      <c r="H203" t="s">
+      <c r="I203" t="s">
         <v>2439</v>
       </c>
-      <c r="I203" t="s">
+      <c r="J203" t="s">
+        <v>34</v>
+      </c>
+      <c r="K203" t="s">
         <v>2440</v>
       </c>
-      <c r="J203" t="s">
-        <v>34</v>
-      </c>
-      <c r="K203" t="s">
+      <c r="L203" t="s">
         <v>2441</v>
       </c>
-      <c r="L203" t="s">
+      <c r="M203" t="s">
+        <v>34</v>
+      </c>
+      <c r="N203" t="s">
+        <v>34</v>
+      </c>
+      <c r="O203" t="s">
+        <v>34</v>
+      </c>
+      <c r="P203" t="s">
         <v>2442</v>
       </c>
-      <c r="M203" t="s">
-        <v>34</v>
-      </c>
-      <c r="N203" t="s">
-        <v>34</v>
-      </c>
-      <c r="O203" t="s">
-        <v>34</v>
-      </c>
-      <c r="P203" t="s">
+      <c r="Q203" t="s">
         <v>2443</v>
-      </c>
-      <c r="Q203" t="s">
-        <v>2444</v>
       </c>
       <c r="R203" t="s">
         <v>98</v>
       </c>
       <c r="S203" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="T203" t="s">
         <v>34</v>
@@ -25222,7 +25219,7 @@
         <v>34</v>
       </c>
       <c r="Z203" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="204">
@@ -25230,58 +25227,58 @@
         <v>18</v>
       </c>
       <c r="B204" t="s">
+        <v>2445</v>
+      </c>
+      <c r="C204" t="s">
         <v>2446</v>
       </c>
-      <c r="C204" t="s">
+      <c r="D204" t="s">
         <v>2447</v>
       </c>
-      <c r="D204" t="s">
+      <c r="E204" t="s">
         <v>2448</v>
       </c>
-      <c r="E204" t="s">
+      <c r="F204" t="s">
         <v>2449</v>
-      </c>
-      <c r="F204" t="s">
-        <v>2450</v>
       </c>
       <c r="G204" t="s">
         <v>530</v>
       </c>
       <c r="H204" t="s">
+        <v>2450</v>
+      </c>
+      <c r="I204" t="s">
         <v>2451</v>
       </c>
-      <c r="I204" t="s">
+      <c r="J204" t="s">
+        <v>34</v>
+      </c>
+      <c r="K204" t="s">
         <v>2452</v>
       </c>
-      <c r="J204" t="s">
-        <v>34</v>
-      </c>
-      <c r="K204" t="s">
+      <c r="L204" t="s">
         <v>2453</v>
       </c>
-      <c r="L204" t="s">
+      <c r="M204" t="s">
         <v>2454</v>
       </c>
-      <c r="M204" t="s">
+      <c r="N204" t="s">
+        <v>34</v>
+      </c>
+      <c r="O204" t="s">
+        <v>34</v>
+      </c>
+      <c r="P204" t="s">
         <v>2455</v>
       </c>
-      <c r="N204" t="s">
-        <v>34</v>
-      </c>
-      <c r="O204" t="s">
-        <v>34</v>
-      </c>
-      <c r="P204" t="s">
+      <c r="Q204" t="s">
         <v>2456</v>
-      </c>
-      <c r="Q204" t="s">
-        <v>2457</v>
       </c>
       <c r="R204" t="s">
         <v>77</v>
       </c>
       <c r="S204" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="T204" t="s">
         <v>34</v>
@@ -25302,7 +25299,7 @@
         <v>34</v>
       </c>
       <c r="Z204" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
     </row>
     <row r="205">
@@ -25310,58 +25307,58 @@
         <v>18</v>
       </c>
       <c r="B205" t="s">
+        <v>2458</v>
+      </c>
+      <c r="C205" t="s">
         <v>2459</v>
       </c>
-      <c r="C205" t="s">
+      <c r="D205" t="s">
         <v>2460</v>
       </c>
-      <c r="D205" t="s">
+      <c r="E205" t="s">
         <v>2461</v>
       </c>
-      <c r="E205" t="s">
+      <c r="F205" t="s">
         <v>2462</v>
-      </c>
-      <c r="F205" t="s">
-        <v>2463</v>
       </c>
       <c r="G205" t="s">
         <v>1417</v>
       </c>
       <c r="H205" t="s">
+        <v>2463</v>
+      </c>
+      <c r="I205" t="s">
+        <v>2437</v>
+      </c>
+      <c r="J205" t="s">
+        <v>34</v>
+      </c>
+      <c r="K205" t="s">
         <v>2464</v>
       </c>
-      <c r="I205" t="s">
-        <v>2438</v>
-      </c>
-      <c r="J205" t="s">
-        <v>34</v>
-      </c>
-      <c r="K205" t="s">
+      <c r="L205" t="s">
         <v>2465</v>
       </c>
-      <c r="L205" t="s">
+      <c r="M205" t="s">
+        <v>34</v>
+      </c>
+      <c r="N205" t="s">
+        <v>34</v>
+      </c>
+      <c r="O205" t="s">
+        <v>34</v>
+      </c>
+      <c r="P205" t="s">
         <v>2466</v>
       </c>
-      <c r="M205" t="s">
-        <v>34</v>
-      </c>
-      <c r="N205" t="s">
-        <v>34</v>
-      </c>
-      <c r="O205" t="s">
-        <v>34</v>
-      </c>
-      <c r="P205" t="s">
+      <c r="Q205" t="s">
         <v>2467</v>
-      </c>
-      <c r="Q205" t="s">
-        <v>2468</v>
       </c>
       <c r="R205" t="s">
         <v>77</v>
       </c>
       <c r="S205" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="T205" t="s">
         <v>34</v>
@@ -25382,7 +25379,7 @@
         <v>34</v>
       </c>
       <c r="Z205" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="206">
@@ -25390,58 +25387,58 @@
         <v>18</v>
       </c>
       <c r="B206" t="s">
+        <v>2469</v>
+      </c>
+      <c r="C206" t="s">
         <v>2470</v>
       </c>
-      <c r="C206" t="s">
+      <c r="D206" t="s">
         <v>2471</v>
       </c>
-      <c r="D206" t="s">
+      <c r="E206" t="s">
         <v>2472</v>
       </c>
-      <c r="E206" t="s">
+      <c r="F206" t="s">
         <v>2473</v>
       </c>
-      <c r="F206" t="s">
+      <c r="G206" t="s">
         <v>2474</v>
       </c>
-      <c r="G206" t="s">
+      <c r="H206" t="s">
         <v>2475</v>
       </c>
-      <c r="H206" t="s">
+      <c r="I206" t="s">
+        <v>2474</v>
+      </c>
+      <c r="J206" t="s">
+        <v>34</v>
+      </c>
+      <c r="K206" t="s">
         <v>2476</v>
       </c>
-      <c r="I206" t="s">
-        <v>2475</v>
-      </c>
-      <c r="J206" t="s">
-        <v>34</v>
-      </c>
-      <c r="K206" t="s">
+      <c r="L206" t="s">
         <v>2477</v>
       </c>
-      <c r="L206" t="s">
+      <c r="M206" t="s">
         <v>2478</v>
       </c>
-      <c r="M206" t="s">
+      <c r="N206" t="s">
+        <v>34</v>
+      </c>
+      <c r="O206" t="s">
+        <v>34</v>
+      </c>
+      <c r="P206" t="s">
         <v>2479</v>
       </c>
-      <c r="N206" t="s">
-        <v>34</v>
-      </c>
-      <c r="O206" t="s">
-        <v>34</v>
-      </c>
-      <c r="P206" t="s">
+      <c r="Q206" t="s">
         <v>2480</v>
-      </c>
-      <c r="Q206" t="s">
-        <v>2481</v>
       </c>
       <c r="R206" t="s">
         <v>39</v>
       </c>
       <c r="S206" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="T206" t="s">
         <v>34</v>
@@ -25462,7 +25459,7 @@
         <v>34</v>
       </c>
       <c r="Z206" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="207">
@@ -25470,58 +25467,58 @@
         <v>18</v>
       </c>
       <c r="B207" t="s">
+        <v>2482</v>
+      </c>
+      <c r="C207" t="s">
         <v>2483</v>
       </c>
-      <c r="C207" t="s">
+      <c r="D207" t="s">
         <v>2484</v>
       </c>
-      <c r="D207" t="s">
+      <c r="E207" t="s">
         <v>2485</v>
       </c>
-      <c r="E207" t="s">
+      <c r="F207" t="s">
         <v>2486</v>
       </c>
-      <c r="F207" t="s">
+      <c r="G207" t="s">
         <v>2487</v>
       </c>
-      <c r="G207" t="s">
+      <c r="H207" t="s">
         <v>2488</v>
       </c>
-      <c r="H207" t="s">
+      <c r="I207" t="s">
         <v>2489</v>
       </c>
-      <c r="I207" t="s">
+      <c r="J207" t="s">
+        <v>34</v>
+      </c>
+      <c r="K207" t="s">
+        <v>34</v>
+      </c>
+      <c r="L207" t="s">
+        <v>34</v>
+      </c>
+      <c r="M207" t="s">
+        <v>34</v>
+      </c>
+      <c r="N207" t="s">
+        <v>34</v>
+      </c>
+      <c r="O207" t="s">
+        <v>34</v>
+      </c>
+      <c r="P207" t="s">
         <v>2490</v>
       </c>
-      <c r="J207" t="s">
-        <v>34</v>
-      </c>
-      <c r="K207" t="s">
-        <v>34</v>
-      </c>
-      <c r="L207" t="s">
-        <v>34</v>
-      </c>
-      <c r="M207" t="s">
-        <v>34</v>
-      </c>
-      <c r="N207" t="s">
-        <v>34</v>
-      </c>
-      <c r="O207" t="s">
-        <v>34</v>
-      </c>
-      <c r="P207" t="s">
+      <c r="Q207" t="s">
         <v>2491</v>
-      </c>
-      <c r="Q207" t="s">
-        <v>2492</v>
       </c>
       <c r="R207" t="s">
         <v>98</v>
       </c>
       <c r="S207" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
       <c r="T207" t="s">
         <v>34</v>
@@ -25550,34 +25547,34 @@
         <v>18</v>
       </c>
       <c r="B208" t="s">
+        <v>2492</v>
+      </c>
+      <c r="C208" t="s">
         <v>2493</v>
       </c>
-      <c r="C208" t="s">
+      <c r="D208" t="s">
         <v>2494</v>
       </c>
-      <c r="D208" t="s">
+      <c r="E208" t="s">
         <v>2495</v>
       </c>
-      <c r="E208" t="s">
+      <c r="F208" t="s">
         <v>2496</v>
       </c>
-      <c r="F208" t="s">
+      <c r="G208" t="s">
         <v>2497</v>
       </c>
-      <c r="G208" t="s">
+      <c r="H208" t="s">
         <v>2498</v>
       </c>
-      <c r="H208" t="s">
+      <c r="I208" t="s">
         <v>2499</v>
       </c>
-      <c r="I208" t="s">
+      <c r="J208" t="s">
+        <v>34</v>
+      </c>
+      <c r="K208" t="s">
         <v>2500</v>
-      </c>
-      <c r="J208" t="s">
-        <v>34</v>
-      </c>
-      <c r="K208" t="s">
-        <v>2501</v>
       </c>
       <c r="L208" t="s">
         <v>34</v>
@@ -25595,13 +25592,13 @@
         <v>1485</v>
       </c>
       <c r="Q208" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="R208" t="s">
         <v>52</v>
       </c>
       <c r="S208" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="T208" t="s">
         <v>34</v>
@@ -25630,25 +25627,25 @@
         <v>18</v>
       </c>
       <c r="B209" t="s">
+        <v>2502</v>
+      </c>
+      <c r="C209" t="s">
         <v>2503</v>
       </c>
-      <c r="C209" t="s">
+      <c r="D209" t="s">
         <v>2504</v>
       </c>
-      <c r="D209" t="s">
+      <c r="E209" t="s">
         <v>2505</v>
       </c>
-      <c r="E209" t="s">
+      <c r="F209" t="s">
         <v>2506</v>
       </c>
-      <c r="F209" t="s">
+      <c r="G209" t="s">
         <v>2507</v>
       </c>
-      <c r="G209" t="s">
+      <c r="H209" t="s">
         <v>2508</v>
-      </c>
-      <c r="H209" t="s">
-        <v>2509</v>
       </c>
       <c r="I209" t="s">
         <v>580</v>
@@ -25657,31 +25654,31 @@
         <v>34</v>
       </c>
       <c r="K209" t="s">
+        <v>2509</v>
+      </c>
+      <c r="L209" t="s">
         <v>2510</v>
       </c>
-      <c r="L209" t="s">
+      <c r="M209" t="s">
+        <v>34</v>
+      </c>
+      <c r="N209" t="s">
+        <v>34</v>
+      </c>
+      <c r="O209" t="s">
+        <v>34</v>
+      </c>
+      <c r="P209" t="s">
         <v>2511</v>
       </c>
-      <c r="M209" t="s">
-        <v>34</v>
-      </c>
-      <c r="N209" t="s">
-        <v>34</v>
-      </c>
-      <c r="O209" t="s">
-        <v>34</v>
-      </c>
-      <c r="P209" t="s">
+      <c r="Q209" t="s">
         <v>2512</v>
-      </c>
-      <c r="Q209" t="s">
-        <v>2513</v>
       </c>
       <c r="R209" t="s">
         <v>77</v>
       </c>
       <c r="S209" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="T209" t="s">
         <v>34</v>
@@ -25702,7 +25699,7 @@
         <v>34</v>
       </c>
       <c r="Z209" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
     </row>
     <row r="210">
@@ -25710,58 +25707,58 @@
         <v>18</v>
       </c>
       <c r="B210" t="s">
+        <v>2514</v>
+      </c>
+      <c r="C210" t="s">
         <v>2515</v>
       </c>
-      <c r="C210" t="s">
+      <c r="D210" t="s">
         <v>2516</v>
       </c>
-      <c r="D210" t="s">
+      <c r="E210" t="s">
         <v>2517</v>
       </c>
-      <c r="E210" t="s">
+      <c r="F210" t="s">
         <v>2518</v>
       </c>
-      <c r="F210" t="s">
+      <c r="G210" t="s">
         <v>2519</v>
       </c>
-      <c r="G210" t="s">
+      <c r="H210" t="s">
         <v>2520</v>
       </c>
-      <c r="H210" t="s">
+      <c r="I210" t="s">
         <v>2521</v>
       </c>
-      <c r="I210" t="s">
+      <c r="J210" t="s">
+        <v>34</v>
+      </c>
+      <c r="K210" t="s">
         <v>2522</v>
       </c>
-      <c r="J210" t="s">
-        <v>34</v>
-      </c>
-      <c r="K210" t="s">
+      <c r="L210" t="s">
         <v>2523</v>
       </c>
-      <c r="L210" t="s">
+      <c r="M210" t="s">
+        <v>34</v>
+      </c>
+      <c r="N210" t="s">
+        <v>34</v>
+      </c>
+      <c r="O210" t="s">
+        <v>34</v>
+      </c>
+      <c r="P210" t="s">
         <v>2524</v>
       </c>
-      <c r="M210" t="s">
-        <v>34</v>
-      </c>
-      <c r="N210" t="s">
-        <v>34</v>
-      </c>
-      <c r="O210" t="s">
-        <v>34</v>
-      </c>
-      <c r="P210" t="s">
+      <c r="Q210" t="s">
         <v>2525</v>
-      </c>
-      <c r="Q210" t="s">
-        <v>2526</v>
       </c>
       <c r="R210" t="s">
         <v>77</v>
       </c>
       <c r="S210" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="T210" t="s">
         <v>34</v>
@@ -25782,7 +25779,7 @@
         <v>34</v>
       </c>
       <c r="Z210" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="211">
@@ -25790,58 +25787,58 @@
         <v>18</v>
       </c>
       <c r="B211" t="s">
+        <v>2527</v>
+      </c>
+      <c r="C211" t="s">
         <v>2528</v>
       </c>
-      <c r="C211" t="s">
+      <c r="D211" t="s">
         <v>2529</v>
       </c>
-      <c r="D211" t="s">
+      <c r="E211" t="s">
         <v>2530</v>
       </c>
-      <c r="E211" t="s">
+      <c r="F211" t="s">
         <v>2531</v>
       </c>
-      <c r="F211" t="s">
+      <c r="G211" t="s">
         <v>2532</v>
       </c>
-      <c r="G211" t="s">
+      <c r="H211" t="s">
         <v>2533</v>
       </c>
-      <c r="H211" t="s">
+      <c r="I211" t="s">
+        <v>2532</v>
+      </c>
+      <c r="J211" t="s">
+        <v>34</v>
+      </c>
+      <c r="K211" t="s">
         <v>2534</v>
       </c>
-      <c r="I211" t="s">
-        <v>2533</v>
-      </c>
-      <c r="J211" t="s">
-        <v>34</v>
-      </c>
-      <c r="K211" t="s">
+      <c r="L211" t="s">
         <v>2535</v>
       </c>
-      <c r="L211" t="s">
+      <c r="M211" t="s">
+        <v>34</v>
+      </c>
+      <c r="N211" t="s">
+        <v>34</v>
+      </c>
+      <c r="O211" t="s">
+        <v>34</v>
+      </c>
+      <c r="P211" t="s">
         <v>2536</v>
       </c>
-      <c r="M211" t="s">
-        <v>34</v>
-      </c>
-      <c r="N211" t="s">
-        <v>34</v>
-      </c>
-      <c r="O211" t="s">
-        <v>34</v>
-      </c>
-      <c r="P211" t="s">
+      <c r="Q211" t="s">
         <v>2537</v>
-      </c>
-      <c r="Q211" t="s">
-        <v>2538</v>
       </c>
       <c r="R211" t="s">
         <v>39</v>
       </c>
       <c r="S211" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="T211" t="s">
         <v>34</v>
@@ -25862,7 +25859,7 @@
         <v>34</v>
       </c>
       <c r="Z211" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="212">
@@ -25870,58 +25867,58 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
+        <v>2539</v>
+      </c>
+      <c r="C212" t="s">
         <v>2540</v>
       </c>
-      <c r="C212" t="s">
+      <c r="D212" t="s">
         <v>2541</v>
       </c>
-      <c r="D212" t="s">
+      <c r="E212" t="s">
         <v>2542</v>
       </c>
-      <c r="E212" t="s">
+      <c r="F212" t="s">
         <v>2543</v>
       </c>
-      <c r="F212" t="s">
+      <c r="G212" t="s">
         <v>2544</v>
       </c>
-      <c r="G212" t="s">
+      <c r="H212" t="s">
         <v>2545</v>
       </c>
-      <c r="H212" t="s">
+      <c r="I212" t="s">
         <v>2546</v>
       </c>
-      <c r="I212" t="s">
+      <c r="J212" t="s">
+        <v>34</v>
+      </c>
+      <c r="K212" t="s">
         <v>2547</v>
       </c>
-      <c r="J212" t="s">
-        <v>34</v>
-      </c>
-      <c r="K212" t="s">
+      <c r="L212" t="s">
         <v>2548</v>
       </c>
-      <c r="L212" t="s">
+      <c r="M212" t="s">
+        <v>34</v>
+      </c>
+      <c r="N212" t="s">
+        <v>34</v>
+      </c>
+      <c r="O212" t="s">
+        <v>34</v>
+      </c>
+      <c r="P212" t="s">
         <v>2549</v>
       </c>
-      <c r="M212" t="s">
-        <v>34</v>
-      </c>
-      <c r="N212" t="s">
-        <v>34</v>
-      </c>
-      <c r="O212" t="s">
-        <v>34</v>
-      </c>
-      <c r="P212" t="s">
+      <c r="Q212" t="s">
         <v>2550</v>
-      </c>
-      <c r="Q212" t="s">
-        <v>2551</v>
       </c>
       <c r="R212" t="s">
         <v>39</v>
       </c>
       <c r="S212" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="T212" t="s">
         <v>34</v>
@@ -25950,58 +25947,58 @@
         <v>18</v>
       </c>
       <c r="B213" t="s">
+        <v>2551</v>
+      </c>
+      <c r="C213" t="s">
         <v>2552</v>
       </c>
-      <c r="C213" t="s">
+      <c r="D213" t="s">
         <v>2553</v>
       </c>
-      <c r="D213" t="s">
+      <c r="E213" t="s">
         <v>2554</v>
       </c>
-      <c r="E213" t="s">
+      <c r="F213" t="s">
         <v>2555</v>
       </c>
-      <c r="F213" t="s">
+      <c r="G213" t="s">
+        <v>2499</v>
+      </c>
+      <c r="H213" t="s">
         <v>2556</v>
       </c>
-      <c r="G213" t="s">
-        <v>2500</v>
-      </c>
-      <c r="H213" t="s">
+      <c r="I213" t="s">
         <v>2557</v>
       </c>
-      <c r="I213" t="s">
+      <c r="J213" t="s">
+        <v>34</v>
+      </c>
+      <c r="K213" t="s">
         <v>2558</v>
       </c>
-      <c r="J213" t="s">
-        <v>34</v>
-      </c>
-      <c r="K213" t="s">
+      <c r="L213" t="s">
         <v>2559</v>
       </c>
-      <c r="L213" t="s">
+      <c r="M213" t="s">
+        <v>34</v>
+      </c>
+      <c r="N213" t="s">
+        <v>34</v>
+      </c>
+      <c r="O213" t="s">
+        <v>34</v>
+      </c>
+      <c r="P213" t="s">
         <v>2560</v>
       </c>
-      <c r="M213" t="s">
-        <v>34</v>
-      </c>
-      <c r="N213" t="s">
-        <v>34</v>
-      </c>
-      <c r="O213" t="s">
-        <v>34</v>
-      </c>
-      <c r="P213" t="s">
+      <c r="Q213" t="s">
         <v>2561</v>
-      </c>
-      <c r="Q213" t="s">
-        <v>2562</v>
       </c>
       <c r="R213" t="s">
         <v>195</v>
       </c>
       <c r="S213" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="T213" t="s">
         <v>34</v>
@@ -26030,58 +26027,58 @@
         <v>18</v>
       </c>
       <c r="B214" t="s">
+        <v>2562</v>
+      </c>
+      <c r="C214" t="s">
         <v>2563</v>
       </c>
-      <c r="C214" t="s">
+      <c r="D214" t="s">
         <v>2564</v>
       </c>
-      <c r="D214" t="s">
+      <c r="E214" t="s">
         <v>2565</v>
       </c>
-      <c r="E214" t="s">
+      <c r="F214" t="s">
         <v>2566</v>
       </c>
-      <c r="F214" t="s">
+      <c r="G214" t="s">
         <v>2567</v>
       </c>
-      <c r="G214" t="s">
+      <c r="H214" t="s">
         <v>2568</v>
       </c>
-      <c r="H214" t="s">
+      <c r="I214" t="s">
         <v>2569</v>
       </c>
-      <c r="I214" t="s">
+      <c r="J214" t="s">
+        <v>34</v>
+      </c>
+      <c r="K214" t="s">
+        <v>2564</v>
+      </c>
+      <c r="L214" t="s">
+        <v>2565</v>
+      </c>
+      <c r="M214" t="s">
+        <v>34</v>
+      </c>
+      <c r="N214" t="s">
+        <v>34</v>
+      </c>
+      <c r="O214" t="s">
+        <v>34</v>
+      </c>
+      <c r="P214" t="s">
         <v>2570</v>
       </c>
-      <c r="J214" t="s">
-        <v>34</v>
-      </c>
-      <c r="K214" t="s">
-        <v>2565</v>
-      </c>
-      <c r="L214" t="s">
-        <v>2566</v>
-      </c>
-      <c r="M214" t="s">
-        <v>34</v>
-      </c>
-      <c r="N214" t="s">
-        <v>34</v>
-      </c>
-      <c r="O214" t="s">
-        <v>34</v>
-      </c>
-      <c r="P214" t="s">
+      <c r="Q214" t="s">
         <v>2571</v>
-      </c>
-      <c r="Q214" t="s">
-        <v>2572</v>
       </c>
       <c r="R214" t="s">
         <v>39</v>
       </c>
       <c r="S214" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
       <c r="T214" t="s">
         <v>34</v>
@@ -26102,7 +26099,7 @@
         <v>34</v>
       </c>
       <c r="Z214" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
     </row>
     <row r="215">
@@ -26110,58 +26107,58 @@
         <v>18</v>
       </c>
       <c r="B215" t="s">
+        <v>2573</v>
+      </c>
+      <c r="C215" t="s">
         <v>2574</v>
       </c>
-      <c r="C215" t="s">
+      <c r="D215" t="s">
         <v>2575</v>
       </c>
-      <c r="D215" t="s">
+      <c r="E215" t="s">
         <v>2576</v>
       </c>
-      <c r="E215" t="s">
+      <c r="F215" t="s">
         <v>2577</v>
       </c>
-      <c r="F215" t="s">
+      <c r="G215" t="s">
+        <v>2557</v>
+      </c>
+      <c r="H215" t="s">
         <v>2578</v>
       </c>
-      <c r="G215" t="s">
-        <v>2558</v>
-      </c>
-      <c r="H215" t="s">
+      <c r="I215" t="s">
         <v>2579</v>
       </c>
-      <c r="I215" t="s">
+      <c r="J215" t="s">
+        <v>34</v>
+      </c>
+      <c r="K215" t="s">
         <v>2580</v>
       </c>
-      <c r="J215" t="s">
-        <v>34</v>
-      </c>
-      <c r="K215" t="s">
+      <c r="L215" t="s">
         <v>2581</v>
       </c>
-      <c r="L215" t="s">
+      <c r="M215" t="s">
         <v>2582</v>
       </c>
-      <c r="M215" t="s">
+      <c r="N215" t="s">
+        <v>34</v>
+      </c>
+      <c r="O215" t="s">
+        <v>34</v>
+      </c>
+      <c r="P215" t="s">
         <v>2583</v>
       </c>
-      <c r="N215" t="s">
-        <v>34</v>
-      </c>
-      <c r="O215" t="s">
-        <v>34</v>
-      </c>
-      <c r="P215" t="s">
+      <c r="Q215" t="s">
         <v>2584</v>
-      </c>
-      <c r="Q215" t="s">
-        <v>2585</v>
       </c>
       <c r="R215" t="s">
         <v>39</v>
       </c>
       <c r="S215" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="T215" t="s">
         <v>34</v>
@@ -26182,7 +26179,7 @@
         <v>34</v>
       </c>
       <c r="Z215" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="216">
@@ -26190,58 +26187,58 @@
         <v>18</v>
       </c>
       <c r="B216" t="s">
+        <v>2586</v>
+      </c>
+      <c r="C216" t="s">
         <v>2587</v>
       </c>
-      <c r="C216" t="s">
+      <c r="D216" t="s">
         <v>2588</v>
       </c>
-      <c r="D216" t="s">
+      <c r="E216" t="s">
         <v>2589</v>
       </c>
-      <c r="E216" t="s">
+      <c r="F216" t="s">
         <v>2590</v>
       </c>
-      <c r="F216" t="s">
+      <c r="G216" t="s">
+        <v>2521</v>
+      </c>
+      <c r="H216" t="s">
         <v>2591</v>
       </c>
-      <c r="G216" t="s">
-        <v>2522</v>
-      </c>
-      <c r="H216" t="s">
+      <c r="I216" t="s">
         <v>2592</v>
       </c>
-      <c r="I216" t="s">
+      <c r="J216" t="s">
+        <v>34</v>
+      </c>
+      <c r="K216" t="s">
         <v>2593</v>
       </c>
-      <c r="J216" t="s">
-        <v>34</v>
-      </c>
-      <c r="K216" t="s">
+      <c r="L216" t="s">
         <v>2594</v>
       </c>
-      <c r="L216" t="s">
+      <c r="M216" t="s">
+        <v>34</v>
+      </c>
+      <c r="N216" t="s">
+        <v>34</v>
+      </c>
+      <c r="O216" t="s">
+        <v>34</v>
+      </c>
+      <c r="P216" t="s">
+        <v>2450</v>
+      </c>
+      <c r="Q216" t="s">
         <v>2595</v>
-      </c>
-      <c r="M216" t="s">
-        <v>34</v>
-      </c>
-      <c r="N216" t="s">
-        <v>34</v>
-      </c>
-      <c r="O216" t="s">
-        <v>34</v>
-      </c>
-      <c r="P216" t="s">
-        <v>2451</v>
-      </c>
-      <c r="Q216" t="s">
-        <v>2596</v>
       </c>
       <c r="R216" t="s">
         <v>195</v>
       </c>
       <c r="S216" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="T216" t="s">
         <v>34</v>
@@ -26262,7 +26259,7 @@
         <v>34</v>
       </c>
       <c r="Z216" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
     </row>
     <row r="217">
@@ -26270,58 +26267,58 @@
         <v>18</v>
       </c>
       <c r="B217" t="s">
+        <v>2597</v>
+      </c>
+      <c r="C217" t="s">
         <v>2598</v>
       </c>
-      <c r="C217" t="s">
+      <c r="D217" t="s">
         <v>2599</v>
       </c>
-      <c r="D217" t="s">
+      <c r="E217" t="s">
         <v>2600</v>
       </c>
-      <c r="E217" t="s">
+      <c r="F217" t="s">
         <v>2601</v>
       </c>
-      <c r="F217" t="s">
+      <c r="G217" t="s">
+        <v>2579</v>
+      </c>
+      <c r="H217" t="s">
         <v>2602</v>
       </c>
-      <c r="G217" t="s">
-        <v>2580</v>
-      </c>
-      <c r="H217" t="s">
+      <c r="I217" t="s">
+        <v>2507</v>
+      </c>
+      <c r="J217" t="s">
+        <v>34</v>
+      </c>
+      <c r="K217" t="s">
         <v>2603</v>
       </c>
-      <c r="I217" t="s">
-        <v>2508</v>
-      </c>
-      <c r="J217" t="s">
-        <v>34</v>
-      </c>
-      <c r="K217" t="s">
+      <c r="L217" t="s">
         <v>2604</v>
       </c>
-      <c r="L217" t="s">
+      <c r="M217" t="s">
         <v>2605</v>
       </c>
-      <c r="M217" t="s">
+      <c r="N217" t="s">
+        <v>34</v>
+      </c>
+      <c r="O217" t="s">
+        <v>34</v>
+      </c>
+      <c r="P217" t="s">
         <v>2606</v>
       </c>
-      <c r="N217" t="s">
-        <v>34</v>
-      </c>
-      <c r="O217" t="s">
-        <v>34</v>
-      </c>
-      <c r="P217" t="s">
+      <c r="Q217" t="s">
         <v>2607</v>
-      </c>
-      <c r="Q217" t="s">
-        <v>2608</v>
       </c>
       <c r="R217" t="s">
         <v>52</v>
       </c>
       <c r="S217" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
       <c r="T217" t="s">
         <v>34</v>
@@ -26342,7 +26339,7 @@
         <v>34</v>
       </c>
       <c r="Z217" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
     </row>
     <row r="218">
@@ -26350,58 +26347,58 @@
         <v>18</v>
       </c>
       <c r="B218" t="s">
+        <v>2609</v>
+      </c>
+      <c r="C218" t="s">
         <v>2610</v>
       </c>
-      <c r="C218" t="s">
+      <c r="D218" t="s">
         <v>2611</v>
       </c>
-      <c r="D218" t="s">
+      <c r="E218" t="s">
         <v>2612</v>
       </c>
-      <c r="E218" t="s">
+      <c r="F218" t="s">
         <v>2613</v>
       </c>
-      <c r="F218" t="s">
+      <c r="G218" t="s">
+        <v>2592</v>
+      </c>
+      <c r="H218" t="s">
         <v>2614</v>
       </c>
-      <c r="G218" t="s">
-        <v>2593</v>
-      </c>
-      <c r="H218" t="s">
+      <c r="I218" t="s">
         <v>2615</v>
       </c>
-      <c r="I218" t="s">
+      <c r="J218" t="s">
+        <v>34</v>
+      </c>
+      <c r="K218" t="s">
         <v>2616</v>
       </c>
-      <c r="J218" t="s">
-        <v>34</v>
-      </c>
-      <c r="K218" t="s">
+      <c r="L218" t="s">
         <v>2617</v>
       </c>
-      <c r="L218" t="s">
+      <c r="M218" t="s">
+        <v>34</v>
+      </c>
+      <c r="N218" t="s">
+        <v>34</v>
+      </c>
+      <c r="O218" t="s">
+        <v>34</v>
+      </c>
+      <c r="P218" t="s">
         <v>2618</v>
       </c>
-      <c r="M218" t="s">
-        <v>34</v>
-      </c>
-      <c r="N218" t="s">
-        <v>34</v>
-      </c>
-      <c r="O218" t="s">
-        <v>34</v>
-      </c>
-      <c r="P218" t="s">
+      <c r="Q218" t="s">
         <v>2619</v>
-      </c>
-      <c r="Q218" t="s">
-        <v>2620</v>
       </c>
       <c r="R218" t="s">
         <v>77</v>
       </c>
       <c r="S218" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
       <c r="T218" t="s">
         <v>34</v>
@@ -26422,7 +26419,7 @@
         <v>34</v>
       </c>
       <c r="Z218" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="219">
@@ -26430,58 +26427,58 @@
         <v>18</v>
       </c>
       <c r="B219" t="s">
+        <v>2621</v>
+      </c>
+      <c r="C219" t="s">
         <v>2622</v>
       </c>
-      <c r="C219" t="s">
+      <c r="D219" t="s">
         <v>2623</v>
       </c>
-      <c r="D219" t="s">
+      <c r="E219" t="s">
         <v>2624</v>
       </c>
-      <c r="E219" t="s">
+      <c r="F219" t="s">
         <v>2625</v>
       </c>
-      <c r="F219" t="s">
+      <c r="G219" t="s">
         <v>2626</v>
       </c>
-      <c r="G219" t="s">
+      <c r="H219" t="s">
         <v>2627</v>
       </c>
-      <c r="H219" t="s">
+      <c r="I219" t="s">
         <v>2628</v>
       </c>
-      <c r="I219" t="s">
+      <c r="J219" t="s">
+        <v>34</v>
+      </c>
+      <c r="K219" t="s">
         <v>2629</v>
       </c>
-      <c r="J219" t="s">
-        <v>34</v>
-      </c>
-      <c r="K219" t="s">
+      <c r="L219" t="s">
         <v>2630</v>
       </c>
-      <c r="L219" t="s">
+      <c r="M219" t="s">
+        <v>34</v>
+      </c>
+      <c r="N219" t="s">
+        <v>34</v>
+      </c>
+      <c r="O219" t="s">
+        <v>34</v>
+      </c>
+      <c r="P219" t="s">
         <v>2631</v>
       </c>
-      <c r="M219" t="s">
-        <v>34</v>
-      </c>
-      <c r="N219" t="s">
-        <v>34</v>
-      </c>
-      <c r="O219" t="s">
-        <v>34</v>
-      </c>
-      <c r="P219" t="s">
+      <c r="Q219" t="s">
         <v>2632</v>
-      </c>
-      <c r="Q219" t="s">
-        <v>2633</v>
       </c>
       <c r="R219" t="s">
         <v>39</v>
       </c>
       <c r="S219" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
       <c r="T219" t="s">
         <v>34</v>
@@ -26502,7 +26499,7 @@
         <v>34</v>
       </c>
       <c r="Z219" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
     </row>
     <row r="220">
@@ -26510,58 +26507,58 @@
         <v>18</v>
       </c>
       <c r="B220" t="s">
+        <v>2634</v>
+      </c>
+      <c r="C220" t="s">
         <v>2635</v>
       </c>
-      <c r="C220" t="s">
+      <c r="D220" t="s">
         <v>2636</v>
       </c>
-      <c r="D220" t="s">
+      <c r="E220" t="s">
         <v>2637</v>
       </c>
-      <c r="E220" t="s">
+      <c r="F220" t="s">
         <v>2638</v>
       </c>
-      <c r="F220" t="s">
+      <c r="G220" t="s">
         <v>2639</v>
       </c>
-      <c r="G220" t="s">
+      <c r="H220" t="s">
         <v>2640</v>
       </c>
-      <c r="H220" t="s">
+      <c r="I220" t="s">
+        <v>2639</v>
+      </c>
+      <c r="J220" t="s">
+        <v>34</v>
+      </c>
+      <c r="K220" t="s">
+        <v>2636</v>
+      </c>
+      <c r="L220" t="s">
+        <v>2637</v>
+      </c>
+      <c r="M220" t="s">
+        <v>34</v>
+      </c>
+      <c r="N220" t="s">
+        <v>34</v>
+      </c>
+      <c r="O220" t="s">
+        <v>34</v>
+      </c>
+      <c r="P220" t="s">
         <v>2641</v>
       </c>
-      <c r="I220" t="s">
-        <v>2640</v>
-      </c>
-      <c r="J220" t="s">
-        <v>34</v>
-      </c>
-      <c r="K220" t="s">
-        <v>2637</v>
-      </c>
-      <c r="L220" t="s">
-        <v>2638</v>
-      </c>
-      <c r="M220" t="s">
-        <v>34</v>
-      </c>
-      <c r="N220" t="s">
-        <v>34</v>
-      </c>
-      <c r="O220" t="s">
-        <v>34</v>
-      </c>
-      <c r="P220" t="s">
+      <c r="Q220" t="s">
         <v>2642</v>
-      </c>
-      <c r="Q220" t="s">
-        <v>2643</v>
       </c>
       <c r="R220" t="s">
         <v>195</v>
       </c>
       <c r="S220" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
       <c r="T220" t="s">
         <v>34</v>
@@ -26582,7 +26579,7 @@
         <v>34</v>
       </c>
       <c r="Z220" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="221">
@@ -26590,58 +26587,58 @@
         <v>18</v>
       </c>
       <c r="B221" t="s">
+        <v>2644</v>
+      </c>
+      <c r="C221" t="s">
         <v>2645</v>
       </c>
-      <c r="C221" t="s">
+      <c r="D221" t="s">
         <v>2646</v>
       </c>
-      <c r="D221" t="s">
+      <c r="E221" t="s">
         <v>2647</v>
       </c>
-      <c r="E221" t="s">
+      <c r="F221" t="s">
         <v>2648</v>
       </c>
-      <c r="F221" t="s">
+      <c r="G221" t="s">
         <v>2649</v>
       </c>
-      <c r="G221" t="s">
+      <c r="H221" t="s">
         <v>2650</v>
       </c>
-      <c r="H221" t="s">
+      <c r="I221" t="s">
+        <v>2649</v>
+      </c>
+      <c r="J221" t="s">
+        <v>34</v>
+      </c>
+      <c r="K221" t="s">
         <v>2651</v>
       </c>
-      <c r="I221" t="s">
-        <v>2650</v>
-      </c>
-      <c r="J221" t="s">
-        <v>34</v>
-      </c>
-      <c r="K221" t="s">
+      <c r="L221" t="s">
         <v>2652</v>
       </c>
-      <c r="L221" t="s">
+      <c r="M221" t="s">
+        <v>34</v>
+      </c>
+      <c r="N221" t="s">
+        <v>34</v>
+      </c>
+      <c r="O221" t="s">
+        <v>34</v>
+      </c>
+      <c r="P221" t="s">
         <v>2653</v>
       </c>
-      <c r="M221" t="s">
-        <v>34</v>
-      </c>
-      <c r="N221" t="s">
-        <v>34</v>
-      </c>
-      <c r="O221" t="s">
-        <v>34</v>
-      </c>
-      <c r="P221" t="s">
+      <c r="Q221" t="s">
         <v>2654</v>
-      </c>
-      <c r="Q221" t="s">
-        <v>2655</v>
       </c>
       <c r="R221" t="s">
         <v>77</v>
       </c>
       <c r="S221" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="T221" t="s">
         <v>34</v>
@@ -26662,7 +26659,7 @@
         <v>34</v>
       </c>
       <c r="Z221" t="s">
-        <v>2656</v>
+        <v>2655</v>
       </c>
     </row>
     <row r="222">
@@ -26670,58 +26667,58 @@
         <v>18</v>
       </c>
       <c r="B222" t="s">
+        <v>2656</v>
+      </c>
+      <c r="C222" t="s">
         <v>2657</v>
       </c>
-      <c r="C222" t="s">
+      <c r="D222" t="s">
         <v>2658</v>
       </c>
-      <c r="D222" t="s">
+      <c r="E222" t="s">
         <v>2659</v>
       </c>
-      <c r="E222" t="s">
+      <c r="F222" t="s">
         <v>2660</v>
       </c>
-      <c r="F222" t="s">
+      <c r="G222" t="s">
         <v>2661</v>
       </c>
-      <c r="G222" t="s">
+      <c r="H222" t="s">
         <v>2662</v>
       </c>
-      <c r="H222" t="s">
+      <c r="I222" t="s">
+        <v>2661</v>
+      </c>
+      <c r="J222" t="s">
+        <v>34</v>
+      </c>
+      <c r="K222" t="s">
         <v>2663</v>
       </c>
-      <c r="I222" t="s">
-        <v>2662</v>
-      </c>
-      <c r="J222" t="s">
-        <v>34</v>
-      </c>
-      <c r="K222" t="s">
+      <c r="L222" t="s">
         <v>2664</v>
       </c>
-      <c r="L222" t="s">
+      <c r="M222" t="s">
+        <v>34</v>
+      </c>
+      <c r="N222" t="s">
+        <v>34</v>
+      </c>
+      <c r="O222" t="s">
+        <v>34</v>
+      </c>
+      <c r="P222" t="s">
         <v>2665</v>
       </c>
-      <c r="M222" t="s">
-        <v>34</v>
-      </c>
-      <c r="N222" t="s">
-        <v>34</v>
-      </c>
-      <c r="O222" t="s">
-        <v>34</v>
-      </c>
-      <c r="P222" t="s">
+      <c r="Q222" t="s">
         <v>2666</v>
-      </c>
-      <c r="Q222" t="s">
-        <v>2667</v>
       </c>
       <c r="R222" t="s">
         <v>77</v>
       </c>
       <c r="S222" t="s">
-        <v>2659</v>
+        <v>2658</v>
       </c>
       <c r="T222" t="s">
         <v>34</v>
@@ -26742,7 +26739,7 @@
         <v>34</v>
       </c>
       <c r="Z222" t="s">
-        <v>2668</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="223">
@@ -26750,58 +26747,58 @@
         <v>18</v>
       </c>
       <c r="B223" t="s">
+        <v>2668</v>
+      </c>
+      <c r="C223" t="s">
         <v>2669</v>
       </c>
-      <c r="C223" t="s">
+      <c r="D223" t="s">
         <v>2670</v>
       </c>
-      <c r="D223" t="s">
+      <c r="E223" t="s">
         <v>2671</v>
       </c>
-      <c r="E223" t="s">
+      <c r="F223" t="s">
         <v>2672</v>
       </c>
-      <c r="F223" t="s">
+      <c r="G223" t="s">
         <v>2673</v>
       </c>
-      <c r="G223" t="s">
+      <c r="H223" t="s">
         <v>2674</v>
       </c>
-      <c r="H223" t="s">
+      <c r="I223" t="s">
         <v>2675</v>
       </c>
-      <c r="I223" t="s">
+      <c r="J223" t="s">
+        <v>34</v>
+      </c>
+      <c r="K223" t="s">
+        <v>2670</v>
+      </c>
+      <c r="L223" t="s">
+        <v>2671</v>
+      </c>
+      <c r="M223" t="s">
+        <v>34</v>
+      </c>
+      <c r="N223" t="s">
+        <v>34</v>
+      </c>
+      <c r="O223" t="s">
+        <v>34</v>
+      </c>
+      <c r="P223" t="s">
         <v>2676</v>
       </c>
-      <c r="J223" t="s">
-        <v>34</v>
-      </c>
-      <c r="K223" t="s">
-        <v>2671</v>
-      </c>
-      <c r="L223" t="s">
-        <v>2672</v>
-      </c>
-      <c r="M223" t="s">
-        <v>34</v>
-      </c>
-      <c r="N223" t="s">
-        <v>34</v>
-      </c>
-      <c r="O223" t="s">
-        <v>34</v>
-      </c>
-      <c r="P223" t="s">
+      <c r="Q223" t="s">
         <v>2677</v>
-      </c>
-      <c r="Q223" t="s">
-        <v>2678</v>
       </c>
       <c r="R223" t="s">
         <v>98</v>
       </c>
       <c r="S223" t="s">
-        <v>2671</v>
+        <v>2670</v>
       </c>
       <c r="T223" t="s">
         <v>34</v>
@@ -26822,7 +26819,7 @@
         <v>34</v>
       </c>
       <c r="Z223" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
     </row>
     <row r="224">
@@ -26830,58 +26827,58 @@
         <v>18</v>
       </c>
       <c r="B224" t="s">
+        <v>2679</v>
+      </c>
+      <c r="C224" t="s">
         <v>2680</v>
       </c>
-      <c r="C224" t="s">
+      <c r="D224" t="s">
         <v>2681</v>
       </c>
-      <c r="D224" t="s">
+      <c r="E224" t="s">
         <v>2682</v>
       </c>
-      <c r="E224" t="s">
+      <c r="F224" t="s">
         <v>2683</v>
       </c>
-      <c r="F224" t="s">
+      <c r="G224" t="s">
         <v>2684</v>
       </c>
-      <c r="G224" t="s">
+      <c r="H224" t="s">
         <v>2685</v>
       </c>
-      <c r="H224" t="s">
+      <c r="I224" t="s">
         <v>2686</v>
       </c>
-      <c r="I224" t="s">
+      <c r="J224" t="s">
+        <v>34</v>
+      </c>
+      <c r="K224" t="s">
+        <v>34</v>
+      </c>
+      <c r="L224" t="s">
+        <v>34</v>
+      </c>
+      <c r="M224" t="s">
+        <v>34</v>
+      </c>
+      <c r="N224" t="s">
+        <v>34</v>
+      </c>
+      <c r="O224" t="s">
+        <v>34</v>
+      </c>
+      <c r="P224" t="s">
         <v>2687</v>
       </c>
-      <c r="J224" t="s">
-        <v>34</v>
-      </c>
-      <c r="K224" t="s">
-        <v>34</v>
-      </c>
-      <c r="L224" t="s">
-        <v>34</v>
-      </c>
-      <c r="M224" t="s">
-        <v>34</v>
-      </c>
-      <c r="N224" t="s">
-        <v>34</v>
-      </c>
-      <c r="O224" t="s">
-        <v>34</v>
-      </c>
-      <c r="P224" t="s">
+      <c r="Q224" t="s">
         <v>2688</v>
-      </c>
-      <c r="Q224" t="s">
-        <v>2689</v>
       </c>
       <c r="R224" t="s">
         <v>98</v>
       </c>
       <c r="S224" t="s">
-        <v>2682</v>
+        <v>2681</v>
       </c>
       <c r="T224" t="s">
         <v>34</v>
@@ -26910,58 +26907,58 @@
         <v>18</v>
       </c>
       <c r="B225" t="s">
+        <v>2689</v>
+      </c>
+      <c r="C225" t="s">
         <v>2690</v>
       </c>
-      <c r="C225" t="s">
+      <c r="D225" t="s">
         <v>2691</v>
       </c>
-      <c r="D225" t="s">
+      <c r="E225" t="s">
         <v>2692</v>
       </c>
-      <c r="E225" t="s">
+      <c r="F225" t="s">
         <v>2693</v>
       </c>
-      <c r="F225" t="s">
+      <c r="G225" t="s">
         <v>2694</v>
       </c>
-      <c r="G225" t="s">
+      <c r="H225" t="s">
         <v>2695</v>
       </c>
-      <c r="H225" t="s">
+      <c r="I225" t="s">
+        <v>2694</v>
+      </c>
+      <c r="J225" t="s">
+        <v>34</v>
+      </c>
+      <c r="K225" t="s">
         <v>2696</v>
       </c>
-      <c r="I225" t="s">
-        <v>2695</v>
-      </c>
-      <c r="J225" t="s">
-        <v>34</v>
-      </c>
-      <c r="K225" t="s">
+      <c r="L225" t="s">
         <v>2697</v>
       </c>
-      <c r="L225" t="s">
+      <c r="M225" t="s">
+        <v>34</v>
+      </c>
+      <c r="N225" t="s">
+        <v>34</v>
+      </c>
+      <c r="O225" t="s">
+        <v>34</v>
+      </c>
+      <c r="P225" t="s">
         <v>2698</v>
       </c>
-      <c r="M225" t="s">
-        <v>34</v>
-      </c>
-      <c r="N225" t="s">
-        <v>34</v>
-      </c>
-      <c r="O225" t="s">
-        <v>34</v>
-      </c>
-      <c r="P225" t="s">
+      <c r="Q225" t="s">
         <v>2699</v>
-      </c>
-      <c r="Q225" t="s">
-        <v>2700</v>
       </c>
       <c r="R225" t="s">
         <v>157</v>
       </c>
       <c r="S225" t="s">
-        <v>2692</v>
+        <v>2691</v>
       </c>
       <c r="T225" t="s">
         <v>34</v>
@@ -26982,7 +26979,7 @@
         <v>34</v>
       </c>
       <c r="Z225" t="s">
-        <v>2701</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="226">
@@ -26990,58 +26987,58 @@
         <v>18</v>
       </c>
       <c r="B226" t="s">
+        <v>2701</v>
+      </c>
+      <c r="C226" t="s">
         <v>2702</v>
       </c>
-      <c r="C226" t="s">
+      <c r="D226" t="s">
         <v>2703</v>
       </c>
-      <c r="D226" t="s">
+      <c r="E226" t="s">
         <v>2704</v>
       </c>
-      <c r="E226" t="s">
+      <c r="F226" t="s">
         <v>2705</v>
       </c>
-      <c r="F226" t="s">
+      <c r="G226" t="s">
         <v>2706</v>
       </c>
-      <c r="G226" t="s">
+      <c r="H226" t="s">
         <v>2707</v>
       </c>
-      <c r="H226" t="s">
+      <c r="I226" t="s">
+        <v>2706</v>
+      </c>
+      <c r="J226" t="s">
+        <v>34</v>
+      </c>
+      <c r="K226" t="s">
         <v>2708</v>
       </c>
-      <c r="I226" t="s">
-        <v>2707</v>
-      </c>
-      <c r="J226" t="s">
-        <v>34</v>
-      </c>
-      <c r="K226" t="s">
+      <c r="L226" t="s">
         <v>2709</v>
       </c>
-      <c r="L226" t="s">
+      <c r="M226" t="s">
+        <v>2705</v>
+      </c>
+      <c r="N226" t="s">
+        <v>2706</v>
+      </c>
+      <c r="O226" t="s">
+        <v>34</v>
+      </c>
+      <c r="P226" t="s">
         <v>2710</v>
       </c>
-      <c r="M226" t="s">
-        <v>2706</v>
-      </c>
-      <c r="N226" t="s">
-        <v>2707</v>
-      </c>
-      <c r="O226" t="s">
-        <v>34</v>
-      </c>
-      <c r="P226" t="s">
+      <c r="Q226" t="s">
         <v>2711</v>
-      </c>
-      <c r="Q226" t="s">
-        <v>2712</v>
       </c>
       <c r="R226" t="s">
         <v>52</v>
       </c>
       <c r="S226" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
       <c r="T226" t="s">
         <v>34</v>
@@ -27062,7 +27059,7 @@
         <v>34</v>
       </c>
       <c r="Z226" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
     </row>
     <row r="227">
@@ -27070,58 +27067,58 @@
         <v>18</v>
       </c>
       <c r="B227" t="s">
+        <v>2713</v>
+      </c>
+      <c r="C227" t="s">
         <v>2714</v>
       </c>
-      <c r="C227" t="s">
+      <c r="D227" t="s">
         <v>2715</v>
       </c>
-      <c r="D227" t="s">
+      <c r="E227" t="s">
         <v>2716</v>
       </c>
-      <c r="E227" t="s">
+      <c r="F227" t="s">
         <v>2717</v>
       </c>
-      <c r="F227" t="s">
+      <c r="G227" t="s">
         <v>2718</v>
       </c>
-      <c r="G227" t="s">
+      <c r="H227" t="s">
         <v>2719</v>
       </c>
-      <c r="H227" t="s">
+      <c r="I227" t="s">
+        <v>2718</v>
+      </c>
+      <c r="J227" t="s">
+        <v>34</v>
+      </c>
+      <c r="K227" t="s">
         <v>2720</v>
       </c>
-      <c r="I227" t="s">
-        <v>2719</v>
-      </c>
-      <c r="J227" t="s">
-        <v>34</v>
-      </c>
-      <c r="K227" t="s">
+      <c r="L227" t="s">
         <v>2721</v>
       </c>
-      <c r="L227" t="s">
+      <c r="M227" t="s">
         <v>2722</v>
       </c>
-      <c r="M227" t="s">
+      <c r="N227" t="s">
+        <v>34</v>
+      </c>
+      <c r="O227" t="s">
+        <v>34</v>
+      </c>
+      <c r="P227" t="s">
         <v>2723</v>
       </c>
-      <c r="N227" t="s">
-        <v>34</v>
-      </c>
-      <c r="O227" t="s">
-        <v>34</v>
-      </c>
-      <c r="P227" t="s">
+      <c r="Q227" t="s">
         <v>2724</v>
-      </c>
-      <c r="Q227" t="s">
-        <v>2725</v>
       </c>
       <c r="R227" t="s">
         <v>39</v>
       </c>
       <c r="S227" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
       <c r="T227" t="s">
         <v>34</v>
@@ -27142,7 +27139,7 @@
         <v>34</v>
       </c>
       <c r="Z227" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
     </row>
     <row r="228">
@@ -27150,58 +27147,58 @@
         <v>18</v>
       </c>
       <c r="B228" t="s">
+        <v>2726</v>
+      </c>
+      <c r="C228" t="s">
         <v>2727</v>
       </c>
-      <c r="C228" t="s">
+      <c r="D228" t="s">
         <v>2728</v>
       </c>
-      <c r="D228" t="s">
+      <c r="E228" t="s">
         <v>2729</v>
       </c>
-      <c r="E228" t="s">
+      <c r="F228" t="s">
         <v>2730</v>
       </c>
-      <c r="F228" t="s">
+      <c r="G228" t="s">
         <v>2731</v>
       </c>
-      <c r="G228" t="s">
+      <c r="H228" t="s">
         <v>2732</v>
       </c>
-      <c r="H228" t="s">
+      <c r="I228" t="s">
         <v>2733</v>
       </c>
-      <c r="I228" t="s">
+      <c r="J228" t="s">
+        <v>34</v>
+      </c>
+      <c r="K228" t="s">
         <v>2734</v>
       </c>
-      <c r="J228" t="s">
-        <v>34</v>
-      </c>
-      <c r="K228" t="s">
+      <c r="L228" t="s">
         <v>2735</v>
       </c>
-      <c r="L228" t="s">
+      <c r="M228" t="s">
         <v>2736</v>
       </c>
-      <c r="M228" t="s">
+      <c r="N228" t="s">
+        <v>34</v>
+      </c>
+      <c r="O228" t="s">
+        <v>34</v>
+      </c>
+      <c r="P228" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q228" t="s">
         <v>2737</v>
-      </c>
-      <c r="N228" t="s">
-        <v>34</v>
-      </c>
-      <c r="O228" t="s">
-        <v>34</v>
-      </c>
-      <c r="P228" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q228" t="s">
-        <v>2738</v>
       </c>
       <c r="R228" t="s">
         <v>98</v>
       </c>
       <c r="S228" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
       <c r="T228" t="s">
         <v>34</v>
@@ -27222,7 +27219,7 @@
         <v>34</v>
       </c>
       <c r="Z228" t="s">
-        <v>2739</v>
+        <v>2738</v>
       </c>
     </row>
     <row r="229">
@@ -27230,58 +27227,58 @@
         <v>18</v>
       </c>
       <c r="B229" t="s">
+        <v>2739</v>
+      </c>
+      <c r="C229" t="s">
         <v>2740</v>
       </c>
-      <c r="C229" t="s">
+      <c r="D229" t="s">
         <v>2741</v>
       </c>
-      <c r="D229" t="s">
+      <c r="E229" t="s">
         <v>2742</v>
       </c>
-      <c r="E229" t="s">
+      <c r="F229" t="s">
         <v>2743</v>
       </c>
-      <c r="F229" t="s">
+      <c r="G229" t="s">
         <v>2744</v>
       </c>
-      <c r="G229" t="s">
+      <c r="H229" t="s">
         <v>2745</v>
       </c>
-      <c r="H229" t="s">
+      <c r="I229" t="s">
+        <v>2744</v>
+      </c>
+      <c r="J229" t="s">
+        <v>34</v>
+      </c>
+      <c r="K229" t="s">
         <v>2746</v>
       </c>
-      <c r="I229" t="s">
-        <v>2745</v>
-      </c>
-      <c r="J229" t="s">
-        <v>34</v>
-      </c>
-      <c r="K229" t="s">
+      <c r="L229" t="s">
+        <v>2742</v>
+      </c>
+      <c r="M229" t="s">
         <v>2747</v>
       </c>
-      <c r="L229" t="s">
-        <v>2743</v>
-      </c>
-      <c r="M229" t="s">
+      <c r="N229" t="s">
+        <v>34</v>
+      </c>
+      <c r="O229" t="s">
+        <v>34</v>
+      </c>
+      <c r="P229" t="s">
         <v>2748</v>
       </c>
-      <c r="N229" t="s">
-        <v>34</v>
-      </c>
-      <c r="O229" t="s">
-        <v>34</v>
-      </c>
-      <c r="P229" t="s">
+      <c r="Q229" t="s">
         <v>2749</v>
-      </c>
-      <c r="Q229" t="s">
-        <v>2750</v>
       </c>
       <c r="R229" t="s">
         <v>52</v>
       </c>
       <c r="S229" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
       <c r="T229" t="s">
         <v>34</v>
@@ -27302,7 +27299,7 @@
         <v>34</v>
       </c>
       <c r="Z229" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="230">
@@ -27310,58 +27307,58 @@
         <v>18</v>
       </c>
       <c r="B230" t="s">
+        <v>2751</v>
+      </c>
+      <c r="C230" t="s">
         <v>2752</v>
       </c>
-      <c r="C230" t="s">
+      <c r="D230" t="s">
         <v>2753</v>
       </c>
-      <c r="D230" t="s">
+      <c r="E230" t="s">
         <v>2754</v>
       </c>
-      <c r="E230" t="s">
+      <c r="F230" t="s">
         <v>2755</v>
       </c>
-      <c r="F230" t="s">
+      <c r="G230" t="s">
         <v>2756</v>
       </c>
-      <c r="G230" t="s">
+      <c r="H230" t="s">
         <v>2757</v>
       </c>
-      <c r="H230" t="s">
+      <c r="I230" t="s">
+        <v>2756</v>
+      </c>
+      <c r="J230" t="s">
+        <v>34</v>
+      </c>
+      <c r="K230" t="s">
         <v>2758</v>
       </c>
-      <c r="I230" t="s">
-        <v>2757</v>
-      </c>
-      <c r="J230" t="s">
-        <v>34</v>
-      </c>
-      <c r="K230" t="s">
+      <c r="L230" t="s">
         <v>2759</v>
       </c>
-      <c r="L230" t="s">
+      <c r="M230" t="s">
+        <v>34</v>
+      </c>
+      <c r="N230" t="s">
+        <v>34</v>
+      </c>
+      <c r="O230" t="s">
+        <v>34</v>
+      </c>
+      <c r="P230" t="s">
         <v>2760</v>
       </c>
-      <c r="M230" t="s">
-        <v>34</v>
-      </c>
-      <c r="N230" t="s">
-        <v>34</v>
-      </c>
-      <c r="O230" t="s">
-        <v>34</v>
-      </c>
-      <c r="P230" t="s">
+      <c r="Q230" t="s">
         <v>2761</v>
-      </c>
-      <c r="Q230" t="s">
-        <v>2762</v>
       </c>
       <c r="R230" t="s">
         <v>157</v>
       </c>
       <c r="S230" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="T230" t="s">
         <v>34</v>
@@ -27382,7 +27379,7 @@
         <v>34</v>
       </c>
       <c r="Z230" t="s">
-        <v>2763</v>
+        <v>2762</v>
       </c>
     </row>
     <row r="231">
@@ -27390,58 +27387,58 @@
         <v>18</v>
       </c>
       <c r="B231" t="s">
+        <v>2763</v>
+      </c>
+      <c r="C231" t="s">
         <v>2764</v>
       </c>
-      <c r="C231" t="s">
+      <c r="D231" t="s">
         <v>2765</v>
       </c>
-      <c r="D231" t="s">
+      <c r="E231" t="s">
         <v>2766</v>
       </c>
-      <c r="E231" t="s">
+      <c r="F231" t="s">
         <v>2767</v>
       </c>
-      <c r="F231" t="s">
+      <c r="G231" t="s">
         <v>2768</v>
       </c>
-      <c r="G231" t="s">
+      <c r="H231" t="s">
         <v>2769</v>
       </c>
-      <c r="H231" t="s">
+      <c r="I231" t="s">
         <v>2770</v>
       </c>
-      <c r="I231" t="s">
+      <c r="J231" t="s">
+        <v>34</v>
+      </c>
+      <c r="K231" t="s">
         <v>2771</v>
       </c>
-      <c r="J231" t="s">
-        <v>34</v>
-      </c>
-      <c r="K231" t="s">
+      <c r="L231" t="s">
+        <v>34</v>
+      </c>
+      <c r="M231" t="s">
+        <v>34</v>
+      </c>
+      <c r="N231" t="s">
+        <v>34</v>
+      </c>
+      <c r="O231" t="s">
+        <v>34</v>
+      </c>
+      <c r="P231" t="s">
         <v>2772</v>
       </c>
-      <c r="L231" t="s">
-        <v>34</v>
-      </c>
-      <c r="M231" t="s">
-        <v>34</v>
-      </c>
-      <c r="N231" t="s">
-        <v>34</v>
-      </c>
-      <c r="O231" t="s">
-        <v>34</v>
-      </c>
-      <c r="P231" t="s">
+      <c r="Q231" t="s">
         <v>2773</v>
-      </c>
-      <c r="Q231" t="s">
-        <v>2774</v>
       </c>
       <c r="R231" t="s">
         <v>52</v>
       </c>
       <c r="S231" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
       <c r="T231" t="s">
         <v>34</v>
@@ -27470,34 +27467,34 @@
         <v>18</v>
       </c>
       <c r="B232" t="s">
+        <v>2774</v>
+      </c>
+      <c r="C232" t="s">
         <v>2775</v>
       </c>
-      <c r="C232" t="s">
+      <c r="D232" t="s">
         <v>2776</v>
       </c>
-      <c r="D232" t="s">
+      <c r="E232" t="s">
         <v>2777</v>
       </c>
-      <c r="E232" t="s">
+      <c r="F232" t="s">
         <v>2778</v>
       </c>
-      <c r="F232" t="s">
+      <c r="G232" t="s">
+        <v>2770</v>
+      </c>
+      <c r="H232" t="s">
         <v>2779</v>
       </c>
-      <c r="G232" t="s">
-        <v>2771</v>
-      </c>
-      <c r="H232" t="s">
+      <c r="I232" t="s">
         <v>2780</v>
       </c>
-      <c r="I232" t="s">
+      <c r="J232" t="s">
+        <v>34</v>
+      </c>
+      <c r="K232" t="s">
         <v>2781</v>
-      </c>
-      <c r="J232" t="s">
-        <v>34</v>
-      </c>
-      <c r="K232" t="s">
-        <v>2782</v>
       </c>
       <c r="L232" t="s">
         <v>34</v>
@@ -27515,13 +27512,13 @@
         <v>1274</v>
       </c>
       <c r="Q232" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
       <c r="R232" t="s">
         <v>52</v>
       </c>
       <c r="S232" t="s">
-        <v>2777</v>
+        <v>2776</v>
       </c>
       <c r="T232" t="s">
         <v>34</v>
@@ -27550,58 +27547,58 @@
         <v>18</v>
       </c>
       <c r="B233" t="s">
+        <v>2783</v>
+      </c>
+      <c r="C233" t="s">
         <v>2784</v>
       </c>
-      <c r="C233" t="s">
+      <c r="D233" t="s">
         <v>2785</v>
       </c>
-      <c r="D233" t="s">
+      <c r="E233" t="s">
         <v>2786</v>
       </c>
-      <c r="E233" t="s">
+      <c r="F233" t="s">
         <v>2787</v>
       </c>
-      <c r="F233" t="s">
+      <c r="G233" t="s">
         <v>2788</v>
       </c>
-      <c r="G233" t="s">
+      <c r="H233" t="s">
         <v>2789</v>
       </c>
-      <c r="H233" t="s">
+      <c r="I233" t="s">
         <v>2790</v>
       </c>
-      <c r="I233" t="s">
+      <c r="J233" t="s">
+        <v>34</v>
+      </c>
+      <c r="K233" t="s">
         <v>2791</v>
       </c>
-      <c r="J233" t="s">
-        <v>34</v>
-      </c>
-      <c r="K233" t="s">
+      <c r="L233" t="s">
         <v>2792</v>
       </c>
-      <c r="L233" t="s">
+      <c r="M233" t="s">
+        <v>34</v>
+      </c>
+      <c r="N233" t="s">
+        <v>34</v>
+      </c>
+      <c r="O233" t="s">
+        <v>34</v>
+      </c>
+      <c r="P233" t="s">
         <v>2793</v>
       </c>
-      <c r="M233" t="s">
-        <v>34</v>
-      </c>
-      <c r="N233" t="s">
-        <v>34</v>
-      </c>
-      <c r="O233" t="s">
-        <v>34</v>
-      </c>
-      <c r="P233" t="s">
+      <c r="Q233" t="s">
         <v>2794</v>
-      </c>
-      <c r="Q233" t="s">
-        <v>2795</v>
       </c>
       <c r="R233" t="s">
         <v>39</v>
       </c>
       <c r="S233" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
       <c r="T233" t="s">
         <v>34</v>
@@ -27622,7 +27619,7 @@
         <v>34</v>
       </c>
       <c r="Z233" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
     </row>
     <row r="234">
@@ -27630,58 +27627,58 @@
         <v>18</v>
       </c>
       <c r="B234" t="s">
+        <v>2796</v>
+      </c>
+      <c r="C234" t="s">
         <v>2797</v>
       </c>
-      <c r="C234" t="s">
+      <c r="D234" t="s">
         <v>2798</v>
       </c>
-      <c r="D234" t="s">
+      <c r="E234" t="s">
         <v>2799</v>
       </c>
-      <c r="E234" t="s">
+      <c r="F234" t="s">
         <v>2800</v>
       </c>
-      <c r="F234" t="s">
+      <c r="G234" t="s">
         <v>2801</v>
       </c>
-      <c r="G234" t="s">
+      <c r="H234" t="s">
         <v>2802</v>
       </c>
-      <c r="H234" t="s">
+      <c r="I234" t="s">
         <v>2803</v>
       </c>
-      <c r="I234" t="s">
+      <c r="J234" t="s">
+        <v>34</v>
+      </c>
+      <c r="K234" t="s">
         <v>2804</v>
       </c>
-      <c r="J234" t="s">
-        <v>34</v>
-      </c>
-      <c r="K234" t="s">
+      <c r="L234" t="s">
         <v>2805</v>
       </c>
-      <c r="L234" t="s">
+      <c r="M234" t="s">
+        <v>34</v>
+      </c>
+      <c r="N234" t="s">
+        <v>34</v>
+      </c>
+      <c r="O234" t="s">
+        <v>34</v>
+      </c>
+      <c r="P234" t="s">
         <v>2806</v>
       </c>
-      <c r="M234" t="s">
-        <v>34</v>
-      </c>
-      <c r="N234" t="s">
-        <v>34</v>
-      </c>
-      <c r="O234" t="s">
-        <v>34</v>
-      </c>
-      <c r="P234" t="s">
+      <c r="Q234" t="s">
         <v>2807</v>
-      </c>
-      <c r="Q234" t="s">
-        <v>2808</v>
       </c>
       <c r="R234" t="s">
         <v>195</v>
       </c>
       <c r="S234" t="s">
-        <v>2799</v>
+        <v>2798</v>
       </c>
       <c r="T234" t="s">
         <v>34</v>
@@ -27702,7 +27699,7 @@
         <v>34</v>
       </c>
       <c r="Z234" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
     </row>
     <row r="235">
@@ -27710,58 +27707,58 @@
         <v>18</v>
       </c>
       <c r="B235" t="s">
+        <v>2809</v>
+      </c>
+      <c r="C235" t="s">
         <v>2810</v>
       </c>
-      <c r="C235" t="s">
+      <c r="D235" t="s">
         <v>2811</v>
       </c>
-      <c r="D235" t="s">
+      <c r="E235" t="s">
         <v>2812</v>
       </c>
-      <c r="E235" t="s">
+      <c r="F235" t="s">
         <v>2813</v>
       </c>
-      <c r="F235" t="s">
+      <c r="G235" t="s">
         <v>2814</v>
       </c>
-      <c r="G235" t="s">
+      <c r="H235" t="s">
         <v>2815</v>
       </c>
-      <c r="H235" t="s">
+      <c r="I235" t="s">
+        <v>2814</v>
+      </c>
+      <c r="J235" t="s">
+        <v>34</v>
+      </c>
+      <c r="K235" t="s">
         <v>2816</v>
       </c>
-      <c r="I235" t="s">
-        <v>2815</v>
-      </c>
-      <c r="J235" t="s">
-        <v>34</v>
-      </c>
-      <c r="K235" t="s">
+      <c r="L235" t="s">
+        <v>34</v>
+      </c>
+      <c r="M235" t="s">
+        <v>34</v>
+      </c>
+      <c r="N235" t="s">
+        <v>34</v>
+      </c>
+      <c r="O235" t="s">
+        <v>34</v>
+      </c>
+      <c r="P235" t="s">
         <v>2817</v>
       </c>
-      <c r="L235" t="s">
-        <v>34</v>
-      </c>
-      <c r="M235" t="s">
-        <v>34</v>
-      </c>
-      <c r="N235" t="s">
-        <v>34</v>
-      </c>
-      <c r="O235" t="s">
-        <v>34</v>
-      </c>
-      <c r="P235" t="s">
+      <c r="Q235" t="s">
         <v>2818</v>
-      </c>
-      <c r="Q235" t="s">
-        <v>2819</v>
       </c>
       <c r="R235" t="s">
         <v>195</v>
       </c>
       <c r="S235" t="s">
-        <v>2812</v>
+        <v>2811</v>
       </c>
       <c r="T235" t="s">
         <v>34</v>
@@ -27790,58 +27787,58 @@
         <v>18</v>
       </c>
       <c r="B236" t="s">
+        <v>2819</v>
+      </c>
+      <c r="C236" t="s">
         <v>2820</v>
       </c>
-      <c r="C236" t="s">
+      <c r="D236" t="s">
         <v>2821</v>
       </c>
-      <c r="D236" t="s">
+      <c r="E236" t="s">
         <v>2822</v>
       </c>
-      <c r="E236" t="s">
+      <c r="F236" t="s">
         <v>2823</v>
       </c>
-      <c r="F236" t="s">
+      <c r="G236" t="s">
         <v>2824</v>
       </c>
-      <c r="G236" t="s">
+      <c r="H236" t="s">
         <v>2825</v>
       </c>
-      <c r="H236" t="s">
+      <c r="I236" t="s">
+        <v>2824</v>
+      </c>
+      <c r="J236" t="s">
+        <v>34</v>
+      </c>
+      <c r="K236" t="s">
         <v>2826</v>
       </c>
-      <c r="I236" t="s">
-        <v>2825</v>
-      </c>
-      <c r="J236" t="s">
-        <v>34</v>
-      </c>
-      <c r="K236" t="s">
+      <c r="L236" t="s">
         <v>2827</v>
       </c>
-      <c r="L236" t="s">
+      <c r="M236" t="s">
+        <v>34</v>
+      </c>
+      <c r="N236" t="s">
+        <v>34</v>
+      </c>
+      <c r="O236" t="s">
+        <v>34</v>
+      </c>
+      <c r="P236" t="s">
         <v>2828</v>
       </c>
-      <c r="M236" t="s">
-        <v>34</v>
-      </c>
-      <c r="N236" t="s">
-        <v>34</v>
-      </c>
-      <c r="O236" t="s">
-        <v>34</v>
-      </c>
-      <c r="P236" t="s">
+      <c r="Q236" t="s">
         <v>2829</v>
-      </c>
-      <c r="Q236" t="s">
-        <v>2830</v>
       </c>
       <c r="R236" t="s">
         <v>195</v>
       </c>
       <c r="S236" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="T236" t="s">
         <v>34</v>
@@ -27862,7 +27859,7 @@
         <v>34</v>
       </c>
       <c r="Z236" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="237">
@@ -27870,58 +27867,58 @@
         <v>18</v>
       </c>
       <c r="B237" t="s">
+        <v>2831</v>
+      </c>
+      <c r="C237" t="s">
         <v>2832</v>
       </c>
-      <c r="C237" t="s">
+      <c r="D237" t="s">
         <v>2833</v>
       </c>
-      <c r="D237" t="s">
+      <c r="E237" t="s">
         <v>2834</v>
       </c>
-      <c r="E237" t="s">
+      <c r="F237" t="s">
         <v>2835</v>
       </c>
-      <c r="F237" t="s">
+      <c r="G237" t="s">
         <v>2836</v>
       </c>
-      <c r="G237" t="s">
+      <c r="H237" t="s">
         <v>2837</v>
       </c>
-      <c r="H237" t="s">
+      <c r="I237" t="s">
         <v>2838</v>
       </c>
-      <c r="I237" t="s">
+      <c r="J237" t="s">
+        <v>34</v>
+      </c>
+      <c r="K237" t="s">
         <v>2839</v>
       </c>
-      <c r="J237" t="s">
-        <v>34</v>
-      </c>
-      <c r="K237" t="s">
+      <c r="L237" t="s">
         <v>2840</v>
       </c>
-      <c r="L237" t="s">
+      <c r="M237" t="s">
+        <v>34</v>
+      </c>
+      <c r="N237" t="s">
+        <v>34</v>
+      </c>
+      <c r="O237" t="s">
+        <v>34</v>
+      </c>
+      <c r="P237" t="s">
         <v>2841</v>
       </c>
-      <c r="M237" t="s">
-        <v>34</v>
-      </c>
-      <c r="N237" t="s">
-        <v>34</v>
-      </c>
-      <c r="O237" t="s">
-        <v>34</v>
-      </c>
-      <c r="P237" t="s">
+      <c r="Q237" t="s">
         <v>2842</v>
-      </c>
-      <c r="Q237" t="s">
-        <v>2843</v>
       </c>
       <c r="R237" t="s">
         <v>39</v>
       </c>
       <c r="S237" t="s">
-        <v>2834</v>
+        <v>2833</v>
       </c>
       <c r="T237" t="s">
         <v>34</v>
@@ -27942,7 +27939,7 @@
         <v>34</v>
       </c>
       <c r="Z237" t="s">
-        <v>2844</v>
+        <v>2843</v>
       </c>
     </row>
     <row r="238">
@@ -27950,58 +27947,58 @@
         <v>18</v>
       </c>
       <c r="B238" t="s">
+        <v>2844</v>
+      </c>
+      <c r="C238" t="s">
         <v>2845</v>
       </c>
-      <c r="C238" t="s">
+      <c r="D238" t="s">
         <v>2846</v>
       </c>
-      <c r="D238" t="s">
+      <c r="E238" t="s">
         <v>2847</v>
       </c>
-      <c r="E238" t="s">
+      <c r="F238" t="s">
         <v>2848</v>
       </c>
-      <c r="F238" t="s">
+      <c r="G238" t="s">
         <v>2849</v>
       </c>
-      <c r="G238" t="s">
+      <c r="H238" t="s">
         <v>2850</v>
       </c>
-      <c r="H238" t="s">
+      <c r="I238" t="s">
         <v>2851</v>
       </c>
-      <c r="I238" t="s">
+      <c r="J238" t="s">
+        <v>34</v>
+      </c>
+      <c r="K238" t="s">
         <v>2852</v>
       </c>
-      <c r="J238" t="s">
-        <v>34</v>
-      </c>
-      <c r="K238" t="s">
+      <c r="L238" t="s">
         <v>2853</v>
       </c>
-      <c r="L238" t="s">
+      <c r="M238" t="s">
+        <v>34</v>
+      </c>
+      <c r="N238" t="s">
+        <v>34</v>
+      </c>
+      <c r="O238" t="s">
+        <v>34</v>
+      </c>
+      <c r="P238" t="s">
         <v>2854</v>
       </c>
-      <c r="M238" t="s">
-        <v>34</v>
-      </c>
-      <c r="N238" t="s">
-        <v>34</v>
-      </c>
-      <c r="O238" t="s">
-        <v>34</v>
-      </c>
-      <c r="P238" t="s">
+      <c r="Q238" t="s">
         <v>2855</v>
-      </c>
-      <c r="Q238" t="s">
-        <v>2856</v>
       </c>
       <c r="R238" t="s">
         <v>77</v>
       </c>
       <c r="S238" t="s">
-        <v>2847</v>
+        <v>2846</v>
       </c>
       <c r="T238" t="s">
         <v>34</v>
@@ -28022,7 +28019,7 @@
         <v>34</v>
       </c>
       <c r="Z238" t="s">
-        <v>2857</v>
+        <v>2856</v>
       </c>
     </row>
     <row r="239">
@@ -28030,58 +28027,58 @@
         <v>18</v>
       </c>
       <c r="B239" t="s">
+        <v>2857</v>
+      </c>
+      <c r="C239" t="s">
         <v>2858</v>
       </c>
-      <c r="C239" t="s">
+      <c r="D239" t="s">
         <v>2859</v>
       </c>
-      <c r="D239" t="s">
+      <c r="E239" t="s">
         <v>2860</v>
       </c>
-      <c r="E239" t="s">
+      <c r="F239" t="s">
         <v>2861</v>
       </c>
-      <c r="F239" t="s">
+      <c r="G239" t="s">
         <v>2862</v>
       </c>
-      <c r="G239" t="s">
+      <c r="H239" t="s">
         <v>2863</v>
       </c>
-      <c r="H239" t="s">
+      <c r="I239" t="s">
+        <v>2849</v>
+      </c>
+      <c r="J239" t="s">
+        <v>34</v>
+      </c>
+      <c r="K239" t="s">
         <v>2864</v>
       </c>
-      <c r="I239" t="s">
-        <v>2850</v>
-      </c>
-      <c r="J239" t="s">
-        <v>34</v>
-      </c>
-      <c r="K239" t="s">
+      <c r="L239" t="s">
         <v>2865</v>
       </c>
-      <c r="L239" t="s">
+      <c r="M239" t="s">
+        <v>34</v>
+      </c>
+      <c r="N239" t="s">
+        <v>34</v>
+      </c>
+      <c r="O239" t="s">
+        <v>34</v>
+      </c>
+      <c r="P239" t="s">
         <v>2866</v>
       </c>
-      <c r="M239" t="s">
-        <v>34</v>
-      </c>
-      <c r="N239" t="s">
-        <v>34</v>
-      </c>
-      <c r="O239" t="s">
-        <v>34</v>
-      </c>
-      <c r="P239" t="s">
+      <c r="Q239" t="s">
         <v>2867</v>
-      </c>
-      <c r="Q239" t="s">
-        <v>2868</v>
       </c>
       <c r="R239" t="s">
         <v>77</v>
       </c>
       <c r="S239" t="s">
-        <v>2860</v>
+        <v>2859</v>
       </c>
       <c r="T239" t="s">
         <v>34</v>
@@ -28102,7 +28099,7 @@
         <v>34</v>
       </c>
       <c r="Z239" t="s">
-        <v>2869</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="240">
@@ -28110,58 +28107,58 @@
         <v>18</v>
       </c>
       <c r="B240" t="s">
+        <v>2869</v>
+      </c>
+      <c r="C240" t="s">
         <v>2870</v>
       </c>
-      <c r="C240" t="s">
+      <c r="D240" t="s">
         <v>2871</v>
       </c>
-      <c r="D240" t="s">
+      <c r="E240" t="s">
         <v>2872</v>
       </c>
-      <c r="E240" t="s">
+      <c r="F240" t="s">
         <v>2873</v>
       </c>
-      <c r="F240" t="s">
+      <c r="G240" t="s">
         <v>2874</v>
       </c>
-      <c r="G240" t="s">
+      <c r="H240" t="s">
         <v>2875</v>
       </c>
-      <c r="H240" t="s">
+      <c r="I240" t="s">
         <v>2876</v>
       </c>
-      <c r="I240" t="s">
+      <c r="J240" t="s">
+        <v>34</v>
+      </c>
+      <c r="K240" t="s">
+        <v>34</v>
+      </c>
+      <c r="L240" t="s">
+        <v>34</v>
+      </c>
+      <c r="M240" t="s">
+        <v>34</v>
+      </c>
+      <c r="N240" t="s">
+        <v>34</v>
+      </c>
+      <c r="O240" t="s">
+        <v>34</v>
+      </c>
+      <c r="P240" t="s">
         <v>2877</v>
       </c>
-      <c r="J240" t="s">
-        <v>34</v>
-      </c>
-      <c r="K240" t="s">
-        <v>34</v>
-      </c>
-      <c r="L240" t="s">
-        <v>34</v>
-      </c>
-      <c r="M240" t="s">
-        <v>34</v>
-      </c>
-      <c r="N240" t="s">
-        <v>34</v>
-      </c>
-      <c r="O240" t="s">
-        <v>34</v>
-      </c>
-      <c r="P240" t="s">
+      <c r="Q240" t="s">
         <v>2878</v>
-      </c>
-      <c r="Q240" t="s">
-        <v>2879</v>
       </c>
       <c r="R240" t="s">
         <v>77</v>
       </c>
       <c r="S240" t="s">
-        <v>2872</v>
+        <v>2871</v>
       </c>
       <c r="T240" t="s">
         <v>34</v>
@@ -28190,58 +28187,58 @@
         <v>18</v>
       </c>
       <c r="B241" t="s">
+        <v>2879</v>
+      </c>
+      <c r="C241" t="s">
         <v>2880</v>
       </c>
-      <c r="C241" t="s">
+      <c r="D241" t="s">
         <v>2881</v>
       </c>
-      <c r="D241" t="s">
+      <c r="E241" t="s">
         <v>2882</v>
       </c>
-      <c r="E241" t="s">
+      <c r="F241" t="s">
         <v>2883</v>
-      </c>
-      <c r="F241" t="s">
-        <v>2884</v>
       </c>
       <c r="G241" t="s">
         <v>1113</v>
       </c>
       <c r="H241" t="s">
+        <v>2884</v>
+      </c>
+      <c r="I241" t="s">
         <v>2885</v>
       </c>
-      <c r="I241" t="s">
+      <c r="J241" t="s">
+        <v>34</v>
+      </c>
+      <c r="K241" t="s">
+        <v>34</v>
+      </c>
+      <c r="L241" t="s">
+        <v>34</v>
+      </c>
+      <c r="M241" t="s">
+        <v>34</v>
+      </c>
+      <c r="N241" t="s">
+        <v>34</v>
+      </c>
+      <c r="O241" t="s">
+        <v>34</v>
+      </c>
+      <c r="P241" t="s">
         <v>2886</v>
       </c>
-      <c r="J241" t="s">
-        <v>34</v>
-      </c>
-      <c r="K241" t="s">
-        <v>34</v>
-      </c>
-      <c r="L241" t="s">
-        <v>34</v>
-      </c>
-      <c r="M241" t="s">
-        <v>34</v>
-      </c>
-      <c r="N241" t="s">
-        <v>34</v>
-      </c>
-      <c r="O241" t="s">
-        <v>34</v>
-      </c>
-      <c r="P241" t="s">
+      <c r="Q241" t="s">
         <v>2887</v>
-      </c>
-      <c r="Q241" t="s">
-        <v>2888</v>
       </c>
       <c r="R241" t="s">
         <v>77</v>
       </c>
       <c r="S241" t="s">
-        <v>2882</v>
+        <v>2881</v>
       </c>
       <c r="T241" t="s">
         <v>34</v>
@@ -28270,58 +28267,58 @@
         <v>18</v>
       </c>
       <c r="B242" t="s">
+        <v>2888</v>
+      </c>
+      <c r="C242" t="s">
         <v>2889</v>
       </c>
-      <c r="C242" t="s">
+      <c r="D242" t="s">
         <v>2890</v>
       </c>
-      <c r="D242" t="s">
+      <c r="E242" t="s">
         <v>2891</v>
       </c>
-      <c r="E242" t="s">
+      <c r="F242" t="s">
         <v>2892</v>
       </c>
-      <c r="F242" t="s">
+      <c r="G242" t="s">
         <v>2893</v>
       </c>
-      <c r="G242" t="s">
+      <c r="H242" t="s">
         <v>2894</v>
       </c>
-      <c r="H242" t="s">
+      <c r="I242" t="s">
         <v>2895</v>
       </c>
-      <c r="I242" t="s">
+      <c r="J242" t="s">
+        <v>34</v>
+      </c>
+      <c r="K242" t="s">
         <v>2896</v>
       </c>
-      <c r="J242" t="s">
-        <v>34</v>
-      </c>
-      <c r="K242" t="s">
+      <c r="L242" t="s">
         <v>2897</v>
       </c>
-      <c r="L242" t="s">
+      <c r="M242" t="s">
+        <v>34</v>
+      </c>
+      <c r="N242" t="s">
+        <v>34</v>
+      </c>
+      <c r="O242" t="s">
+        <v>34</v>
+      </c>
+      <c r="P242" t="s">
         <v>2898</v>
       </c>
-      <c r="M242" t="s">
-        <v>34</v>
-      </c>
-      <c r="N242" t="s">
-        <v>34</v>
-      </c>
-      <c r="O242" t="s">
-        <v>34</v>
-      </c>
-      <c r="P242" t="s">
+      <c r="Q242" t="s">
         <v>2899</v>
-      </c>
-      <c r="Q242" t="s">
-        <v>2900</v>
       </c>
       <c r="R242" t="s">
         <v>77</v>
       </c>
       <c r="S242" t="s">
-        <v>2891</v>
+        <v>2890</v>
       </c>
       <c r="T242" t="s">
         <v>34</v>
@@ -28350,58 +28347,58 @@
         <v>18</v>
       </c>
       <c r="B243" t="s">
+        <v>2900</v>
+      </c>
+      <c r="C243" t="s">
         <v>2901</v>
       </c>
-      <c r="C243" t="s">
+      <c r="D243" t="s">
         <v>2902</v>
       </c>
-      <c r="D243" t="s">
+      <c r="E243" t="s">
         <v>2903</v>
       </c>
-      <c r="E243" t="s">
+      <c r="F243" t="s">
         <v>2904</v>
       </c>
-      <c r="F243" t="s">
+      <c r="G243" t="s">
+        <v>2286</v>
+      </c>
+      <c r="H243" t="s">
         <v>2905</v>
       </c>
-      <c r="G243" t="s">
-        <v>2287</v>
-      </c>
-      <c r="H243" t="s">
+      <c r="I243" t="s">
         <v>2906</v>
       </c>
-      <c r="I243" t="s">
+      <c r="J243" t="s">
+        <v>34</v>
+      </c>
+      <c r="K243" t="s">
         <v>2907</v>
       </c>
-      <c r="J243" t="s">
-        <v>34</v>
-      </c>
-      <c r="K243" t="s">
+      <c r="L243" t="s">
+        <v>34</v>
+      </c>
+      <c r="M243" t="s">
+        <v>34</v>
+      </c>
+      <c r="N243" t="s">
+        <v>34</v>
+      </c>
+      <c r="O243" t="s">
+        <v>34</v>
+      </c>
+      <c r="P243" t="s">
+        <v>1962</v>
+      </c>
+      <c r="Q243" t="s">
         <v>2908</v>
-      </c>
-      <c r="L243" t="s">
-        <v>34</v>
-      </c>
-      <c r="M243" t="s">
-        <v>34</v>
-      </c>
-      <c r="N243" t="s">
-        <v>34</v>
-      </c>
-      <c r="O243" t="s">
-        <v>34</v>
-      </c>
-      <c r="P243" t="s">
-        <v>1963</v>
-      </c>
-      <c r="Q243" t="s">
-        <v>2909</v>
       </c>
       <c r="R243" t="s">
         <v>52</v>
       </c>
       <c r="S243" t="s">
-        <v>2903</v>
+        <v>2902</v>
       </c>
       <c r="T243" t="s">
         <v>34</v>
@@ -28430,25 +28427,25 @@
         <v>18</v>
       </c>
       <c r="B244" t="s">
+        <v>2909</v>
+      </c>
+      <c r="C244" t="s">
         <v>2910</v>
       </c>
-      <c r="C244" t="s">
+      <c r="D244" t="s">
         <v>2911</v>
       </c>
-      <c r="D244" t="s">
+      <c r="E244" t="s">
         <v>2912</v>
       </c>
-      <c r="E244" t="s">
+      <c r="F244" t="s">
         <v>2913</v>
       </c>
-      <c r="F244" t="s">
+      <c r="G244" t="s">
         <v>2914</v>
       </c>
-      <c r="G244" t="s">
+      <c r="H244" t="s">
         <v>2915</v>
-      </c>
-      <c r="H244" t="s">
-        <v>2916</v>
       </c>
       <c r="I244" t="s">
         <v>34</v>
@@ -28475,13 +28472,13 @@
         <v>1122</v>
       </c>
       <c r="Q244" t="s">
-        <v>2917</v>
+        <v>2916</v>
       </c>
       <c r="R244" t="s">
         <v>52</v>
       </c>
       <c r="S244" t="s">
-        <v>2912</v>
+        <v>2911</v>
       </c>
       <c r="T244" t="s">
         <v>34</v>
@@ -28510,58 +28507,58 @@
         <v>18</v>
       </c>
       <c r="B245" t="s">
+        <v>2917</v>
+      </c>
+      <c r="C245" t="s">
         <v>2918</v>
       </c>
-      <c r="C245" t="s">
+      <c r="D245" t="s">
         <v>2919</v>
       </c>
-      <c r="D245" t="s">
+      <c r="E245" t="s">
         <v>2920</v>
       </c>
-      <c r="E245" t="s">
+      <c r="F245" t="s">
         <v>2921</v>
       </c>
-      <c r="F245" t="s">
+      <c r="G245" t="s">
         <v>2922</v>
       </c>
-      <c r="G245" t="s">
+      <c r="H245" t="s">
         <v>2923</v>
       </c>
-      <c r="H245" t="s">
+      <c r="I245" t="s">
         <v>2924</v>
       </c>
-      <c r="I245" t="s">
+      <c r="J245" t="s">
+        <v>34</v>
+      </c>
+      <c r="K245" t="s">
         <v>2925</v>
       </c>
-      <c r="J245" t="s">
-        <v>34</v>
-      </c>
-      <c r="K245" t="s">
+      <c r="L245" t="s">
+        <v>34</v>
+      </c>
+      <c r="M245" t="s">
+        <v>34</v>
+      </c>
+      <c r="N245" t="s">
+        <v>34</v>
+      </c>
+      <c r="O245" t="s">
+        <v>34</v>
+      </c>
+      <c r="P245" t="s">
         <v>2926</v>
       </c>
-      <c r="L245" t="s">
-        <v>34</v>
-      </c>
-      <c r="M245" t="s">
-        <v>34</v>
-      </c>
-      <c r="N245" t="s">
-        <v>34</v>
-      </c>
-      <c r="O245" t="s">
-        <v>34</v>
-      </c>
-      <c r="P245" t="s">
+      <c r="Q245" t="s">
         <v>2927</v>
-      </c>
-      <c r="Q245" t="s">
-        <v>2928</v>
       </c>
       <c r="R245" t="s">
         <v>52</v>
       </c>
       <c r="S245" t="s">
-        <v>2920</v>
+        <v>2919</v>
       </c>
       <c r="T245" t="s">
         <v>34</v>
@@ -28590,58 +28587,58 @@
         <v>18</v>
       </c>
       <c r="B246" t="s">
+        <v>2928</v>
+      </c>
+      <c r="C246" t="s">
         <v>2929</v>
       </c>
-      <c r="C246" t="s">
+      <c r="D246" t="s">
         <v>2930</v>
       </c>
-      <c r="D246" t="s">
+      <c r="E246" t="s">
         <v>2931</v>
       </c>
-      <c r="E246" t="s">
+      <c r="F246" t="s">
         <v>2932</v>
-      </c>
-      <c r="F246" t="s">
-        <v>2933</v>
       </c>
       <c r="G246" t="s">
         <v>413</v>
       </c>
       <c r="H246" t="s">
+        <v>2933</v>
+      </c>
+      <c r="I246" t="s">
         <v>2934</v>
       </c>
-      <c r="I246" t="s">
+      <c r="J246" t="s">
+        <v>34</v>
+      </c>
+      <c r="K246" t="s">
         <v>2935</v>
       </c>
-      <c r="J246" t="s">
-        <v>34</v>
-      </c>
-      <c r="K246" t="s">
+      <c r="L246" t="s">
         <v>2936</v>
       </c>
-      <c r="L246" t="s">
+      <c r="M246" t="s">
         <v>2937</v>
       </c>
-      <c r="M246" t="s">
+      <c r="N246" t="s">
         <v>2938</v>
       </c>
-      <c r="N246" t="s">
+      <c r="O246" t="s">
         <v>2939</v>
       </c>
-      <c r="O246" t="s">
+      <c r="P246" t="s">
+        <v>1962</v>
+      </c>
+      <c r="Q246" t="s">
         <v>2940</v>
-      </c>
-      <c r="P246" t="s">
-        <v>1963</v>
-      </c>
-      <c r="Q246" t="s">
-        <v>2941</v>
       </c>
       <c r="R246" t="s">
         <v>52</v>
       </c>
       <c r="S246" t="s">
-        <v>2931</v>
+        <v>2930</v>
       </c>
       <c r="T246" t="s">
         <v>34</v>
@@ -28670,58 +28667,58 @@
         <v>18</v>
       </c>
       <c r="B247" t="s">
+        <v>2941</v>
+      </c>
+      <c r="C247" t="s">
         <v>2942</v>
       </c>
-      <c r="C247" t="s">
+      <c r="D247" t="s">
         <v>2943</v>
       </c>
-      <c r="D247" t="s">
+      <c r="E247" t="s">
         <v>2944</v>
       </c>
-      <c r="E247" t="s">
+      <c r="F247" t="s">
         <v>2945</v>
-      </c>
-      <c r="F247" t="s">
-        <v>2946</v>
       </c>
       <c r="G247" t="s">
         <v>518</v>
       </c>
       <c r="H247" t="s">
+        <v>2946</v>
+      </c>
+      <c r="I247" t="s">
+        <v>2922</v>
+      </c>
+      <c r="J247" t="s">
+        <v>34</v>
+      </c>
+      <c r="K247" t="s">
+        <v>2943</v>
+      </c>
+      <c r="L247" t="s">
         <v>2947</v>
       </c>
-      <c r="I247" t="s">
-        <v>2923</v>
-      </c>
-      <c r="J247" t="s">
-        <v>34</v>
-      </c>
-      <c r="K247" t="s">
-        <v>2944</v>
-      </c>
-      <c r="L247" t="s">
+      <c r="M247" t="s">
         <v>2948</v>
       </c>
-      <c r="M247" t="s">
+      <c r="N247" t="s">
+        <v>34</v>
+      </c>
+      <c r="O247" t="s">
+        <v>34</v>
+      </c>
+      <c r="P247" t="s">
         <v>2949</v>
       </c>
-      <c r="N247" t="s">
-        <v>34</v>
-      </c>
-      <c r="O247" t="s">
-        <v>34</v>
-      </c>
-      <c r="P247" t="s">
+      <c r="Q247" t="s">
         <v>2950</v>
-      </c>
-      <c r="Q247" t="s">
-        <v>2951</v>
       </c>
       <c r="R247" t="s">
         <v>195</v>
       </c>
       <c r="S247" t="s">
-        <v>2944</v>
+        <v>2943</v>
       </c>
       <c r="T247" t="s">
         <v>34</v>
@@ -28742,7 +28739,7 @@
         <v>34</v>
       </c>
       <c r="Z247" t="s">
-        <v>2952</v>
+        <v>2951</v>
       </c>
     </row>
     <row r="248">
@@ -28756,31 +28753,31 @@
         <v>34</v>
       </c>
       <c r="D248" t="s">
+        <v>2952</v>
+      </c>
+      <c r="E248" t="s">
         <v>2953</v>
       </c>
-      <c r="E248" t="s">
+      <c r="F248" t="s">
         <v>2954</v>
       </c>
-      <c r="F248" t="s">
+      <c r="G248" t="s">
         <v>2955</v>
       </c>
-      <c r="G248" t="s">
+      <c r="H248" t="s">
         <v>2956</v>
       </c>
-      <c r="H248" t="s">
+      <c r="I248" t="s">
+        <v>34</v>
+      </c>
+      <c r="J248" t="s">
+        <v>34</v>
+      </c>
+      <c r="K248" t="s">
         <v>2957</v>
       </c>
-      <c r="I248" t="s">
-        <v>34</v>
-      </c>
-      <c r="J248" t="s">
-        <v>34</v>
-      </c>
-      <c r="K248" t="s">
-        <v>2958</v>
-      </c>
       <c r="L248" t="s">
-        <v>2954</v>
+        <v>2953</v>
       </c>
       <c r="M248" t="s">
         <v>34</v>
@@ -28801,7 +28798,7 @@
         <v>52</v>
       </c>
       <c r="S248" t="s">
-        <v>2953</v>
+        <v>2952</v>
       </c>
       <c r="T248" t="s">
         <v>34</v>
@@ -28836,52 +28833,52 @@
         <v>34</v>
       </c>
       <c r="D249" t="s">
+        <v>2958</v>
+      </c>
+      <c r="E249" t="s">
         <v>2959</v>
       </c>
-      <c r="E249" t="s">
+      <c r="F249" t="s">
+        <v>34</v>
+      </c>
+      <c r="G249" t="s">
+        <v>34</v>
+      </c>
+      <c r="H249" t="s">
+        <v>34</v>
+      </c>
+      <c r="I249" t="s">
+        <v>34</v>
+      </c>
+      <c r="J249" t="s">
+        <v>34</v>
+      </c>
+      <c r="K249" t="s">
+        <v>34</v>
+      </c>
+      <c r="L249" t="s">
+        <v>34</v>
+      </c>
+      <c r="M249" t="s">
+        <v>34</v>
+      </c>
+      <c r="N249" t="s">
+        <v>34</v>
+      </c>
+      <c r="O249" t="s">
+        <v>34</v>
+      </c>
+      <c r="P249" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q249" t="s">
+        <v>34</v>
+      </c>
+      <c r="R249" t="s">
         <v>2960</v>
       </c>
-      <c r="F249" t="s">
-        <v>34</v>
-      </c>
-      <c r="G249" t="s">
-        <v>34</v>
-      </c>
-      <c r="H249" t="s">
-        <v>34</v>
-      </c>
-      <c r="I249" t="s">
-        <v>34</v>
-      </c>
-      <c r="J249" t="s">
-        <v>34</v>
-      </c>
-      <c r="K249" t="s">
-        <v>34</v>
-      </c>
-      <c r="L249" t="s">
-        <v>34</v>
-      </c>
-      <c r="M249" t="s">
-        <v>34</v>
-      </c>
-      <c r="N249" t="s">
-        <v>34</v>
-      </c>
-      <c r="O249" t="s">
-        <v>34</v>
-      </c>
-      <c r="P249" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q249" t="s">
-        <v>34</v>
-      </c>
-      <c r="R249" t="s">
-        <v>2961</v>
-      </c>
       <c r="S249" t="s">
-        <v>2959</v>
+        <v>2958</v>
       </c>
       <c r="T249" t="s">
         <v>34</v>
@@ -28916,11 +28913,11 @@
         <v>34</v>
       </c>
       <c r="D250" t="s">
+        <v>2961</v>
+      </c>
+      <c r="E250" t="s">
         <v>2962</v>
       </c>
-      <c r="E250" t="s">
-        <v>2963</v>
-      </c>
       <c r="F250" t="s">
         <v>34</v>
       </c>
@@ -28958,10 +28955,10 @@
         <v>34</v>
       </c>
       <c r="R250" t="s">
+        <v>2960</v>
+      </c>
+      <c r="S250" t="s">
         <v>2961</v>
-      </c>
-      <c r="S250" t="s">
-        <v>2962</v>
       </c>
       <c r="T250" t="s">
         <v>34</v>
